--- a/on_trucks/Processed_Stand_Alone/61_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/61_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>102</v>
       </c>
       <c r="E2">
-        <v>0.0005120085641913101</v>
+        <v>0.0005118256115006746</v>
       </c>
       <c r="F2">
         <v>0.5133063411456915</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>104</v>
       </c>
       <c r="E3">
-        <v>0.001105440160121972</v>
+        <v>0.001065191909387473</v>
       </c>
       <c r="F3">
         <v>0.504368478224676</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.001361288620382154</v>
+        <v>0.001354960610643088</v>
       </c>
       <c r="F4">
         <v>0.5987441472999457</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
-        <v>0.001294425955119399</v>
+        <v>0.001234181221683614</v>
       </c>
       <c r="F5">
         <v>0.5026990618394848</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>104</v>
       </c>
       <c r="E6">
-        <v>0.0008929723056086308</v>
+        <v>0.0008841022130977235</v>
       </c>
       <c r="F6">
         <v>0.5139827385120455</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>113</v>
       </c>
       <c r="E2">
-        <v>0.0005120085641913101</v>
+        <v>0.0005118256115006746</v>
       </c>
       <c r="F2">
         <v>0.7396073067884422</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>113</v>
       </c>
       <c r="E3">
-        <v>0.001105440160121972</v>
+        <v>0.001065191909387473</v>
       </c>
       <c r="F3">
         <v>0.734406230539232</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>112</v>
       </c>
       <c r="E4">
-        <v>0.001361288620382154</v>
+        <v>0.001354960610643088</v>
       </c>
       <c r="F4">
         <v>0.7081954484183022</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>113</v>
       </c>
       <c r="E5">
-        <v>0.001294425955119399</v>
+        <v>0.001234181221683614</v>
       </c>
       <c r="F5">
         <v>0.7002227163109158</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>112</v>
       </c>
       <c r="E6">
-        <v>0.0008929723056086308</v>
+        <v>0.0008841022130977235</v>
       </c>
       <c r="F6">
         <v>0.7155018149879527</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>123</v>
       </c>
       <c r="E2">
-        <v>0.0005120085641913101</v>
+        <v>0.0005118256115006746</v>
       </c>
       <c r="F2">
         <v>0.8009076243806199</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>126</v>
       </c>
       <c r="E3">
-        <v>0.001105440160121972</v>
+        <v>0.001065191909387473</v>
       </c>
       <c r="F3">
         <v>0.8088025548227504</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>126</v>
       </c>
       <c r="E4">
-        <v>0.001361288620382154</v>
+        <v>0.001354960610643088</v>
       </c>
       <c r="F4">
         <v>0.8104519637918296</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>123</v>
       </c>
       <c r="E5">
-        <v>0.001294425955119399</v>
+        <v>0.001234181221683614</v>
       </c>
       <c r="F5">
         <v>0.8027117638798565</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>122</v>
       </c>
       <c r="E6">
-        <v>0.0008929723056086308</v>
+        <v>0.0008841022130977235</v>
       </c>
       <c r="F6">
         <v>0.8023827260513059</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>144</v>
       </c>
       <c r="E2">
-        <v>0.0005120085641913101</v>
+        <v>0.0005118256115006746</v>
       </c>
       <c r="F2">
         <v>0.9012258383511038</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>147</v>
       </c>
       <c r="E3">
-        <v>0.001105440160121972</v>
+        <v>0.001065191909387473</v>
       </c>
       <c r="F3">
         <v>0.9134798280716078</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>142</v>
       </c>
       <c r="E4">
-        <v>0.001361288620382154</v>
+        <v>0.001354960610643088</v>
       </c>
       <c r="F4">
         <v>0.9025366186416813</v>
       </c>
       <c r="G4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.001294425955119399</v>
+        <v>0.001234181221683614</v>
       </c>
       <c r="F5">
         <v>0.9010966288064596</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>142</v>
       </c>
       <c r="E6">
-        <v>0.0008929723056086308</v>
+        <v>0.0008841022130977235</v>
       </c>
       <c r="F6">
         <v>0.9063053738774888</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>61</v>

--- a/on_trucks/Processed_Stand_Alone/61_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/61_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.772077392983024E-06</v>
+        <v>9.581785761227374E-06</v>
       </c>
       <c r="C2">
-        <v>1.584790101556808E-05</v>
+        <v>1.565783255536945E-05</v>
       </c>
       <c r="D2">
-        <v>2.425469649335899E-05</v>
+        <v>2.406493682382858E-05</v>
       </c>
       <c r="E2">
-        <v>1.912116881224088E-05</v>
+        <v>1.893122058270004E-05</v>
       </c>
       <c r="F2">
-        <v>9.331738420335778E-06</v>
+        <v>9.14143061445457E-06</v>
       </c>
       <c r="G2">
-        <v>1.187921226209308E-05</v>
+        <v>1.168899802767462E-05</v>
       </c>
       <c r="H2">
-        <v>1.744615191628873E-05</v>
+        <v>1.725614216157009E-05</v>
       </c>
       <c r="I2">
-        <v>1.729768392551119E-05</v>
+        <v>1.710766871740306E-05</v>
       </c>
       <c r="J2">
-        <v>4.997463389570089E-06</v>
+        <v>4.806996381090636E-06</v>
       </c>
       <c r="K2">
-        <v>1.906030681602147E-06</v>
+        <v>1.715450121463902E-06</v>
       </c>
       <c r="L2">
-        <v>2.894020120230717E-06</v>
+        <v>2.703475850010521E-06</v>
       </c>
       <c r="M2">
-        <v>1.532905604779743E-06</v>
+        <v>1.342311339354851E-06</v>
       </c>
       <c r="N2">
-        <v>1.239729322991119E-06</v>
+        <v>1.049124288885082E-06</v>
       </c>
       <c r="O2">
-        <v>1.239729322991119E-06</v>
+        <v>1.049124288885082E-06</v>
       </c>
       <c r="P2">
-        <v>8.748329456575682E-07</v>
+        <v>6.842145085138949E-07</v>
       </c>
       <c r="Q2">
-        <v>1.083920232669589E-07</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6.380921603633129E-09</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.90643568157699E-07</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>8.085057797776457E-07</v>
+        <v>6.178849063656074E-07</v>
       </c>
       <c r="U2">
-        <v>1.278499720582799E-06</v>
+        <v>1.087896110555296E-06</v>
       </c>
       <c r="V2">
-        <v>4.945641992789105E-07</v>
+        <v>3.039317944539006E-07</v>
       </c>
       <c r="W2">
-        <v>5.459345660879118E-07</v>
+        <v>3.553040481518997E-07</v>
       </c>
       <c r="X2">
-        <v>2.892202820343603E-06</v>
+        <v>2.701658483372021E-06</v>
       </c>
       <c r="Y2">
-        <v>4.230673737201141E-06</v>
+        <v>4.040178563710447E-06</v>
       </c>
       <c r="Z2">
-        <v>2.060286772020145E-07</v>
+        <v>1.538567415597015E-08</v>
       </c>
       <c r="AA2">
-        <v>2.283821358134737E-08</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>7.280871047730524E-10</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.161674527839687E-06</v>
+        <v>9.710666266968087E-07</v>
       </c>
       <c r="AD2">
-        <v>2.107819869067508E-06</v>
+        <v>1.917246720863834E-06</v>
       </c>
       <c r="AE2">
-        <v>1.049350634816966E-06</v>
+        <v>8.587386078963076E-07</v>
       </c>
       <c r="AF2">
-        <v>2.230188761466259E-07</v>
+        <v>3.237649716891994E-08</v>
       </c>
       <c r="AG2">
-        <v>3.01648541262348E-06</v>
+        <v>2.825945640685604E-06</v>
       </c>
       <c r="AH2">
-        <v>6.442872599784889E-06</v>
+        <v>6.252458682745218E-06</v>
       </c>
       <c r="AI2">
-        <v>4.607237513809943E-06</v>
+        <v>4.416756171913048E-06</v>
       </c>
       <c r="AJ2">
-        <v>2.056420872260285E-06</v>
+        <v>1.865845836116002E-06</v>
       </c>
       <c r="AK2">
-        <v>6.995386065464136E-10</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.401582050819737E-07</v>
+        <v>4.95164556503116E-08</v>
       </c>
       <c r="AM2">
-        <v>2.894020120230717E-06</v>
+        <v>2.703475850010521E-06</v>
       </c>
       <c r="AN2">
-        <v>8.651979962560671E-08</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>9.698168397574065E-08</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>7.76793451747536E-07</v>
+        <v>5.861714135074739E-07</v>
       </c>
       <c r="AQ2">
-        <v>1.199214125507821E-06</v>
+        <v>1.008607603234868E-06</v>
       </c>
       <c r="AR2">
-        <v>2.597236838666151E-06</v>
+        <v>2.406681667275816E-06</v>
       </c>
       <c r="AS2">
-        <v>6.530875594318362E-06</v>
+        <v>6.340464909723629E-06</v>
       </c>
       <c r="AT2">
-        <v>4.528820718680997E-06</v>
+        <v>4.338336496450611E-06</v>
       </c>
       <c r="AU2">
-        <v>4.453332723370122E-06</v>
+        <v>4.262845728384223E-06</v>
       </c>
       <c r="AV2">
-        <v>3.802486363799069E-06</v>
+        <v>3.611975462524168E-06</v>
       </c>
       <c r="AW2">
-        <v>4.759093104377054E-06</v>
+        <v>4.568617340299842E-06</v>
       </c>
       <c r="AX2">
-        <v>3.596957176566028E-06</v>
+        <v>3.406438725982328E-06</v>
       </c>
       <c r="AY2">
-        <v>6.0836451220992E-06</v>
+        <v>5.893218010246693E-06</v>
       </c>
       <c r="AZ2">
-        <v>1.126969029995506E-05</v>
+        <v>1.10794536771373E-05</v>
       </c>
       <c r="BA2">
-        <v>5.822919838294801E-06</v>
+        <v>5.632483149721317E-06</v>
       </c>
       <c r="BB2">
-        <v>2.318132456003417E-06</v>
+        <v>2.127567032807973E-06</v>
       </c>
       <c r="BC2">
-        <v>3.463110084880274E-06</v>
+        <v>3.272586717948485E-06</v>
       </c>
       <c r="BD2">
-        <v>2.948022616876217E-07</v>
+        <v>1.041625193911157E-07</v>
       </c>
       <c r="BE2">
-        <v>1.958896078318281E-09</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>4.087567246090558E-06</v>
+        <v>3.897066816144044E-06</v>
       </c>
       <c r="BG2">
-        <v>3.204941600917053E-06</v>
+        <v>3.014408751178304E-06</v>
       </c>
       <c r="BH2">
-        <v>4.015866350544439E-06</v>
+        <v>3.825363286946672E-06</v>
       </c>
       <c r="BI2">
-        <v>1.584790101556808E-05</v>
+        <v>1.565783255536945E-05</v>
       </c>
       <c r="BJ2">
-        <v>1.103534431451205E-05</v>
+        <v>1.08450990839134E-05</v>
       </c>
       <c r="BK2">
-        <v>9.223241427075339E-06</v>
+        <v>9.032929635982509E-06</v>
       </c>
       <c r="BL2">
-        <v>1.542533704181669E-05</v>
+        <v>1.52352530603874E-05</v>
       </c>
       <c r="BM2">
-        <v>2.585927039368688E-05</v>
+        <v>2.566956966188705E-05</v>
       </c>
       <c r="BN2">
-        <v>2.604072838241516E-05</v>
+        <v>2.585103431576304E-05</v>
       </c>
       <c r="BO2">
-        <v>8.071633998610309E-06</v>
+        <v>7.881279907734131E-06</v>
       </c>
       <c r="BP2">
-        <v>1.865673284109048E-05</v>
+        <v>1.846676755231533E-05</v>
       </c>
       <c r="BQ2">
-        <v>1.865673284109048E-05</v>
+        <v>1.846676755231533E-05</v>
       </c>
       <c r="BR2">
-        <v>1.668069296383712E-06</v>
+        <v>1.477479995667045E-06</v>
       </c>
       <c r="BS2">
-        <v>2.541850642106603E-06</v>
+        <v>2.351293436321511E-06</v>
       </c>
       <c r="BT2">
-        <v>8.418326777074621E-07</v>
+        <v>6.512130284283421E-07</v>
       </c>
       <c r="BU2">
-        <v>2.401582050819737E-07</v>
+        <v>4.95164556503116E-08</v>
       </c>
       <c r="BV2">
-        <v>9.427367414395544E-07</v>
+        <v>7.521207984755633E-07</v>
       </c>
       <c r="BW2">
-        <v>6.854630974207489E-07</v>
+        <v>4.948377045182337E-07</v>
       </c>
       <c r="BX2">
-        <v>1.085044132599776E-06</v>
+        <v>8.944334167398013E-07</v>
       </c>
       <c r="BY2">
-        <v>4.915779694644075E-06</v>
+        <v>4.725309685834377E-06</v>
       </c>
       <c r="BZ2">
-        <v>2.597236838666151E-06</v>
+        <v>2.406681667275816E-06</v>
       </c>
       <c r="CA2">
-        <v>2.158282865932873E-06</v>
+        <v>1.96771157128952E-06</v>
       </c>
       <c r="CB2">
-        <v>1.091379932206212E-05</v>
+        <v>1.072354962698476E-05</v>
       </c>
       <c r="CC2">
-        <v>7.967732505064411E-06</v>
+        <v>7.777374597774271E-06</v>
       </c>
       <c r="CD2">
-        <v>1.237162123150587E-05</v>
+        <v>1.218142508380013E-05</v>
       </c>
       <c r="CE2">
-        <v>2.235827861115972E-05</v>
+        <v>2.21684492841544E-05</v>
       </c>
       <c r="CF2">
-        <v>1.378821414351067E-05</v>
+        <v>1.359807002879098E-05</v>
       </c>
       <c r="CG2">
-        <v>1.584364801583226E-05</v>
+        <v>1.565357939941636E-05</v>
       </c>
       <c r="CH2">
-        <v>7.767902517477348E-06</v>
+        <v>7.577537270216163E-06</v>
       </c>
       <c r="CI2">
-        <v>5.155568679748984E-06</v>
+        <v>4.965107478647423E-06</v>
       </c>
       <c r="CJ2">
-        <v>1.954032178620414E-06</v>
+        <v>1.763453381628945E-06</v>
       </c>
       <c r="CK2">
-        <v>1.335061917069297E-07</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>4.944649892850731E-08</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>4.986684190239665E-05</v>
+        <v>4.967802299460074E-05</v>
       </c>
       <c r="CN2">
-        <v>0.1461229409232088</v>
+        <v>0.1461281175259141</v>
       </c>
       <c r="CO2">
-        <v>0.123340822338377</v>
+        <v>0.1233451621292865</v>
       </c>
       <c r="CP2">
-        <v>0.09930855383120132</v>
+        <v>0.09931201089095948</v>
       </c>
       <c r="CQ2">
-        <v>0.007723995520204741</v>
+        <v>0.007724088580323121</v>
       </c>
       <c r="CR2">
-        <v>0.005097050383383994</v>
+        <v>0.005097046952973218</v>
       </c>
       <c r="CS2">
-        <v>0.0006509364095654603</v>
+        <v>0.0006507696685913945</v>
       </c>
       <c r="CT2">
-        <v>0.0002146080666690843</v>
+        <v>0.0002144252988842178</v>
       </c>
       <c r="CU2">
-        <v>0.0009631557001711799</v>
+        <v>0.0009630004273485197</v>
       </c>
       <c r="CV2">
-        <v>0.03961099053946446</v>
+        <v>0.03961225484331363</v>
       </c>
       <c r="CW2">
-        <v>0.001255566522007352</v>
+        <v>0.001255421989749668</v>
       </c>
       <c r="CX2">
-        <v>0.0742817853858015</v>
+        <v>0.07428432318535262</v>
       </c>
       <c r="CY2">
-        <v>0.01417406011954288</v>
+        <v>0.01417439009749314</v>
       </c>
       <c r="CZ2">
-        <v>0.0008146036493988613</v>
+        <v>0.0008144429200990995</v>
       </c>
       <c r="DA2">
-        <v>0.00904731543800342</v>
+        <v>0.009047457105090145</v>
       </c>
       <c r="DB2">
-        <v>0.02121295068230462</v>
+        <v>0.0212135392062997</v>
       </c>
       <c r="DC2">
-        <v>0.05321076669468042</v>
+        <v>0.05321253053298092</v>
       </c>
       <c r="DD2">
-        <v>0.01030456435990627</v>
+        <v>0.01030475220710237</v>
       </c>
       <c r="DE2">
-        <v>0.004306376732498661</v>
+        <v>0.004306344259791609</v>
       </c>
       <c r="DF2">
-        <v>0.03628789374588691</v>
+        <v>0.03628903598880547</v>
       </c>
       <c r="DG2">
-        <v>0.002548629841685497</v>
+        <v>0.002548532805038665</v>
       </c>
       <c r="DH2">
-        <v>0.02274402458719815</v>
+        <v>0.02274466934918967</v>
       </c>
       <c r="DI2">
-        <v>0.02274418258718833</v>
+        <v>0.02274482735498336</v>
       </c>
       <c r="DJ2">
-        <v>0.04307965732399956</v>
+        <v>0.04308104903572216</v>
       </c>
       <c r="DK2">
-        <v>0.0004169607140994446</v>
+        <v>0.0004167853789456418</v>
       </c>
       <c r="DL2">
-        <v>0.0180127818810911</v>
+        <v>0.01801325285943336</v>
       </c>
       <c r="DM2">
-        <v>0.009306755421887658</v>
+        <v>0.009306906618484908</v>
       </c>
       <c r="DN2">
-        <v>0.0005422902963142848</v>
+        <v>0.0005421195646512581</v>
       </c>
       <c r="DO2">
-        <v>0.01830559086290253</v>
+        <v>0.01830607259643462</v>
       </c>
       <c r="DP2">
-        <v>0.002768993827997037</v>
+        <v>0.002768904885557179</v>
       </c>
       <c r="DQ2">
-        <v>6.26803261064551E-05</v>
+        <v>6.24919778517588E-05</v>
       </c>
       <c r="DR2">
-        <v>0.004801377701750441</v>
+        <v>0.004801363410963058</v>
       </c>
       <c r="DS2">
-        <v>0.00591042693285908</v>
+        <v>0.005910453378646539</v>
       </c>
       <c r="DT2">
-        <v>0.001172459627169744</v>
+        <v>0.001172312042306146</v>
       </c>
       <c r="DU2">
-        <v>0.001181013126638422</v>
+        <v>0.001180865855954088</v>
       </c>
       <c r="DV2">
-        <v>0.004181072740282232</v>
+        <v>0.004181035665024352</v>
       </c>
       <c r="DW2">
-        <v>0.009815130390308678</v>
+        <v>0.009815300260067017</v>
       </c>
       <c r="DX2">
-        <v>0.02172443165053271</v>
+        <v>0.0217250389617756</v>
       </c>
       <c r="DY2">
-        <v>0.0001744207991654167</v>
+        <v>0.0001742365552588557</v>
       </c>
       <c r="DZ2">
-        <v>5.960826829728364E-05</v>
+        <v>5.94198072025895E-05</v>
       </c>
       <c r="EA2">
-        <v>0.02035538373557454</v>
+        <v>0.02035594076021041</v>
       </c>
       <c r="EB2">
-        <v>0.009234730426361672</v>
+        <v>0.009234878977403126</v>
       </c>
       <c r="EC2">
-        <v>0.001480719908021387</v>
+        <v>0.001480583645890495</v>
       </c>
       <c r="ED2">
-        <v>0.003019988312405889</v>
+        <v>0.003019908589264248</v>
       </c>
       <c r="EE2">
-        <v>0.00126822032122133</v>
+        <v>0.001268076253751343</v>
       </c>
       <c r="EF2">
-        <v>0.001304026918997113</v>
+        <v>0.001303884166742096</v>
       </c>
       <c r="EG2">
-        <v>0.001625268399042397</v>
+        <v>0.001625137446333537</v>
       </c>
       <c r="EH2">
-        <v>0.0005993180327718646</v>
+        <v>0.0005991493957991268</v>
       </c>
       <c r="EI2">
-        <v>0.0002083917370552271</v>
+        <v>0.0002082087409378669</v>
       </c>
       <c r="EJ2">
-        <v>0.0005548043655369422</v>
+        <v>0.0005546340935291799</v>
       </c>
       <c r="EK2">
-        <v>0.001060574434119772</v>
+        <v>0.001060422739592318</v>
       </c>
       <c r="EL2">
-        <v>0.007062582361290069</v>
+        <v>0.007062651126989505</v>
       </c>
       <c r="EM2">
-        <v>0.01242898322794269</v>
+        <v>0.01242924910733591</v>
       </c>
       <c r="EN2">
-        <v>0.001561246203019295</v>
+        <v>0.001561112898706101</v>
       </c>
       <c r="EO2">
-        <v>0.001418298611898842</v>
+        <v>0.001418160056966395</v>
       </c>
       <c r="EP2">
-        <v>0.003809662063353333</v>
+        <v>0.003809611345780564</v>
       </c>
       <c r="EQ2">
-        <v>0.003158630603793777</v>
+        <v>0.003158555973133083</v>
       </c>
       <c r="ER2">
-        <v>0.00850028247198374</v>
+        <v>0.008500404045959415</v>
       </c>
       <c r="ES2">
-        <v>0.0005032283687407139</v>
+        <v>0.0005030562022909426</v>
       </c>
       <c r="ET2">
-        <v>0.0004495792420732633</v>
+        <v>0.000449405105033186</v>
       </c>
       <c r="EU2">
-        <v>0.004386291127534579</v>
+        <v>0.004386261590169477</v>
       </c>
       <c r="EV2">
-        <v>0.004032764749494752</v>
+        <v>0.004032722226724356</v>
       </c>
       <c r="EW2">
-        <v>0.0005674612647507273</v>
+        <v>0.000567291457644529</v>
       </c>
       <c r="EX2">
-        <v>4.787478702613812E-05</v>
+        <v>4.768589494801732E-05</v>
       </c>
       <c r="EY2">
-        <v>0.005755442642486315</v>
+        <v>0.005755463395533572</v>
       </c>
       <c r="EZ2">
-        <v>0.0006509364095654603</v>
+        <v>0.0006507696685913945</v>
       </c>
       <c r="FA2">
-        <v>0.002874957221414857</v>
+        <v>0.002874872171124766</v>
       </c>
       <c r="FB2">
-        <v>0.001289915719873666</v>
+        <v>0.001289772449299079</v>
       </c>
       <c r="FC2">
-        <v>0.005853057036422755</v>
+        <v>0.00585308137495202</v>
       </c>
       <c r="FD2">
-        <v>0.007407973039835265</v>
+        <v>0.007408054492106976</v>
       </c>
       <c r="FE2">
-        <v>0.001280975720428996</v>
+        <v>0.001280832121478585</v>
       </c>
       <c r="FF2">
-        <v>0.001005656537531134</v>
+        <v>0.001005502825810086</v>
       </c>
       <c r="FG2">
-        <v>0.0001221296024136149</v>
+        <v>0.0001219434377949788</v>
       </c>
       <c r="FH2">
-        <v>0.0001061665394052004</v>
+        <v>0.000105979788446037</v>
       </c>
       <c r="FI2">
-        <v>0.0002017604874671438</v>
+        <v>0.0002015772477768315</v>
       </c>
       <c r="FJ2">
-        <v>0.00018638017842253</v>
+        <v>0.0001861963737968724</v>
       </c>
       <c r="FK2">
-        <v>4.401249026605432E-05</v>
+        <v>4.382345632160639E-05</v>
       </c>
       <c r="FL2">
-        <v>0.002652218135250851</v>
+        <v>0.002652124903513806</v>
       </c>
       <c r="FM2">
-        <v>0.001835584985978057</v>
+        <v>0.001835461758424352</v>
       </c>
       <c r="FN2">
-        <v>0.0006545767593393309</v>
+        <v>0.0006544101520792401</v>
       </c>
       <c r="FO2">
-        <v>0.0003251888098000855</v>
+        <v>0.0003250101037652226</v>
       </c>
       <c r="FP2">
-        <v>5.996102227537145E-06</v>
+        <v>5.805671900139668E-06</v>
       </c>
       <c r="FQ2">
-        <v>0.002724190330780119</v>
+        <v>0.002724099742659468</v>
       </c>
       <c r="FR2">
-        <v>0.001001109337813595</v>
+        <v>0.001000955459068995</v>
       </c>
       <c r="FS2">
-        <v>0.000228374015813978</v>
+        <v>0.000228191753667276</v>
       </c>
       <c r="FT2">
-        <v>4.238076736741286E-05</v>
+        <v>4.219167348802235E-05</v>
       </c>
       <c r="FU2">
-        <v>0.0005258513673354298</v>
+        <v>0.0005256800318528054</v>
       </c>
       <c r="FV2">
-        <v>0.0006748079580826196</v>
+        <v>0.0006746420939362865</v>
       </c>
       <c r="FW2">
-        <v>0.001582472301700783</v>
+        <v>0.001582339777045095</v>
       </c>
       <c r="FX2">
-        <v>8.827303451670015E-05</v>
+        <v>8.808562630979642E-05</v>
       </c>
       <c r="FY2">
-        <v>0.0001547782303855639</v>
+        <v>0.0001545932649862587</v>
       </c>
       <c r="FZ2">
-        <v>1.532905604779743E-06</v>
+        <v>1.342311339354851E-06</v>
       </c>
       <c r="GA2">
-        <v>0.0001854088384828672</v>
+        <v>0.0001852249981788456</v>
       </c>
       <c r="GB2">
-        <v>1.079994932913419E-05</v>
+        <v>1.060969545222376E-05</v>
       </c>
       <c r="GC2">
-        <v>0.0001460289209290491</v>
+        <v>0.0001458436341581677</v>
       </c>
       <c r="GD2">
-        <v>5.199321677031158E-07</v>
+        <v>3.293006946709563E-07</v>
       </c>
       <c r="GE2">
-        <v>9.130057432863696E-05</v>
+        <v>9.111327732653701E-05</v>
       </c>
       <c r="GF2">
-        <v>0.001030627435980005</v>
+        <v>0.001030474641466998</v>
       </c>
       <c r="GG2">
-        <v>0.0009216048027522175</v>
+        <v>0.0009214480037202648</v>
       </c>
       <c r="GH2">
-        <v>0.001642503797971777</v>
+        <v>0.001642373478337716</v>
       </c>
       <c r="GI2">
-        <v>2.304221956867502E-05</v>
+        <v>2.285241536355899E-05</v>
       </c>
       <c r="GJ2">
-        <v>0.0003540868080050142</v>
+        <v>0.0003539091634248042</v>
       </c>
       <c r="GK2">
-        <v>0.0001017970576766217</v>
+        <v>0.0001016101462216801</v>
       </c>
       <c r="GL2">
-        <v>0.002146896066640193</v>
+        <v>0.002146784273878362</v>
       </c>
       <c r="GM2">
-        <v>0.005698831646002849</v>
+        <v>0.005698850319667126</v>
       </c>
       <c r="GN2">
-        <v>0.002231896461360181</v>
+        <v>0.002231787790754557</v>
       </c>
       <c r="GO2">
-        <v>0.00117490022701814</v>
+        <v>0.001174752731800408</v>
       </c>
       <c r="GP2">
-        <v>0.001114608430763315</v>
+        <v>0.001114458720962856</v>
       </c>
       <c r="GQ2">
-        <v>0.008506752971581807</v>
+        <v>0.008506874783225914</v>
       </c>
       <c r="GR2">
-        <v>0.005785124940642526</v>
+        <v>0.005785146783952619</v>
       </c>
       <c r="GS2">
-        <v>0.002874957221414857</v>
+        <v>0.002874872171124766</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.635885233918113E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.960761061387821E-06</v>
+        <v>1.325282317655664E-06</v>
       </c>
       <c r="D3">
-        <v>9.830259203818606E-07</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.682459155617565E-06</v>
+        <v>1.046895025020403E-06</v>
       </c>
       <c r="F3">
-        <v>7.376972452952654E-07</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.763105157289663E-05</v>
+        <v>2.60031420147211E-05</v>
       </c>
       <c r="H3">
-        <v>4.181367786695633E-05</v>
+        <v>4.019011973423524E-05</v>
       </c>
       <c r="I3">
-        <v>1.350599928003066E-07</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.277106130148249E-06</v>
+        <v>4.64264488684575E-06</v>
       </c>
       <c r="K3">
-        <v>7.691271159469259E-05</v>
+        <v>7.529992232985409E-05</v>
       </c>
       <c r="L3">
-        <v>1.552195532182908E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.131178923453635E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.922138860587036E-05</v>
+        <v>2.759396698504176E-05</v>
       </c>
       <c r="O3">
-        <v>6.613677837126658E-06</v>
+        <v>4.979319858668246E-06</v>
       </c>
       <c r="P3">
-        <v>6.112562126736626E-07</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.028330042054985E-07</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.356233090321255E-07</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.190093824675165E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1.527492931670729E-05</v>
+        <v>1.364322872972025E-05</v>
       </c>
       <c r="U3">
-        <v>4.558267094510188E-06</v>
+        <v>2.923278487673131E-06</v>
       </c>
       <c r="V3">
-        <v>7.644019158489546E-06</v>
+        <v>6.009977302966306E-06</v>
       </c>
       <c r="W3">
-        <v>1.315204727269189E-05</v>
+        <v>1.151969535619989E-05</v>
       </c>
       <c r="X3">
-        <v>5.807439920410285E-05</v>
+        <v>5.645583008507124E-05</v>
       </c>
       <c r="Y3">
-        <v>2.880184559717164E-05</v>
+        <v>2.717429525475866E-05</v>
       </c>
       <c r="Z3">
-        <v>1.327252827518992E-05</v>
+        <v>1.164021332393202E-05</v>
       </c>
       <c r="AA3">
-        <v>4.456894492408349E-05</v>
+        <v>4.294623214531572E-05</v>
       </c>
       <c r="AB3">
-        <v>2.898000560086557E-05</v>
+        <v>2.735250992040017E-05</v>
       </c>
       <c r="AC3">
-        <v>2.552117852915095E-05</v>
+        <v>2.389262163281126E-05</v>
       </c>
       <c r="AD3">
-        <v>1.010671320955055E-05</v>
+        <v>8.473426942545125E-06</v>
       </c>
       <c r="AE3">
-        <v>3.07592706377565E-06</v>
+        <v>1.440483654562212E-06</v>
       </c>
       <c r="AF3">
-        <v>5.293401609752318E-06</v>
+        <v>3.658638552328729E-06</v>
       </c>
       <c r="AG3">
-        <v>1.400694929041725E-05</v>
+        <v>1.237485966966117E-05</v>
       </c>
       <c r="AH3">
-        <v>1.053260421838088E-05</v>
+        <v>8.899448620613881E-06</v>
       </c>
       <c r="AI3">
-        <v>1.067832722140228E-05</v>
+        <v>9.045216333463444E-06</v>
       </c>
       <c r="AJ3">
-        <v>9.617806199413648E-07</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.139089844351456E-08</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.122675923277335E-05</v>
+        <v>9.593816611343477E-06</v>
       </c>
       <c r="AM3">
-        <v>1.111597523047638E-05</v>
+        <v>9.482998618985881E-06</v>
       </c>
       <c r="AN3">
-        <v>2.156047044703043E-05</v>
+        <v>1.993069835079696E-05</v>
       </c>
       <c r="AO3">
-        <v>2.435963850506782E-06</v>
+        <v>8.00324091748599E-07</v>
       </c>
       <c r="AP3">
-        <v>8.04785616686262E-06</v>
+        <v>6.413938214106135E-06</v>
       </c>
       <c r="AQ3">
-        <v>4.688863697217951E-05</v>
+        <v>4.526663590694175E-05</v>
       </c>
       <c r="AR3">
-        <v>4.167203386401952E-06</v>
+        <v>2.532094795822922E-06</v>
       </c>
       <c r="AS3">
-        <v>7.193085749139984E-07</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>1.900138039397078E-06</v>
+        <v>2.64333881886135E-07</v>
       </c>
       <c r="AU3">
-        <v>4.944731802523068E-06</v>
+        <v>3.309861768391294E-06</v>
       </c>
       <c r="AV3">
-        <v>3.59431887452388E-07</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1.339125827765164E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1.470703130493261E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.809856637525201E-06</v>
+        <v>1.740247804343626E-07</v>
       </c>
       <c r="AZ3">
-        <v>8.68530618007938E-06</v>
+        <v>7.051583805783184E-06</v>
       </c>
       <c r="BA3">
-        <v>1.83558703805869E-08</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>2.737021056748841E-06</v>
+        <v>1.101473666495851E-06</v>
       </c>
       <c r="BC3">
-        <v>1.926271639938927E-05</v>
+        <v>1.763223932050705E-05</v>
       </c>
       <c r="BD3">
-        <v>6.248074129546305E-06</v>
+        <v>4.613603978825406E-06</v>
       </c>
       <c r="BE3">
-        <v>4.41274829149303E-05</v>
+        <v>4.250463468952634E-05</v>
       </c>
       <c r="BF3">
-        <v>9.50437119706171E-07</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1.042530821615623E-05</v>
+        <v>8.79211969849516E-06</v>
       </c>
       <c r="BH3">
-        <v>2.568890053262847E-05</v>
+        <v>2.406039509571386E-05</v>
       </c>
       <c r="BI3">
-        <v>7.192679849131569E-06</v>
+        <v>5.558499516480144E-06</v>
       </c>
       <c r="BJ3">
-        <v>9.080435188271905E-06</v>
+        <v>7.446834045007845E-06</v>
       </c>
       <c r="BK3">
-        <v>8.726872580941211E-08</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>3.621366075084672E-06</v>
+        <v>1.986090014086468E-06</v>
       </c>
       <c r="BM3">
-        <v>7.046752146105934E-06</v>
+        <v>5.41252704082155E-06</v>
       </c>
       <c r="BN3">
-        <v>1.355782128110512E-05</v>
+        <v>1.192559386167822E-05</v>
       </c>
       <c r="BO3">
-        <v>8.255755171173158E-07</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1.552195532182908E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>4.583069895024444E-06</v>
+        <v>2.948088898028841E-06</v>
       </c>
       <c r="BR3">
-        <v>1.9168268397431E-05</v>
+        <v>1.753776234059848E-05</v>
       </c>
       <c r="BS3">
-        <v>6.030445625034039E-06</v>
+        <v>4.395908702884879E-06</v>
       </c>
       <c r="BT3">
-        <v>5.709255118374541E-06</v>
+        <v>4.074619650545799E-06</v>
       </c>
       <c r="BU3">
-        <v>8.142161168817922E-06</v>
+        <v>6.50827215013736E-06</v>
       </c>
       <c r="BV3">
-        <v>1.295445626859508E-05</v>
+        <v>1.132204372845645E-05</v>
       </c>
       <c r="BW3">
-        <v>2.07978014312174E-05</v>
+        <v>1.916779533760574E-05</v>
       </c>
       <c r="BX3">
-        <v>1.854722538455442E-06</v>
+        <v>2.189044468421176E-07</v>
       </c>
       <c r="BY3">
-        <v>7.313188851630178E-06</v>
+        <v>5.679045492803635E-06</v>
       </c>
       <c r="BZ3">
-        <v>3.518038072942289E-06</v>
+        <v>1.882730309487196E-06</v>
       </c>
       <c r="CA3">
-        <v>9.897063205203705E-06</v>
+        <v>8.263712614683968E-06</v>
       </c>
       <c r="CB3">
-        <v>4.629308595983148E-06</v>
+        <v>2.994341785659051E-06</v>
       </c>
       <c r="CC3">
-        <v>1.88179753901681E-07</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>1.592951833027941E-05</v>
+        <v>1.429801858023447E-05</v>
       </c>
       <c r="CE3">
-        <v>6.972025744556571E-05</v>
+        <v>6.81052614365449E-05</v>
       </c>
       <c r="CF3">
-        <v>2.02314554194749E-06</v>
+        <v>3.873791248357224E-07</v>
       </c>
       <c r="CG3">
-        <v>3.373455269944539E-06</v>
+        <v>1.738103146490374E-06</v>
       </c>
       <c r="CH3">
-        <v>6.834330141701619E-05</v>
+        <v>6.672788293888506E-05</v>
       </c>
       <c r="CI3">
-        <v>2.452637850852497E-05</v>
+        <v>2.289751639381161E-05</v>
       </c>
       <c r="CJ3">
-        <v>1.4309390296688E-07</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>2.070565942930695E-06</v>
+        <v>4.348140750523076E-07</v>
       </c>
       <c r="CL3">
-        <v>3.817768479156839E-05</v>
+        <v>3.655301108599836E-05</v>
       </c>
       <c r="CM3">
-        <v>0.0002097241543483782</v>
+        <v>0.0002081521134668543</v>
       </c>
       <c r="CN3">
-        <v>0.0938933059467648</v>
+        <v>0.09392047732152591</v>
       </c>
       <c r="CO3">
-        <v>5.56624411540938E-05</v>
+        <v>5.404313201304961E-05</v>
       </c>
       <c r="CP3">
-        <v>0.272738605654907</v>
+        <v>0.272820649235522</v>
       </c>
       <c r="CQ3">
-        <v>0.002227543046185427</v>
+        <v>0.002226590099983995</v>
       </c>
       <c r="CR3">
-        <v>0.02549873952868571</v>
+        <v>0.02550492650668657</v>
       </c>
       <c r="CS3">
-        <v>0.002855201559199172</v>
+        <v>0.002854441187290652</v>
       </c>
       <c r="CT3">
-        <v>0.0009226595191302358</v>
+        <v>0.0009213062166564904</v>
       </c>
       <c r="CU3">
-        <v>0.000197592504096843</v>
+        <v>0.0001960167410576162</v>
       </c>
       <c r="CV3">
-        <v>0.007961253165067012</v>
+        <v>0.007962059400250068</v>
       </c>
       <c r="CW3">
-        <v>0.002478270651383962</v>
+        <v>0.002477394631871619</v>
       </c>
       <c r="CX3">
-        <v>0.05483187813687307</v>
+        <v>0.05484706492656971</v>
       </c>
       <c r="CY3">
-        <v>0.02437865050546201</v>
+        <v>0.02438449382469433</v>
       </c>
       <c r="CZ3">
-        <v>0.0009049749587635678</v>
+        <v>0.0009036162304226708</v>
       </c>
       <c r="DA3">
-        <v>0.01410897629253266</v>
+        <v>0.01411166873400424</v>
       </c>
       <c r="DB3">
-        <v>6.61687463719294E-05</v>
+        <v>6.455266071030355E-05</v>
       </c>
       <c r="DC3">
-        <v>0.0859695717824757</v>
+        <v>0.08599431204625484</v>
       </c>
       <c r="DD3">
-        <v>0.001408863129211083</v>
+        <v>0.00140765900071408</v>
       </c>
       <c r="DE3">
-        <v>0.02886335459844696</v>
+        <v>0.02887057388677987</v>
       </c>
       <c r="DF3">
-        <v>0.02198555345584402</v>
+        <v>0.02199066253987895</v>
       </c>
       <c r="DG3">
-        <v>0.00597169712381596</v>
+        <v>0.005971892935751485</v>
       </c>
       <c r="DH3">
-        <v>0.03154715065409224</v>
+        <v>0.03155519336808899</v>
       </c>
       <c r="DI3">
-        <v>0.004775679799017979</v>
+        <v>0.004775508656334299</v>
       </c>
       <c r="DJ3">
-        <v>0.04944971302528035</v>
+        <v>0.04946324849245174</v>
       </c>
       <c r="DK3">
-        <v>0.003375825569993684</v>
+        <v>0.003375224932715817</v>
       </c>
       <c r="DL3">
-        <v>0.008620110178727622</v>
+        <v>0.008621118560334099</v>
       </c>
       <c r="DM3">
-        <v>0.0006889915142854106</v>
+        <v>0.0006875665192433716</v>
       </c>
       <c r="DN3">
-        <v>0.004259045788306194</v>
+        <v>0.004258716135178945</v>
       </c>
       <c r="DO3">
-        <v>0.01322178227413776</v>
+        <v>0.01322420251224202</v>
       </c>
       <c r="DP3">
-        <v>0.006192313128390167</v>
+        <v>0.006192576628360197</v>
       </c>
       <c r="DQ3">
-        <v>1.152299723891549E-05</v>
+        <v>9.890145507393718E-06</v>
       </c>
       <c r="DR3">
-        <v>0.001544282432018839</v>
+        <v>0.001543119852032602</v>
       </c>
       <c r="DS3">
-        <v>0.009262524192047303</v>
+        <v>0.0092637296751378</v>
       </c>
       <c r="DT3">
-        <v>6.248074129546305E-06</v>
+        <v>4.613603978825406E-06</v>
       </c>
       <c r="DU3">
-        <v>0.001284819926639197</v>
+        <v>0.001283577739975961</v>
       </c>
       <c r="DV3">
-        <v>0.0003877576780396892</v>
+        <v>0.0003862402602999355</v>
       </c>
       <c r="DW3">
-        <v>0.02554110052956401</v>
+        <v>0.02554730050450449</v>
       </c>
       <c r="DX3">
-        <v>0.004594190095255008</v>
+        <v>0.004593963269025819</v>
       </c>
       <c r="DY3">
-        <v>0.004842338100400058</v>
+        <v>0.004842187409403066</v>
       </c>
       <c r="DZ3">
-        <v>0.00477190049893962</v>
+        <v>0.004771728196714524</v>
       </c>
       <c r="EA3">
-        <v>0.01044873321664192</v>
+        <v>0.01045030264502977</v>
       </c>
       <c r="EB3">
-        <v>0.02194134345492738</v>
+        <v>0.02194643897472396</v>
       </c>
       <c r="EC3">
-        <v>0.002072342242967525</v>
+        <v>0.002071341679018035</v>
       </c>
       <c r="ED3">
-        <v>0.0004217594487446751</v>
+        <v>0.0004202524632173673</v>
       </c>
       <c r="EE3">
-        <v>0.005057687104865061</v>
+        <v>0.005057602485914261</v>
       </c>
       <c r="EF3">
-        <v>8.03365276656813E-05</v>
+        <v>7.872478887485895E-05</v>
       </c>
       <c r="EG3">
-        <v>0.003189731266135243</v>
+        <v>0.003189073532557018</v>
       </c>
       <c r="EH3">
-        <v>0.0006079994626061378</v>
+        <v>0.0006065496180850265</v>
       </c>
       <c r="EI3">
-        <v>0.0002583368053563031</v>
+        <v>0.0002567796795069191</v>
       </c>
       <c r="EJ3">
-        <v>0.0003780290478379778</v>
+        <v>0.0003765086452202319</v>
       </c>
       <c r="EK3">
-        <v>0.001313912927242405</v>
+        <v>0.001312679666713211</v>
       </c>
       <c r="EL3">
-        <v>0.003250578067396828</v>
+        <v>0.003249939002456862</v>
       </c>
       <c r="EM3">
-        <v>0.02026765642022548</v>
+        <v>0.02027223842974446</v>
       </c>
       <c r="EN3">
-        <v>0.003740188277548307</v>
+        <v>0.003739699431776993</v>
       </c>
       <c r="EO3">
-        <v>1.854722538455442E-06</v>
+        <v>2.189044468421176E-07</v>
       </c>
       <c r="EP3">
-        <v>0.002518613152220415</v>
+        <v>0.002517749510344019</v>
       </c>
       <c r="EQ3">
-        <v>0.0003637626075421803</v>
+        <v>0.0003622378277836876</v>
       </c>
       <c r="ER3">
-        <v>0.01455597980180074</v>
+        <v>0.01455880939011721</v>
       </c>
       <c r="ES3">
-        <v>0.004370081090608377</v>
+        <v>0.004369785504644061</v>
       </c>
       <c r="ET3">
-        <v>0.0007325967451895127</v>
+        <v>0.0007311851288340278</v>
       </c>
       <c r="EU3">
-        <v>0.003354674269555138</v>
+        <v>0.003354067142766427</v>
       </c>
       <c r="EV3">
-        <v>0.008462810175466193</v>
+        <v>0.008463770295261073</v>
       </c>
       <c r="EW3">
-        <v>0.0001364464128290523</v>
+        <v>0.0001348518893252638</v>
       </c>
       <c r="EX3">
-        <v>6.465414134052589E-05</v>
+        <v>6.303759097717623E-05</v>
       </c>
       <c r="EY3">
-        <v>0.002551406052900337</v>
+        <v>0.002550552472338381</v>
       </c>
       <c r="EZ3">
-        <v>0.0001491173830917696</v>
+        <v>0.0001475267472165056</v>
       </c>
       <c r="FA3">
-        <v>0.002502006251876091</v>
+        <v>0.002501137514773509</v>
       </c>
       <c r="FB3">
-        <v>0.0001955709340549282</v>
+        <v>0.0001939945507701166</v>
       </c>
       <c r="FC3">
-        <v>0.000191123403962714</v>
+        <v>0.0001895456561142983</v>
       </c>
       <c r="FD3">
-        <v>0.01604107433259239</v>
+        <v>0.01604435956840387</v>
       </c>
       <c r="FE3">
-        <v>0.0001566371232476824</v>
+        <v>0.0001550487945324639</v>
       </c>
       <c r="FF3">
-        <v>0.002383490349418807</v>
+        <v>0.002382585250001938</v>
       </c>
       <c r="FG3">
-        <v>0.0001504763831199469</v>
+        <v>0.0001488861642046445</v>
       </c>
       <c r="FH3">
-        <v>3.312851068687984E-06</v>
+        <v>1.67748035102859E-06</v>
       </c>
       <c r="FI3">
-        <v>7.681102159258417E-05</v>
+        <v>7.519820112784979E-05</v>
       </c>
       <c r="FJ3">
-        <v>1.552195532182908E-06</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0008871157183932778</v>
+        <v>0.0008857515105909939</v>
       </c>
       <c r="FL3">
-        <v>0.0001864101038649894</v>
+        <v>0.0001848309099110644</v>
       </c>
       <c r="FM3">
-        <v>0.00282631675860028</v>
+        <v>0.002825547524436352</v>
       </c>
       <c r="FN3">
-        <v>0.0002526941552393094</v>
+        <v>0.0002511352981470061</v>
       </c>
       <c r="FO3">
-        <v>0.0006372343132122872</v>
+        <v>0.0006357934383467564</v>
       </c>
       <c r="FP3">
-        <v>2.029450042078207E-05</v>
+        <v>1.86643399074753E-05</v>
       </c>
       <c r="FQ3">
-        <v>0.0008051853666945505</v>
+        <v>0.0008037960215298007</v>
       </c>
       <c r="FR3">
-        <v>0.00252194125228942</v>
+        <v>0.002521078631520049</v>
       </c>
       <c r="FS3">
-        <v>0.0001365819528318626</v>
+        <v>0.0001349874709136172</v>
       </c>
       <c r="FT3">
-        <v>1.597585533124015E-05</v>
+        <v>1.434436979802652E-05</v>
       </c>
       <c r="FU3">
-        <v>0.0001606658933312141</v>
+        <v>0.0001590788006982505</v>
       </c>
       <c r="FV3">
-        <v>0.00104743282171726</v>
+        <v>0.001046117801414507</v>
       </c>
       <c r="FW3">
-        <v>0.002273141247130851</v>
+        <v>0.002272202291086683</v>
       </c>
       <c r="FX3">
-        <v>0.0003462770071796374</v>
+        <v>0.000344746862597668</v>
       </c>
       <c r="FY3">
-        <v>0.001154072523928306</v>
+        <v>0.001152790222157723</v>
       </c>
       <c r="FZ3">
-        <v>0.000322639686689546</v>
+        <v>0.0003211022898514766</v>
       </c>
       <c r="GA3">
-        <v>4.216808087430446E-05</v>
+        <v>4.054463147731647E-05</v>
       </c>
       <c r="GB3">
-        <v>0.0001364464128290523</v>
+        <v>0.0001348518893252638</v>
       </c>
       <c r="GC3">
-        <v>7.63324365826613E-05</v>
+        <v>7.471946928144183E-05</v>
       </c>
       <c r="GD3">
-        <v>6.280196130212316E-05</v>
+        <v>6.11848426643793E-05</v>
       </c>
       <c r="GE3">
-        <v>5.265027509164015E-05</v>
+        <v>5.103004177648284E-05</v>
       </c>
       <c r="GF3">
-        <v>0.0002886659659851417</v>
+        <v>0.0002871181455407537</v>
       </c>
       <c r="GG3">
-        <v>0.0008146182168901293</v>
+        <v>0.0008132317658539843</v>
       </c>
       <c r="GH3">
-        <v>0.001874148838858223</v>
+        <v>0.001873087466437462</v>
       </c>
       <c r="GI3">
-        <v>0.0003703351276784536</v>
+        <v>0.0003688123644598337</v>
       </c>
       <c r="GJ3">
-        <v>0.0003413601770776929</v>
+        <v>0.0003398285239444004</v>
       </c>
       <c r="GK3">
-        <v>5.321698110339012E-05</v>
+        <v>5.159692166145724E-05</v>
       </c>
       <c r="GL3">
-        <v>3.797315778732777E-05</v>
+        <v>3.634842133005055E-05</v>
       </c>
       <c r="GM3">
-        <v>0.005113590106024143</v>
+        <v>0.005113522638885508</v>
       </c>
       <c r="GN3">
-        <v>0.003674898376194599</v>
+        <v>0.003674389498580608</v>
       </c>
       <c r="GO3">
-        <v>0.001420082529443704</v>
+        <v>0.00141888184321351</v>
       </c>
       <c r="GP3">
-        <v>1.788445737081272E-05</v>
+        <v>1.625355742304181E-05</v>
       </c>
       <c r="GQ3">
-        <v>0.006265560729908868</v>
+        <v>0.006265846703253795</v>
       </c>
       <c r="GR3">
-        <v>0.00656017253601729</v>
+        <v>0.006560548900329707</v>
       </c>
       <c r="GS3">
-        <v>0.004199445287070449</v>
+        <v>0.004199097347686987</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.606211982371333E-06</v>
+        <v>2.765974968224773E-06</v>
       </c>
       <c r="C4">
-        <v>6.489896968274678E-07</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.693953491719249E-05</v>
+        <v>1.610143772779472E-05</v>
       </c>
       <c r="E4">
-        <v>3.30439098384676E-05</v>
+        <v>3.220839719158699E-05</v>
       </c>
       <c r="F4">
-        <v>2.370145188413743E-06</v>
+        <v>1.52970980163871E-06</v>
       </c>
       <c r="G4">
-        <v>2.574920487412715E-05</v>
+        <v>2.49125215220672E-05</v>
       </c>
       <c r="H4">
-        <v>5.229052474438212E-05</v>
+        <v>5.145810092862841E-05</v>
       </c>
       <c r="I4">
-        <v>2.416488288187198E-06</v>
+        <v>1.576060338876353E-06</v>
       </c>
       <c r="J4">
-        <v>1.113492594556784E-05</v>
+        <v>1.029589719199846E-05</v>
       </c>
       <c r="K4">
-        <v>4.086332980024301E-05</v>
+        <v>4.002907206846776E-05</v>
       </c>
       <c r="L4">
-        <v>2.499476787781516E-05</v>
+        <v>2.415796344843907E-05</v>
       </c>
       <c r="M4">
-        <v>2.223020989132947E-05</v>
+        <v>2.139296178638744E-05</v>
       </c>
       <c r="N4">
-        <v>5.305709174063482E-06</v>
+        <v>4.46574490709098E-06</v>
       </c>
       <c r="O4">
-        <v>8.687592457531427E-06</v>
+        <v>7.848170938798267E-06</v>
       </c>
       <c r="P4">
-        <v>5.872080171294825E-06</v>
+        <v>5.032206799493977E-06</v>
       </c>
       <c r="Q4">
-        <v>1.661621691877301E-07</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.303155693629632E-06</v>
+        <v>4.625490689314807E-07</v>
       </c>
       <c r="S4">
-        <v>8.406808458904017E-07</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3.107073184811331E-07</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2.089908189783658E-05</v>
+        <v>2.006162016418112E-05</v>
       </c>
       <c r="V4">
-        <v>3.135166484674E-06</v>
+        <v>2.29485387385745E-06</v>
       </c>
       <c r="W4">
-        <v>1.107802094584602E-05</v>
+        <v>1.023898305976501E-05</v>
       </c>
       <c r="X4">
-        <v>2.172883789378038E-05</v>
+        <v>2.089150932515995E-05</v>
       </c>
       <c r="Y4">
-        <v>5.97634397078514E-06</v>
+        <v>5.136487331966733E-06</v>
       </c>
       <c r="Z4">
-        <v>2.008547990181381E-05</v>
+        <v>1.924788759563001E-05</v>
       </c>
       <c r="AA4">
-        <v>1.837808491016026E-05</v>
+        <v>1.754021858930833E-05</v>
       </c>
       <c r="AB4">
-        <v>6.272864469335624E-06</v>
+        <v>5.433055418196929E-06</v>
       </c>
       <c r="AC4">
-        <v>3.667050682073928E-08</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>5.830775971496737E-06</v>
+        <v>4.990895970909547E-06</v>
       </c>
       <c r="AE4">
-        <v>5.687002572199561E-06</v>
+        <v>4.847099497853524E-06</v>
       </c>
       <c r="AF4">
-        <v>7.49543096335921E-06</v>
+        <v>6.655818118226604E-06</v>
       </c>
       <c r="AG4">
-        <v>5.339346673899048E-07</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>4.300967778975077E-07</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>5.79971397164858E-06</v>
+        <v>4.9598289860148E-06</v>
       </c>
       <c r="AJ4">
-        <v>2.395739988288624E-05</v>
+        <v>2.312042896945213E-05</v>
       </c>
       <c r="AK4">
-        <v>4.558840377714488E-05</v>
+        <v>4.47549043582287E-05</v>
       </c>
       <c r="AL4">
-        <v>1.226164694005996E-05</v>
+        <v>1.142279901054178E-05</v>
       </c>
       <c r="AM4">
-        <v>2.322988388644265E-05</v>
+        <v>2.23927962161624E-05</v>
       </c>
       <c r="AN4">
-        <v>8.097548960415805E-05</v>
+        <v>8.014766935182397E-05</v>
       </c>
       <c r="AO4">
-        <v>7.96332696107194E-05</v>
+        <v>7.88052339495503E-05</v>
       </c>
       <c r="AP4">
-        <v>6.131428370027023E-05</v>
+        <v>6.048330808035152E-05</v>
       </c>
       <c r="AQ4">
-        <v>3.30439098384676E-05</v>
+        <v>3.220839719158699E-05</v>
       </c>
       <c r="AR4">
-        <v>5.014675475486176E-05</v>
+        <v>4.931398689193379E-05</v>
       </c>
       <c r="AS4">
-        <v>3.151227984595484E-05</v>
+        <v>3.067652139240024E-05</v>
       </c>
       <c r="AT4">
-        <v>1.26848219379913E-05</v>
+        <v>1.184604192255111E-05</v>
       </c>
       <c r="AU4">
-        <v>1.923149790598842E-05</v>
+        <v>1.839376854681202E-05</v>
       </c>
       <c r="AV4">
-        <v>1.537513092483995E-06</v>
+        <v>6.969440790973362E-07</v>
       </c>
       <c r="AW4">
-        <v>4.730841276873676E-06</v>
+        <v>3.890784751087696E-06</v>
       </c>
       <c r="AX4">
-        <v>5.305709174063482E-06</v>
+        <v>4.46574490709098E-06</v>
       </c>
       <c r="AY4">
-        <v>1.407765393118256E-06</v>
+        <v>5.671755569149925E-07</v>
       </c>
       <c r="AZ4">
-        <v>3.214009684288581E-09</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1.472734892800658E-05</v>
+        <v>1.388889671155728E-05</v>
       </c>
       <c r="BB4">
-        <v>4.772240176671301E-05</v>
+        <v>4.688924482669232E-05</v>
       </c>
       <c r="BC4">
-        <v>2.627183187157234E-06</v>
+        <v>1.786789051634704E-06</v>
       </c>
       <c r="BD4">
-        <v>4.473805978130172E-06</v>
+        <v>3.633708201525004E-06</v>
       </c>
       <c r="BE4">
-        <v>7.44875516358738E-06</v>
+        <v>6.609134827596568E-06</v>
       </c>
       <c r="BF4">
-        <v>4.446875978261817E-05</v>
+        <v>4.363508067541715E-05</v>
       </c>
       <c r="BG4">
-        <v>3.27741068397865E-05</v>
+        <v>3.193855089303709E-05</v>
       </c>
       <c r="BH4">
-        <v>1.928802690571209E-05</v>
+        <v>1.845030661870421E-05</v>
       </c>
       <c r="BI4">
-        <v>5.066356575233537E-05</v>
+        <v>4.98308808308443E-05</v>
       </c>
       <c r="BJ4">
-        <v>4.99505677558208E-06</v>
+        <v>4.155042652943906E-06</v>
       </c>
       <c r="BK4">
-        <v>2.725190386678134E-06</v>
+        <v>1.884811980035203E-06</v>
       </c>
       <c r="BL4">
-        <v>5.615788672547684E-06</v>
+        <v>4.775874169297863E-06</v>
       </c>
       <c r="BM4">
-        <v>1.889535990763161E-05</v>
+        <v>1.805757660268254E-05</v>
       </c>
       <c r="BN4">
-        <v>8.134386960235726E-07</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.849028890961176E-06</v>
+        <v>1.008509871804649E-06</v>
       </c>
       <c r="BP4">
-        <v>1.61269999211645E-06</v>
+        <v>7.721430452483482E-07</v>
       </c>
       <c r="BQ4">
-        <v>6.981525965871391E-07</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.731953591533489E-07</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>1.164034194309716E-05</v>
+        <v>1.080139430221553E-05</v>
       </c>
       <c r="BT4">
-        <v>2.015555490147125E-06</v>
+        <v>1.17506319634181E-06</v>
       </c>
       <c r="BU4">
-        <v>5.215306374505408E-07</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1.333304793482251E-05</v>
+        <v>1.249437195121576E-05</v>
       </c>
       <c r="BW4">
-        <v>2.279875988855016E-05</v>
+        <v>2.196160302848092E-05</v>
       </c>
       <c r="BX4">
-        <v>2.714560286730098E-07</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.124081894505019E-06</v>
+        <v>2.834465307934128E-07</v>
       </c>
       <c r="BZ4">
-        <v>3.287193583930827E-05</v>
+        <v>3.203639559283968E-05</v>
       </c>
       <c r="CA4">
-        <v>3.896255680953478E-06</v>
+        <v>3.056065215044556E-06</v>
       </c>
       <c r="CB4">
-        <v>1.068278894777808E-05</v>
+        <v>9.843687632106778E-06</v>
       </c>
       <c r="CC4">
-        <v>8.165897960081687E-06</v>
+        <v>7.326392716173461E-06</v>
       </c>
       <c r="CD4">
-        <v>1.858025990917195E-05</v>
+        <v>1.774242603477531E-05</v>
       </c>
       <c r="CE4">
-        <v>2.476018687896189E-05</v>
+        <v>2.392334480238942E-05</v>
       </c>
       <c r="CF4">
-        <v>3.108158984806023E-05</v>
+        <v>3.024576227436798E-05</v>
       </c>
       <c r="CG4">
-        <v>1.156066794348664E-06</v>
+        <v>3.154365637970812E-07</v>
       </c>
       <c r="CH4">
-        <v>1.303155693629632E-06</v>
+        <v>4.625490689314807E-07</v>
       </c>
       <c r="CI4">
-        <v>3.008760985291922E-05</v>
+        <v>2.925162275837806E-05</v>
       </c>
       <c r="CJ4">
-        <v>3.917024280851953E-07</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>2.782087686399996E-07</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>6.049800970426052E-06</v>
+        <v>5.209956120499773E-06</v>
       </c>
       <c r="CM4">
-        <v>0.0001662282391874071</v>
+        <v>0.0001654141008915029</v>
       </c>
       <c r="CN4">
-        <v>0.1136371634444942</v>
+        <v>0.113654559914057</v>
       </c>
       <c r="CO4">
-        <v>8.781881957070501E-08</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.2415175588193615</v>
+        <v>0.2415554784275482</v>
       </c>
       <c r="CQ4">
-        <v>0.002654471187023839</v>
+        <v>0.002654056379327425</v>
       </c>
       <c r="CR4">
-        <v>0.03083777184925212</v>
+        <v>0.03084188009440264</v>
       </c>
       <c r="CS4">
-        <v>0.001761645091388345</v>
+        <v>0.001761086996726998</v>
       </c>
       <c r="CT4">
-        <v>0.0006225200969568623</v>
+        <v>0.0006217791875638128</v>
       </c>
       <c r="CU4">
-        <v>8.813585956915519E-05</v>
+        <v>8.730918846298193E-05</v>
       </c>
       <c r="CV4">
-        <v>0.01175565544253346</v>
+        <v>0.01175670125642465</v>
       </c>
       <c r="CW4">
-        <v>7.619599962752219E-05</v>
+        <v>7.536741232926951E-05</v>
       </c>
       <c r="CX4">
-        <v>0.05854464271380939</v>
+        <v>0.05855319755102681</v>
       </c>
       <c r="CY4">
-        <v>0.008987008956067756</v>
+        <v>0.008987610438241997</v>
       </c>
       <c r="CZ4">
-        <v>1.107802094584602E-05</v>
+        <v>1.023898305976501E-05</v>
       </c>
       <c r="DA4">
-        <v>0.0225477308897773</v>
+        <v>0.0225505086912792</v>
       </c>
       <c r="DB4">
-        <v>0.0004351947578725866</v>
+        <v>0.0004344237852013426</v>
       </c>
       <c r="DC4">
-        <v>0.1037397694928768</v>
+        <v>0.1037555775595614</v>
       </c>
       <c r="DD4">
-        <v>2.436553388089112E-06</v>
+        <v>1.59612865896558E-06</v>
       </c>
       <c r="DE4">
-        <v>0.0297791298544272</v>
+        <v>0.02978306820131968</v>
       </c>
       <c r="DF4">
-        <v>0.03135317984673259</v>
+        <v>0.03135737080815678</v>
       </c>
       <c r="DG4">
-        <v>0.001632789092018246</v>
+        <v>0.001632210317646536</v>
       </c>
       <c r="DH4">
-        <v>0.03471932183027748</v>
+        <v>0.03472405301366731</v>
       </c>
       <c r="DI4">
-        <v>0.01196444394151281</v>
+        <v>0.01196552326323994</v>
       </c>
       <c r="DJ4">
-        <v>0.03959355980645018</v>
+        <v>0.03959907324157904</v>
       </c>
       <c r="DK4">
-        <v>0.000176421739137577</v>
+        <v>0.0001756092367657089</v>
       </c>
       <c r="DL4">
-        <v>0.005459784473310299</v>
+        <v>0.005459819881874861</v>
       </c>
       <c r="DM4">
-        <v>0.002594620187316415</v>
+        <v>0.00259419577431373</v>
       </c>
       <c r="DN4">
-        <v>0.001286614693710491</v>
+        <v>0.001285980362854586</v>
       </c>
       <c r="DO4">
-        <v>0.015325820925081</v>
+        <v>0.01532743970405331</v>
       </c>
       <c r="DP4">
-        <v>0.002676789386914738</v>
+        <v>0.002676378160998854</v>
       </c>
       <c r="DQ4">
-        <v>2.436553388089112E-06</v>
+        <v>1.59612865896558E-06</v>
       </c>
       <c r="DR4">
-        <v>0.004144686279739046</v>
+        <v>0.004144510632164381</v>
       </c>
       <c r="DS4">
-        <v>0.008004454960870889</v>
+        <v>0.008004898755920456</v>
       </c>
       <c r="DT4">
-        <v>9.884854951678709E-05</v>
+        <v>9.802359765788536E-05</v>
       </c>
       <c r="DU4">
-        <v>0.0002783032286395378</v>
+        <v>0.0002775070769203723</v>
       </c>
       <c r="DV4">
-        <v>0.001456758692878756</v>
+        <v>0.001456151667919668</v>
       </c>
       <c r="DW4">
-        <v>0.02115741589657373</v>
+        <v>0.0211599705706193</v>
       </c>
       <c r="DX4">
-        <v>0.004854614976268618</v>
+        <v>0.004854553263007412</v>
       </c>
       <c r="DY4">
-        <v>0.001801562091193214</v>
+        <v>0.001801010402690669</v>
       </c>
       <c r="DZ4">
-        <v>0.004964662975730658</v>
+        <v>0.004964618923740687</v>
       </c>
       <c r="EA4">
-        <v>0.01520579092566776</v>
+        <v>0.01520739044138779</v>
       </c>
       <c r="EB4">
-        <v>0.03050499985087885</v>
+        <v>0.03050905469045588</v>
       </c>
       <c r="EC4">
-        <v>0.001982633490308061</v>
+        <v>0.001982110861407765</v>
       </c>
       <c r="ED4">
-        <v>8.163187960094935E-05</v>
+        <v>8.080416469066442E-05</v>
       </c>
       <c r="EE4">
-        <v>0.001894833190737265</v>
+        <v>0.001894296471031932</v>
       </c>
       <c r="EF4">
-        <v>0.0006255133969422298</v>
+        <v>0.0006247729679348591</v>
       </c>
       <c r="EG4">
-        <v>0.004317259978895434</v>
+        <v>0.004317112027152802</v>
       </c>
       <c r="EH4">
-        <v>0.001051344294860591</v>
+        <v>0.00105067220616858</v>
       </c>
       <c r="EI4">
-        <v>0.0004833262576372998</v>
+        <v>0.0004825630094451594</v>
       </c>
       <c r="EJ4">
-        <v>0.0004796648576551983</v>
+        <v>0.0004789010218560274</v>
       </c>
       <c r="EK4">
-        <v>0.001342470493437445</v>
+        <v>0.001341845126710227</v>
       </c>
       <c r="EL4">
-        <v>0.003927746280799539</v>
+        <v>0.003927535817179317</v>
       </c>
       <c r="EM4">
-        <v>0.01856659990923872</v>
+        <v>0.01856873879104732</v>
       </c>
       <c r="EN4">
-        <v>0.002819685286216203</v>
+        <v>0.002819296993231841</v>
       </c>
       <c r="EO4">
-        <v>2.15894228944619E-05</v>
+        <v>2.075207195154908E-05</v>
       </c>
       <c r="EP4">
-        <v>0.002161817589432135</v>
+        <v>0.002161323717247007</v>
       </c>
       <c r="EQ4">
-        <v>0.0004246358279242031</v>
+        <v>0.0004238631606821657</v>
       </c>
       <c r="ER4">
-        <v>0.01198083294143269</v>
+        <v>0.01198191489338095</v>
       </c>
       <c r="ES4">
-        <v>0.001994656390249288</v>
+        <v>0.00199413569086791</v>
       </c>
       <c r="ET4">
-        <v>0.001172599394267845</v>
+        <v>0.001171946765440709</v>
       </c>
       <c r="EU4">
-        <v>0.003878283481041334</v>
+        <v>0.00387806507928569</v>
       </c>
       <c r="EV4">
-        <v>0.005287561974152193</v>
+        <v>0.00528756974324775</v>
       </c>
       <c r="EW4">
-        <v>3.398557183386436E-05</v>
+        <v>3.315021031147483E-05</v>
       </c>
       <c r="EX4">
-        <v>1.825882991074323E-06</v>
+        <v>9.853602573021926E-07</v>
       </c>
       <c r="EY4">
-        <v>0.001832206991043409</v>
+        <v>0.001831660220648334</v>
       </c>
       <c r="EZ4">
-        <v>0.0002316790188674564</v>
+        <v>0.0002308753845696082</v>
       </c>
       <c r="FA4">
-        <v>0.002684544486876828</v>
+        <v>0.002684134505553526</v>
       </c>
       <c r="FB4">
-        <v>9.472285453695521E-05</v>
+        <v>9.389724055772031E-05</v>
       </c>
       <c r="FC4">
-        <v>0.0007998679960899118</v>
+        <v>0.0007991555487258377</v>
       </c>
       <c r="FD4">
-        <v>0.01416207093076989</v>
+        <v>0.0141635029430186</v>
       </c>
       <c r="FE4">
-        <v>1.584807292252802E-05</v>
+        <v>1.500980056768949E-05</v>
       </c>
       <c r="FF4">
-        <v>0.002952558485566663</v>
+        <v>0.002952191517000963</v>
       </c>
       <c r="FG4">
-        <v>9.631260952918382E-05</v>
+        <v>9.548725068492867E-05</v>
       </c>
       <c r="FH4">
-        <v>3.804140181403777E-05</v>
+        <v>3.72066911995585E-05</v>
       </c>
       <c r="FI4">
-        <v>6.805806966730379E-05</v>
+        <v>6.722817633723759E-05</v>
       </c>
       <c r="FJ4">
-        <v>1.902579990699396E-05</v>
+        <v>1.818803753596663E-05</v>
       </c>
       <c r="FK4">
-        <v>0.000665411346747192</v>
+        <v>0.0006646773208413465</v>
       </c>
       <c r="FL4">
-        <v>0.001108435294581506</v>
+        <v>0.001107772368251701</v>
       </c>
       <c r="FM4">
-        <v>0.002973757185463036</v>
+        <v>0.00297339361901269</v>
       </c>
       <c r="FN4">
-        <v>7.397152463839637E-05</v>
+        <v>7.314258034086766E-05</v>
       </c>
       <c r="FO4">
-        <v>0.0002168764889398173</v>
+        <v>0.0002160704790286251</v>
       </c>
       <c r="FP4">
-        <v>4.867281676206699E-05</v>
+        <v>4.78398123512799E-05</v>
       </c>
       <c r="FQ4">
-        <v>0.0006974707365904724</v>
+        <v>0.0006967418557993257</v>
       </c>
       <c r="FR4">
-        <v>0.001549662992424601</v>
+        <v>0.001549070877396099</v>
       </c>
       <c r="FS4">
-        <v>9.250993954777286E-07</v>
+        <v>8.44320976655176E-08</v>
       </c>
       <c r="FT4">
-        <v>4.106752579924481E-07</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>5.648729972386653E-05</v>
+        <v>5.565554943586056E-05</v>
       </c>
       <c r="FV4">
-        <v>0.001180377194229824</v>
+        <v>0.001179725813638325</v>
       </c>
       <c r="FW4">
-        <v>0.003205159384331845</v>
+        <v>0.003204832954921867</v>
       </c>
       <c r="FX4">
-        <v>0.0004105566179930281</v>
+        <v>0.0004097816912210894</v>
       </c>
       <c r="FY4">
-        <v>0.0007693015462393334</v>
+        <v>0.0007685841933579931</v>
       </c>
       <c r="FZ4">
-        <v>7.936617461202506E-05</v>
+        <v>7.85380960855859E-05</v>
       </c>
       <c r="GA4">
-        <v>8.375237459058349E-06</v>
+        <v>7.535765811414384E-06</v>
       </c>
       <c r="GB4">
-        <v>4.387149178553786E-05</v>
+        <v>4.303771682459895E-05</v>
       </c>
       <c r="GC4">
-        <v>0.0007964826961064606</v>
+        <v>0.0007957697054458113</v>
       </c>
       <c r="GD4">
-        <v>0.0002932049385666921</v>
+        <v>0.0002924111783779694</v>
       </c>
       <c r="GE4">
-        <v>2.425154888144832E-05</v>
+        <v>2.341462517509904E-05</v>
       </c>
       <c r="GF4">
-        <v>0.0002422848488156107</v>
+        <v>0.0002414829166153952</v>
       </c>
       <c r="GG4">
-        <v>0.001196311394151931</v>
+        <v>0.001195662570792077</v>
       </c>
       <c r="GH4">
-        <v>0.00160678399214537</v>
+        <v>0.001606201044293682</v>
       </c>
       <c r="GI4">
-        <v>0.0005308226974051175</v>
+        <v>0.0005300670717732189</v>
       </c>
       <c r="GJ4">
-        <v>6.620426567636596E-06</v>
+        <v>5.780673295689878E-06</v>
       </c>
       <c r="GK4">
-        <v>0.0001289734193695242</v>
+        <v>0.0001281533021600478</v>
       </c>
       <c r="GL4">
-        <v>7.619599962752219E-05</v>
+        <v>7.536741232926951E-05</v>
       </c>
       <c r="GM4">
-        <v>0.00518136467467133</v>
+        <v>0.005181355400482869</v>
       </c>
       <c r="GN4">
-        <v>0.00449622467802058</v>
+        <v>0.004496105447782273</v>
       </c>
       <c r="GO4">
-        <v>0.002847702686079242</v>
+        <v>0.002847318889522808</v>
       </c>
       <c r="GP4">
-        <v>3.192223984395079E-05</v>
+        <v>3.108654718363873E-05</v>
       </c>
       <c r="GQ4">
-        <v>0.005710508672084654</v>
+        <v>0.005710584318619021</v>
       </c>
       <c r="GR4">
-        <v>0.005139251174877199</v>
+        <v>0.005139235142020282</v>
       </c>
       <c r="GS4">
-        <v>0.003292975683902562</v>
+        <v>0.003292663347865413</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.234079390064972E-05</v>
+        <v>3.503054990313031E-05</v>
       </c>
       <c r="C5">
-        <v>6.255877337570346E-07</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.485833909492663E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>8.371511782639318E-05</v>
+        <v>7.645418268253194E-05</v>
       </c>
       <c r="F5">
-        <v>2.45541223624687E-05</v>
+        <v>1.722268066790617E-05</v>
       </c>
       <c r="G5">
-        <v>4.461595284157674E-06</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.06152039454535E-07</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.884124251079979E-05</v>
+        <v>1.150299235316538E-05</v>
       </c>
       <c r="J5">
-        <v>2.83444302640559E-05</v>
+        <v>2.101750576083103E-05</v>
       </c>
       <c r="K5">
-        <v>1.663699156803169E-05</v>
+        <v>9.296114440894211E-06</v>
       </c>
       <c r="L5">
-        <v>1.499037161078507E-09</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1.446211312450095E-05</v>
+        <v>7.118644033248506E-06</v>
       </c>
       <c r="N5">
-        <v>3.323049713719246E-07</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>7.351942809111742E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.434083662764981E-05</v>
+        <v>6.997223002191898E-06</v>
       </c>
       <c r="Q5">
-        <v>2.704439129781054E-05</v>
+        <v>1.971591744162823E-05</v>
       </c>
       <c r="R5">
-        <v>5.2041168648786E-06</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>6.700509826025762E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>4.153686592152317E-05</v>
+        <v>3.422566382334342E-05</v>
       </c>
       <c r="U5">
-        <v>1.320079165725031E-05</v>
+        <v>5.855819355558561E-06</v>
       </c>
       <c r="V5">
-        <v>1.308938366014294E-05</v>
+        <v>5.744278585269556E-06</v>
       </c>
       <c r="W5">
-        <v>4.13390589266591E-05</v>
+        <v>3.402762108719739E-05</v>
       </c>
       <c r="X5">
-        <v>1.445743862462231E-05</v>
+        <v>7.113963962421311E-06</v>
       </c>
       <c r="Y5">
-        <v>1.158342669924411E-05</v>
+        <v>4.236526863650671E-06</v>
       </c>
       <c r="Z5">
-        <v>8.083878790107516E-07</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>5.099685867590081E-07</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>2.153772544078742E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>1.013348873689077E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.651688557115016E-05</v>
+        <v>9.175865304778928E-06</v>
       </c>
       <c r="AE5">
-        <v>3.719093103436245E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.686281956216821E-06</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>7.845848796287804E-05</v>
+        <v>7.119128810293007E-05</v>
       </c>
       <c r="AH5">
-        <v>1.553293759669771E-05</v>
+        <v>8.190744686472126E-06</v>
       </c>
       <c r="AI5">
-        <v>4.737694876988934E-09</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>5.656554853131352E-05</v>
+        <v>4.92722572300041E-05</v>
       </c>
       <c r="AK5">
-        <v>9.777444746135214E-06</v>
+        <v>2.428392587763165E-06</v>
       </c>
       <c r="AL5">
-        <v>5.2041168648786E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>2.501304135055318E-05</v>
+        <v>1.768214658382118E-05</v>
       </c>
       <c r="AN5">
-        <v>7.276291111075988E-07</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>2.088943745761979E-05</v>
+        <v>1.355362828597169E-05</v>
       </c>
       <c r="AP5">
-        <v>3.824600500696817E-05</v>
+        <v>3.093088094550664E-05</v>
       </c>
       <c r="AQ5">
-        <v>2.432844936832815E-06</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>7.179110813599208E-05</v>
+        <v>6.451596226448493E-05</v>
       </c>
       <c r="AS5">
-        <v>7.519522404760651E-06</v>
+        <v>1.677793126949876E-07</v>
       </c>
       <c r="AT5">
-        <v>5.330451861598397E-07</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>9.020192765796752E-06</v>
+        <v>1.670238134017576E-06</v>
       </c>
       <c r="AV5">
-        <v>1.626311057773926E-05</v>
+        <v>8.921787868866861E-06</v>
       </c>
       <c r="AW5">
-        <v>7.265810311348115E-07</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>7.809962097219579E-07</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>3.657718605029792E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>9.713536347794552E-05</v>
+        <v>8.98904222372131E-05</v>
       </c>
       <c r="BA5">
-        <v>1.71352475550948E-08</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.457920512146073E-05</v>
+        <v>7.23587557743456E-06</v>
       </c>
       <c r="BC5">
-        <v>2.131288944662514E-05</v>
+        <v>1.397758493415153E-05</v>
       </c>
       <c r="BD5">
-        <v>2.720442629365534E-05</v>
+        <v>1.987614316305937E-05</v>
       </c>
       <c r="BE5">
-        <v>1.937853749684929E-05</v>
+        <v>1.204092767354121E-05</v>
       </c>
       <c r="BF5">
-        <v>3.093644119675608E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>3.654739905107133E-05</v>
+        <v>2.92302506347792E-05</v>
       </c>
       <c r="BH5">
-        <v>2.051474346734846E-07</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>6.761504824442068E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>6.501278831198661E-07</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>4.259711289399457E-07</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>2.1393659444528E-08</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>4.891203273003192E-07</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>2.430927636882596E-06</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.335111539370397E-05</v>
+        <v>1.601823998641954E-05</v>
       </c>
       <c r="BP5">
-        <v>1.505229560917725E-05</v>
+        <v>7.709529882209891E-06</v>
       </c>
       <c r="BQ5">
-        <v>3.485833909492663E-06</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>5.931701545987353E-06</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>1.346279265044763E-06</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>1.724805455216585E-06</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1.274527966907737E-06</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1.782561853716979E-07</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>1.137106270475799E-05</v>
+        <v>4.023909779225369E-06</v>
       </c>
       <c r="BX5">
-        <v>3.132680518662054E-08</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>5.491168257425503E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.055722372588878E-05</v>
+        <v>3.209100888021575E-06</v>
       </c>
       <c r="CA5">
-        <v>7.268861111268903E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>7.272176211182828E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>3.898994098765237E-06</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.192899169027174E-07</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>4.080661194048373E-06</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>3.141382418436115E-07</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>5.931701545987353E-06</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>6.44215583273375E-08</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>5.857098847924362E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>7.180153413572138E-05</v>
+        <v>6.452640068965218E-05</v>
       </c>
       <c r="CK5">
-        <v>5.170520865750898E-10</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>2.275508440917951E-05</v>
+        <v>1.542149866751851E-05</v>
       </c>
       <c r="CM5">
-        <v>3.748964902660644E-05</v>
+        <v>3.017362355956748E-05</v>
       </c>
       <c r="CN5">
-        <v>0.00862154977614725</v>
+        <v>0.008624464012457074</v>
       </c>
       <c r="CO5">
-        <v>0.09685881148512601</v>
+        <v>0.09696688461738816</v>
       </c>
       <c r="CP5">
-        <v>0.1713767955503166</v>
+        <v>0.1715736772967754</v>
       </c>
       <c r="CQ5">
-        <v>0.0740746980767002</v>
+        <v>0.07415561768940747</v>
       </c>
       <c r="CR5">
-        <v>0.01075354872079133</v>
+        <v>0.0107590038185337</v>
       </c>
       <c r="CS5">
-        <v>0.006772828824148048</v>
+        <v>0.006773539802441123</v>
       </c>
       <c r="CT5">
-        <v>2.850170225997244E-05</v>
+        <v>2.117496518946176E-05</v>
       </c>
       <c r="CU5">
-        <v>0.0004260881289369079</v>
+        <v>0.0004192352251298644</v>
       </c>
       <c r="CV5">
-        <v>0.0004716180877547531</v>
+        <v>0.0004648194453800037</v>
       </c>
       <c r="CW5">
-        <v>0.02882026225170124</v>
+        <v>0.02884724879332119</v>
       </c>
       <c r="CX5">
-        <v>0.005745368350825369</v>
+        <v>0.005744854828188603</v>
       </c>
       <c r="CY5">
-        <v>0.07698775800106457</v>
+        <v>0.07707214932356379</v>
       </c>
       <c r="CZ5">
-        <v>0.008448384780643362</v>
+        <v>0.008451092643371412</v>
       </c>
       <c r="DA5">
-        <v>0.0002443784536548776</v>
+        <v>0.0002373089929367693</v>
       </c>
       <c r="DB5">
-        <v>0.01177404369429486</v>
+        <v>0.01178071499166379</v>
       </c>
       <c r="DC5">
-        <v>0.02265451441179075</v>
+        <v>0.02267415277393404</v>
       </c>
       <c r="DD5">
-        <v>0.05285409862767882</v>
+        <v>0.05290972807649972</v>
       </c>
       <c r="DE5">
-        <v>0.01583156358894408</v>
+        <v>0.01584307053402195</v>
       </c>
       <c r="DF5">
-        <v>0.001892509850862253</v>
+        <v>0.001887404590695679</v>
       </c>
       <c r="DG5">
-        <v>0.03963893197080175</v>
+        <v>0.03967881192435787</v>
       </c>
       <c r="DH5">
-        <v>0.005926111546132494</v>
+        <v>0.005925813428580851</v>
       </c>
       <c r="DI5">
-        <v>0.0203131654725823</v>
+        <v>0.02033001347536134</v>
       </c>
       <c r="DJ5">
-        <v>0.03841275900263851</v>
+        <v>0.03845117763483127</v>
       </c>
       <c r="DK5">
-        <v>0.04122679892957385</v>
+        <v>0.04126857126207589</v>
       </c>
       <c r="DL5">
-        <v>0.002351891138934726</v>
+        <v>0.002347333357555903</v>
       </c>
       <c r="DM5">
-        <v>0.01493225961229391</v>
+        <v>0.01494269479005399</v>
       </c>
       <c r="DN5">
-        <v>0.01302263266187609</v>
+        <v>0.01303079199541914</v>
       </c>
       <c r="DO5">
-        <v>0.0009522394152757431</v>
+        <v>0.0009460135650207213</v>
       </c>
       <c r="DP5">
-        <v>0.0180996555300546</v>
+        <v>0.01811386552869312</v>
       </c>
       <c r="DQ5">
-        <v>0.001222241868265311</v>
+        <v>0.001216337799979843</v>
       </c>
       <c r="DR5">
-        <v>0.0001452844862277859</v>
+        <v>0.0001380969278714651</v>
       </c>
       <c r="DS5">
-        <v>0.006223060838422404</v>
+        <v>0.006223116617389377</v>
       </c>
       <c r="DT5">
-        <v>0.004312983088016291</v>
+        <v>0.00431076248551442</v>
       </c>
       <c r="DU5">
-        <v>0.00208013314599074</v>
+        <v>0.002075251490435059</v>
       </c>
       <c r="DV5">
-        <v>0.0006168411139841348</v>
+        <v>0.0006102155446718236</v>
       </c>
       <c r="DW5">
-        <v>0.01026220223354881</v>
+        <v>0.01026707175720233</v>
       </c>
       <c r="DX5">
-        <v>0.004633537379693313</v>
+        <v>0.004631698805540381</v>
       </c>
       <c r="DY5">
-        <v>0.02068730246286809</v>
+        <v>0.02070459635247624</v>
       </c>
       <c r="DZ5">
-        <v>0.0001430559962856471</v>
+        <v>0.0001358657820724081</v>
       </c>
       <c r="EA5">
-        <v>9.814340745177235E-07</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.02015161847677676</v>
+        <v>0.02016827395200684</v>
       </c>
       <c r="EC5">
-        <v>0.006644572827478128</v>
+        <v>0.006645130953577608</v>
       </c>
       <c r="ED5">
-        <v>0.0002540996934024721</v>
+        <v>0.0002470418182075242</v>
       </c>
       <c r="EE5">
-        <v>0.00497424687084702</v>
+        <v>0.004972814345490665</v>
       </c>
       <c r="EF5">
-        <v>0.001536722560100031</v>
+        <v>0.001531193281803635</v>
       </c>
       <c r="EG5">
-        <v>0.00178064225376682</v>
+        <v>0.00177540367267918</v>
       </c>
       <c r="EH5">
-        <v>0.001153453470051355</v>
+        <v>0.001147467421524543</v>
       </c>
       <c r="EI5">
-        <v>3.275746614947439E-05</v>
+        <v>2.543580098875993E-05</v>
       </c>
       <c r="EJ5">
-        <v>0.0001939840249633351</v>
+        <v>0.0001868545054630217</v>
       </c>
       <c r="EK5">
-        <v>0.0003786237101692897</v>
+        <v>0.000371714239490406</v>
       </c>
       <c r="EL5">
-        <v>0.001133668670565054</v>
+        <v>0.001127659043023772</v>
       </c>
       <c r="EM5">
-        <v>0.007803119797397235</v>
+        <v>0.007805058649937064</v>
       </c>
       <c r="EN5">
-        <v>0.01109720371186856</v>
+        <v>0.01110306836877846</v>
       </c>
       <c r="EO5">
-        <v>0.001111021471153074</v>
+        <v>0.001104984853262812</v>
       </c>
       <c r="EP5">
-        <v>0.001715076155469199</v>
+        <v>0.001709759434394265</v>
       </c>
       <c r="EQ5">
-        <v>0.001908585050444871</v>
+        <v>0.001903498948287143</v>
       </c>
       <c r="ER5">
-        <v>0.006045071243043785</v>
+        <v>0.006044914898595111</v>
       </c>
       <c r="ES5">
-        <v>0.009266705759396207</v>
+        <v>0.009270388875990862</v>
       </c>
       <c r="ET5">
-        <v>0.0002177829943454108</v>
+        <v>0.0002106818378438641</v>
       </c>
       <c r="EU5">
-        <v>1.964457348994184E-05</v>
+        <v>1.230728072147856E-05</v>
       </c>
       <c r="EV5">
-        <v>0.006930627220050918</v>
+        <v>0.006931526258408129</v>
       </c>
       <c r="EW5">
-        <v>0.003082279919970672</v>
+        <v>0.00307859259712991</v>
       </c>
       <c r="EX5">
-        <v>0.0004228972890197559</v>
+        <v>0.0004160405824518792</v>
       </c>
       <c r="EY5">
-        <v>0.0002974399922771704</v>
+        <v>0.0002904337689341911</v>
       </c>
       <c r="EZ5">
-        <v>0.004544115482015093</v>
+        <v>0.004542170337147571</v>
       </c>
       <c r="FA5">
-        <v>0.001173324969535405</v>
+        <v>0.001167362603349887</v>
       </c>
       <c r="FB5">
-        <v>0.000771184279976718</v>
+        <v>0.0007647426528745254</v>
       </c>
       <c r="FC5">
-        <v>0.001758667354337383</v>
+        <v>0.001753402584130567</v>
       </c>
       <c r="FD5">
-        <v>0.01148904270169472</v>
+        <v>0.01149537434222088</v>
       </c>
       <c r="FE5">
-        <v>0.007730004199295632</v>
+        <v>0.007731855914548736</v>
       </c>
       <c r="FF5">
-        <v>0.001674646256518934</v>
+        <v>0.001669281352131704</v>
       </c>
       <c r="FG5">
-        <v>0.0003476202409742739</v>
+        <v>0.0003406738211592985</v>
       </c>
       <c r="FH5">
-        <v>0.0006626582827945227</v>
+        <v>0.0006560873172039777</v>
       </c>
       <c r="FI5">
-        <v>0.0002575400233131462</v>
+        <v>0.0002504862482147802</v>
       </c>
       <c r="FJ5">
-        <v>0.0001784720953660919</v>
+        <v>0.0001713240891475946</v>
       </c>
       <c r="FK5">
-        <v>5.34525786121397E-06</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0001434237562760985</v>
+        <v>0.0001362339803497444</v>
       </c>
       <c r="FM5">
-        <v>0.002396869937766882</v>
+        <v>0.002392365760962077</v>
       </c>
       <c r="FN5">
-        <v>0.0004017099995698696</v>
+        <v>0.0003948280425361057</v>
       </c>
       <c r="FO5">
-        <v>0.000931492875814413</v>
+        <v>0.0009252423003679887</v>
       </c>
       <c r="FP5">
-        <v>3.654739905107133E-05</v>
+        <v>2.92302506347792E-05</v>
       </c>
       <c r="FQ5">
-        <v>1.38072396415043E-06</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.002861139025712446</v>
+        <v>0.002857188152849396</v>
       </c>
       <c r="FS5">
-        <v>0.0008516881278864897</v>
+        <v>0.0008453424431968578</v>
       </c>
       <c r="FT5">
-        <v>0.0001817546652808621</v>
+        <v>0.0001746105711446466</v>
       </c>
       <c r="FU5">
-        <v>0.0001005075773903882</v>
+        <v>9.326665506734524E-05</v>
       </c>
       <c r="FV5">
-        <v>0.0009212426160805542</v>
+        <v>0.0009149798246385747</v>
       </c>
       <c r="FW5">
-        <v>0.0005711660351700575</v>
+        <v>0.0005644860314751783</v>
       </c>
       <c r="FX5">
-        <v>0.0004097562493609541</v>
+        <v>0.0004028838816404599</v>
       </c>
       <c r="FY5">
-        <v>0.0004466270184036294</v>
+        <v>0.0004397985923160728</v>
       </c>
       <c r="FZ5">
-        <v>0.0009305927758377835</v>
+        <v>0.0009243411276753892</v>
       </c>
       <c r="GA5">
-        <v>5.2041168648786E-06</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0002536100934151843</v>
+        <v>0.0002465516347275812</v>
       </c>
       <c r="GC5">
-        <v>0.0003284140914729486</v>
+        <v>0.0003214447822636524</v>
       </c>
       <c r="GD5">
-        <v>1.320079165725031E-05</v>
+        <v>5.855819355558561E-06</v>
       </c>
       <c r="GE5">
-        <v>3.657718605029792E-06</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>2.971517922846533E-07</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0007525253304611851</v>
+        <v>0.0007460614661035216</v>
       </c>
       <c r="GH5">
-        <v>0.001614782258073263</v>
+        <v>0.001609346009314483</v>
       </c>
       <c r="GI5">
-        <v>0.001499607761063692</v>
+        <v>0.001494034250305697</v>
       </c>
       <c r="GJ5">
-        <v>0.0002953239523321119</v>
+        <v>0.0002883152071472248</v>
       </c>
       <c r="GK5">
-        <v>0.0001064459332362028</v>
+        <v>9.921208809271438E-05</v>
       </c>
       <c r="GL5">
-        <v>0.0002448590436423994</v>
+        <v>0.0002377901556790606</v>
       </c>
       <c r="GM5">
-        <v>0.002662606930867199</v>
+        <v>0.00265841945256671</v>
       </c>
       <c r="GN5">
-        <v>0.004823785174753657</v>
+        <v>0.004822173333023042</v>
       </c>
       <c r="GO5">
-        <v>0.001319766565733147</v>
+        <v>0.001313978724870372</v>
       </c>
       <c r="GP5">
-        <v>0.0006176044839643143</v>
+        <v>0.0006109798244166849</v>
       </c>
       <c r="GQ5">
-        <v>0.002325144339629189</v>
+        <v>0.002320554682103818</v>
       </c>
       <c r="GR5">
-        <v>0.008196101787193721</v>
+        <v>0.00819850898554773</v>
       </c>
       <c r="GS5">
-        <v>0.003870879699495208</v>
+        <v>0.00386813220956128</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>6.331997936400308E-05</v>
+        <v>5.643737726135593E-05</v>
       </c>
       <c r="C6">
-        <v>1.396802385970273E-05</v>
+        <v>7.029114005772565E-06</v>
       </c>
       <c r="D6">
-        <v>6.393060435786986E-07</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>4.173455958081081E-05</v>
+        <v>3.482732975194548E-05</v>
       </c>
       <c r="F6">
-        <v>2.891367770958598E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.107413838876942E-05</v>
+        <v>4.131926777458545E-06</v>
       </c>
       <c r="H6">
-        <v>6.946920530223918E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>7.694160922718506E-06</v>
+        <v>7.48092950934051E-07</v>
       </c>
       <c r="J6">
-        <v>6.152066338207573E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.429272665555787E-05</v>
+        <v>2.737700612205555E-05</v>
       </c>
       <c r="L6">
-        <v>1.78565098206461E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>4.713828252653487E-07</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.793976961892633E-07</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>6.852766931169614E-07</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.126294388687303E-05</v>
+        <v>4.320947691808973E-06</v>
       </c>
       <c r="Q6">
-        <v>6.798810931711558E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>7.307368326603519E-06</v>
+        <v>3.608590466464168E-07</v>
       </c>
       <c r="S6">
-        <v>2.389602975998411E-07</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.755068482371786E-05</v>
+        <v>1.061586258051014E-05</v>
       </c>
       <c r="U6">
-        <v>2.257400977326271E-05</v>
+        <v>1.564491885577415E-05</v>
       </c>
       <c r="V6">
-        <v>1.352605486414195E-05</v>
+        <v>6.586640748931297E-06</v>
       </c>
       <c r="W6">
-        <v>1.52074118472541E-07</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.068099389271823E-05</v>
+        <v>3.738333726081114E-06</v>
       </c>
       <c r="Y6">
-        <v>4.432852355475658E-05</v>
+        <v>3.742425329004204E-05</v>
       </c>
       <c r="Z6">
-        <v>4.155226958264176E-05</v>
+        <v>3.464483177134142E-05</v>
       </c>
       <c r="AA6">
-        <v>2.707311372807293E-05</v>
+        <v>2.014915603020849E-05</v>
       </c>
       <c r="AB6">
-        <v>2.605402373830884E-05</v>
+        <v>1.912890331720291E-05</v>
       </c>
       <c r="AC6">
-        <v>4.246771557344686E-05</v>
+        <v>3.556132223352838E-05</v>
       </c>
       <c r="AD6">
-        <v>1.181756388130233E-05</v>
+        <v>4.876200475848811E-06</v>
       </c>
       <c r="AE6">
-        <v>1.230809087637539E-05</v>
+        <v>5.367287134095377E-06</v>
       </c>
       <c r="AF6">
-        <v>1.004452689911102E-05</v>
+        <v>3.101140560130583E-06</v>
       </c>
       <c r="AG6">
-        <v>2.978340270085031E-05</v>
+        <v>2.286253728729001E-05</v>
       </c>
       <c r="AH6">
-        <v>2.843533771439051E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>2.092880278978745E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.394480885993591E-05</v>
+        <v>7.005872519022205E-06</v>
       </c>
       <c r="AK6">
-        <v>4.258169557230202E-08</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.224105277660699E-07</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.529684974591403E-07</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>5.671384943035621E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>8.108614918555658E-06</v>
+        <v>1.163019815014768E-06</v>
       </c>
       <c r="AP6">
-        <v>1.869171581225715E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>6.393060435786986E-07</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>5.324122946523581E-05</v>
+        <v>4.634712808689138E-05</v>
       </c>
       <c r="AS6">
-        <v>2.225013277651578E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>1.328645986654848E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>2.438316975509119E-05</v>
+        <v>1.745614298540077E-05</v>
       </c>
       <c r="AV6">
-        <v>8.598427913635891E-06</v>
+        <v>1.653391658635456E-06</v>
       </c>
       <c r="AW6">
-        <v>5.943666540300777E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>4.333918456469367E-07</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1.201594287930977E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>9.360077905985745E-06</v>
+        <v>2.41591064995193E-06</v>
       </c>
       <c r="BA6">
-        <v>6.343466936285112E-07</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>1.022437989730454E-05</v>
+        <v>3.281198760281888E-06</v>
       </c>
       <c r="BC6">
-        <v>6.419762435518787E-06</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>2.387139076023159E-06</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>1.058887289364351E-05</v>
+        <v>3.646107622228867E-06</v>
       </c>
       <c r="BF6">
-        <v>1.181756388130233E-05</v>
+        <v>4.876200475848811E-06</v>
       </c>
       <c r="BG6">
-        <v>2.475226375138395E-06</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>5.656594943184174E-06</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1.491034885023786E-05</v>
+        <v>7.972514135086944E-06</v>
       </c>
       <c r="BJ6">
-        <v>1.412577385811826E-07</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>5.456837145190576E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>2.648838173394607E-05</v>
+        <v>1.956375689040613E-05</v>
       </c>
       <c r="BM6">
-        <v>6.348388936235675E-06</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>2.491328774976659E-05</v>
+        <v>1.798686581430999E-05</v>
       </c>
       <c r="BO6">
-        <v>2.10039957890322E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>1.257343887371019E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>8.01077691953836E-06</v>
+        <v>1.065070188450833E-06</v>
       </c>
       <c r="BR6">
-        <v>3.549515364348049E-06</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1.257343887371019E-06</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>1.024426189710485E-05</v>
+        <v>3.301103444303886E-06</v>
       </c>
       <c r="BU6">
-        <v>2.10039957890322E-06</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>1.344513786495469E-05</v>
+        <v>6.505631428087926E-06</v>
       </c>
       <c r="BW6">
-        <v>9.360077905985745E-06</v>
+        <v>2.41591064995193E-06</v>
       </c>
       <c r="BX6">
-        <v>1.139509788554565E-09</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>3.793976961892633E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>4.521878254581466E-07</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>3.668647163151468E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>7.765196922005008E-07</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1.016710489787982E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>5.065370449122536E-07</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>7.088604428800821E-07</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>5.475442945003697E-07</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>5.004699649731924E-06</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>2.396750675926618E-06</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>2.245708177443715E-08</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>2.243999577460877E-05</v>
+        <v>1.551075195483239E-05</v>
       </c>
       <c r="CK6">
-        <v>7.931023920339412E-06</v>
+        <v>9.852261956530084E-07</v>
       </c>
       <c r="CL6">
-        <v>9.390685905678313E-07</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0001070057989252151</v>
+        <v>0.0001001730398376483</v>
       </c>
       <c r="CN6">
-        <v>0.1561840984312597</v>
+        <v>0.156355340685069</v>
       </c>
       <c r="CO6">
-        <v>0.05937049940367235</v>
+        <v>0.05943128289249146</v>
       </c>
       <c r="CP6">
-        <v>0.1552675784404653</v>
+        <v>0.1554377749975204</v>
       </c>
       <c r="CQ6">
-        <v>0.00982428490132317</v>
+        <v>0.00982853900048173</v>
       </c>
       <c r="CR6">
-        <v>0.02154625578358565</v>
+        <v>0.02156388397935782</v>
       </c>
       <c r="CS6">
-        <v>0.0002429706075595608</v>
+        <v>0.0002362929765221309</v>
       </c>
       <c r="CT6">
-        <v>0.003598875063852271</v>
+        <v>0.003596026327364683</v>
       </c>
       <c r="CU6">
-        <v>0.001802136881899023</v>
+        <v>0.001797238170174663</v>
       </c>
       <c r="CV6">
-        <v>0.01677637383149518</v>
+        <v>0.01678855986547531</v>
       </c>
       <c r="CW6">
-        <v>0.0004071456959105576</v>
+        <v>0.0004006553792347831</v>
       </c>
       <c r="CX6">
-        <v>0.06285632936866006</v>
+        <v>0.06292108998958422</v>
       </c>
       <c r="CY6">
-        <v>0.008898045910626476</v>
+        <v>0.008901243224209189</v>
       </c>
       <c r="CZ6">
-        <v>0.0002227162477629992</v>
+        <v>0.00021601550766247</v>
       </c>
       <c r="DA6">
-        <v>0.01598544983943935</v>
+        <v>0.01599673347449784</v>
       </c>
       <c r="DB6">
-        <v>0.007184990927832698</v>
+        <v>0.007186233743910306</v>
       </c>
       <c r="DC6">
-        <v>0.07682717522833445</v>
+        <v>0.07690787578326611</v>
       </c>
       <c r="DD6">
-        <v>0.006064493939087165</v>
+        <v>0.006064458332352324</v>
       </c>
       <c r="DE6">
-        <v>0.01282686887116469</v>
+        <v>0.01283454874645821</v>
       </c>
       <c r="DF6">
-        <v>0.04254899457263048</v>
+        <v>0.04259058568901868</v>
       </c>
       <c r="DG6">
-        <v>0.0005110854948665682</v>
+        <v>0.0005047137675412705</v>
       </c>
       <c r="DH6">
-        <v>0.02956872770300654</v>
+        <v>0.02959550907921296</v>
       </c>
       <c r="DI6">
-        <v>0.02598673973898466</v>
+        <v>0.02600943427232303</v>
       </c>
       <c r="DJ6">
-        <v>0.03962917560195765</v>
+        <v>0.03966743537232902</v>
       </c>
       <c r="DK6">
-        <v>4.36204395618687E-05</v>
+        <v>3.671536141392134E-05</v>
       </c>
       <c r="DL6">
-        <v>0.01227310587672678</v>
+        <v>0.01228015394019761</v>
       </c>
       <c r="DM6">
-        <v>0.00759288792373571</v>
+        <v>0.007594596126895951</v>
       </c>
       <c r="DN6">
-        <v>0.0001775436182167209</v>
+        <v>0.0001707913387361753</v>
       </c>
       <c r="DO6">
-        <v>0.01646399083463281</v>
+        <v>0.01647582045752624</v>
       </c>
       <c r="DP6">
-        <v>0.001544639784485369</v>
+        <v>0.001539447283338298</v>
       </c>
       <c r="DQ6">
-        <v>3.85143756131549E-05</v>
+        <v>3.160347173903475E-05</v>
       </c>
       <c r="DR6">
-        <v>0.004008522959737696</v>
+        <v>0.004006141608009221</v>
       </c>
       <c r="DS6">
-        <v>0.00510890964868522</v>
+        <v>0.005107783775070292</v>
       </c>
       <c r="DT6">
-        <v>0.0009224798907344512</v>
+        <v>0.0009165775408245982</v>
       </c>
       <c r="DU6">
-        <v>0.000587013694103932</v>
+        <v>0.0005807285965000778</v>
       </c>
       <c r="DV6">
-        <v>0.004511645454684246</v>
+        <v>0.004509838136872378</v>
       </c>
       <c r="DW6">
-        <v>0.01545069684481051</v>
+        <v>0.01546137035736601</v>
       </c>
       <c r="DX6">
-        <v>0.01470423785230807</v>
+        <v>0.01471405969795669</v>
       </c>
       <c r="DY6">
-        <v>0.0004826153151525277</v>
+        <v>0.0004762111049847177</v>
       </c>
       <c r="DZ6">
-        <v>0.002305582876842324</v>
+        <v>0.002301258568129516</v>
       </c>
       <c r="EA6">
-        <v>0.02006649379844864</v>
+        <v>0.02008243367064851</v>
       </c>
       <c r="EB6">
-        <v>0.01396364085974676</v>
+        <v>0.01397261772669429</v>
       </c>
       <c r="EC6">
-        <v>0.0003600200963838953</v>
+        <v>0.0003534760121013443</v>
       </c>
       <c r="ED6">
-        <v>0.001834660281572352</v>
+        <v>0.001829798677182057</v>
       </c>
       <c r="EE6">
-        <v>0.002892194270950296</v>
+        <v>0.002888539252200606</v>
       </c>
       <c r="EF6">
-        <v>0.001675853683167433</v>
+        <v>0.001670810889554671</v>
       </c>
       <c r="EG6">
-        <v>0.002470911975181729</v>
+        <v>0.002466776297489801</v>
       </c>
       <c r="EH6">
-        <v>0.0001968620880226829</v>
+        <v>0.0001901318498084232</v>
       </c>
       <c r="EI6">
-        <v>0.0002411160175781887</v>
+        <v>0.0002344362705599362</v>
       </c>
       <c r="EJ6">
-        <v>0.0007343378326241827</v>
+        <v>0.0007282208234144967</v>
       </c>
       <c r="EK6">
-        <v>0.0009739884902170898</v>
+        <v>0.0009681449086656325</v>
       </c>
       <c r="EL6">
-        <v>0.006106362638666629</v>
+        <v>0.006106374801717167</v>
       </c>
       <c r="EM6">
-        <v>0.01344193386498687</v>
+        <v>0.01345031549416919</v>
       </c>
       <c r="EN6">
-        <v>0.001187307888074473</v>
+        <v>0.001181707691723777</v>
       </c>
       <c r="EO6">
-        <v>0.0003720281962632839</v>
+        <v>0.0003654978125341249</v>
       </c>
       <c r="EP6">
-        <v>0.001806936881850811</v>
+        <v>0.001802043646651153</v>
       </c>
       <c r="EQ6">
-        <v>0.003568436464158002</v>
+        <v>0.003565552998973578</v>
       </c>
       <c r="ER6">
-        <v>0.01119559888754945</v>
+        <v>0.0112014175773322</v>
       </c>
       <c r="ES6">
-        <v>0.0007604236923621718</v>
+        <v>0.0007543364456226274</v>
       </c>
       <c r="ET6">
-        <v>0.0003150093768359909</v>
+        <v>0.0003084139379034472</v>
       </c>
       <c r="EU6">
-        <v>0.005585500443898259</v>
+        <v>0.005584918333051927</v>
       </c>
       <c r="EV6">
-        <v>0.003924516460581473</v>
+        <v>0.003922039262254574</v>
       </c>
       <c r="EW6">
-        <v>9.186772907726451E-05</v>
+        <v>8.501769832005074E-05</v>
       </c>
       <c r="EX6">
-        <v>4.06468055917364E-05</v>
+        <v>3.373833469794368E-05</v>
       </c>
       <c r="EY6">
-        <v>0.002620549173678747</v>
+        <v>0.002616584223449784</v>
       </c>
       <c r="EZ6">
-        <v>0.0003338329566469236</v>
+        <v>0.0003272589943395596</v>
       </c>
       <c r="FA6">
-        <v>0.00117275238822067</v>
+        <v>0.001167135584879285</v>
       </c>
       <c r="FB6">
-        <v>0.001272270187221096</v>
+        <v>0.001266766927981806</v>
       </c>
       <c r="FC6">
-        <v>0.004839968351386514</v>
+        <v>0.004838535631173041</v>
       </c>
       <c r="FD6">
-        <v>0.01207053387876145</v>
+        <v>0.01207735081919852</v>
       </c>
       <c r="FE6">
-        <v>0.0009310795506480746</v>
+        <v>0.0009251870124570601</v>
       </c>
       <c r="FF6">
-        <v>0.001051079189442777</v>
+        <v>0.00104532356395859</v>
       </c>
       <c r="FG6">
-        <v>0.0007312790926549053</v>
+        <v>0.000725158593598309</v>
       </c>
       <c r="FH6">
-        <v>4.895724950826485E-05</v>
+        <v>4.205826035444215E-05</v>
       </c>
       <c r="FI6">
-        <v>0.0001635286583574896</v>
+        <v>0.0001567603886113926</v>
       </c>
       <c r="FJ6">
-        <v>1.912284080792685E-05</v>
+        <v>1.218981230454631E-05</v>
       </c>
       <c r="FK6">
-        <v>0.0008064513618998619</v>
+        <v>0.0008004166300919343</v>
       </c>
       <c r="FL6">
-        <v>0.001511271184820529</v>
+        <v>0.001506040612014667</v>
       </c>
       <c r="FM6">
-        <v>0.000937987890578686</v>
+        <v>0.0009321032344073932</v>
       </c>
       <c r="FN6">
-        <v>0.0008331410316317862</v>
+        <v>0.0008271367512065797</v>
       </c>
       <c r="FO6">
-        <v>0.0001166278948285691</v>
+        <v>0.0001098061140006763</v>
       </c>
       <c r="FP6">
-        <v>6.444887935266422E-05</v>
+        <v>5.756756526017056E-05</v>
       </c>
       <c r="FQ6">
-        <v>0.001555761784373657</v>
+        <v>0.001550581972790699</v>
       </c>
       <c r="FR6">
-        <v>0.001039407789560007</v>
+        <v>0.001033638847677817</v>
       </c>
       <c r="FS6">
-        <v>2.889900470973336E-05</v>
+        <v>2.197713024877848E-05</v>
       </c>
       <c r="FT6">
-        <v>7.902457520626338E-05</v>
+        <v>7.215989114693689E-05</v>
       </c>
       <c r="FU6">
-        <v>0.0004313080956678663</v>
+        <v>0.0004248453469046909</v>
       </c>
       <c r="FV6">
-        <v>0.0007737237922285833</v>
+        <v>0.0007676517201403302</v>
       </c>
       <c r="FW6">
-        <v>0.001455784385377848</v>
+        <v>0.001450490505315555</v>
       </c>
       <c r="FX6">
-        <v>0.0003784742661985385</v>
+        <v>0.0003719512370655441</v>
       </c>
       <c r="FY6">
-        <v>0.001465500785280255</v>
+        <v>0.001460217991073091</v>
       </c>
       <c r="FZ6">
-        <v>0.0001096518448986378</v>
+        <v>0.0001028221047977967</v>
       </c>
       <c r="GA6">
-        <v>0.0001398872285949483</v>
+        <v>0.0001330919853331427</v>
       </c>
       <c r="GB6">
-        <v>0.0001843833581480214</v>
+        <v>0.0001776388824185319</v>
       </c>
       <c r="GC6">
-        <v>5.787237341871979E-05</v>
+        <v>5.098355591006652E-05</v>
       </c>
       <c r="GD6">
-        <v>7.772715921929486E-06</v>
+        <v>8.26737576894618E-07</v>
       </c>
       <c r="GE6">
-        <v>4.470547355097043E-05</v>
+        <v>3.780163336458644E-05</v>
       </c>
       <c r="GF6">
-        <v>0.0004534197954457725</v>
+        <v>0.0004469822748641111</v>
       </c>
       <c r="GG6">
-        <v>0.001009571389859689</v>
+        <v>0.001003768406356324</v>
       </c>
       <c r="GH6">
-        <v>0.00171682998275586</v>
+        <v>0.001711833940751259</v>
       </c>
       <c r="GI6">
-        <v>4.239595957416758E-09</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0001649767983429443</v>
+        <v>0.0001582101808415312</v>
       </c>
       <c r="GK6">
-        <v>0.0002385873476035871</v>
+        <v>0.0002319047155178929</v>
       </c>
       <c r="GL6">
-        <v>0.000715914692809228</v>
+        <v>0.0007097766638534356</v>
       </c>
       <c r="GM6">
-        <v>0.004314209956667323</v>
+        <v>0.004312177376273593</v>
       </c>
       <c r="GN6">
-        <v>0.002029260179617757</v>
+        <v>0.002024620602552354</v>
       </c>
       <c r="GO6">
-        <v>0.0009623684403338035</v>
+        <v>0.0009565116009717481</v>
       </c>
       <c r="GP6">
-        <v>0.001216688187779372</v>
+        <v>0.00121112151266591</v>
       </c>
       <c r="GQ6">
-        <v>0.007284027926837953</v>
+        <v>0.007285383738452431</v>
       </c>
       <c r="GR6">
-        <v>0.004595516653841829</v>
+        <v>0.004593805028258843</v>
       </c>
       <c r="GS6">
-        <v>0.002867938471193926</v>
+        <v>0.002864255777967593</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.772077392983024E-06</v>
+        <v>9.581785761227374E-06</v>
       </c>
       <c r="C2">
-        <v>2.56199784085511E-05</v>
+        <v>2.523961831659683E-05</v>
       </c>
       <c r="D2">
-        <v>4.987467490191009E-05</v>
+        <v>4.930455514042541E-05</v>
       </c>
       <c r="E2">
-        <v>6.899584371415097E-05</v>
+        <v>6.823577572312545E-05</v>
       </c>
       <c r="F2">
-        <v>7.832758213448674E-05</v>
+        <v>7.737720633758003E-05</v>
       </c>
       <c r="G2">
-        <v>9.020679439657983E-05</v>
+        <v>8.906620436525465E-05</v>
       </c>
       <c r="H2">
-        <v>0.0001076529463128686</v>
+        <v>0.0001063223465268247</v>
       </c>
       <c r="I2">
-        <v>0.0001249506302383798</v>
+        <v>0.0001234300152442278</v>
       </c>
       <c r="J2">
-        <v>0.0001299480936279499</v>
+        <v>0.0001282370116253184</v>
       </c>
       <c r="K2">
-        <v>0.000131854124309552</v>
+        <v>0.0001299524617467823</v>
       </c>
       <c r="L2">
-        <v>0.0001347481444297827</v>
+        <v>0.0001326559375967928</v>
       </c>
       <c r="M2">
-        <v>0.0001362810500345625</v>
+        <v>0.0001339982489361477</v>
       </c>
       <c r="N2">
-        <v>0.0001375207793575536</v>
+        <v>0.0001350473732250328</v>
       </c>
       <c r="O2">
-        <v>0.0001387605086805447</v>
+        <v>0.0001360964975139178</v>
       </c>
       <c r="P2">
-        <v>0.0001396353416262023</v>
+        <v>0.0001367807120224317</v>
       </c>
       <c r="Q2">
-        <v>0.0001397437336494692</v>
+        <v>0.0001367807120224317</v>
       </c>
       <c r="R2">
-        <v>0.0001397501145710729</v>
+        <v>0.0001367807120224317</v>
       </c>
       <c r="S2">
-        <v>0.0001399407581392306</v>
+        <v>0.0001367807120224317</v>
       </c>
       <c r="T2">
-        <v>0.0001407492639190082</v>
+        <v>0.0001373985969287974</v>
       </c>
       <c r="U2">
-        <v>0.000142027763639591</v>
+        <v>0.0001384864930393526</v>
       </c>
       <c r="V2">
-        <v>0.0001425223278388699</v>
+        <v>0.0001387904248338066</v>
       </c>
       <c r="W2">
-        <v>0.0001430682624049578</v>
+        <v>0.0001391457288819584</v>
       </c>
       <c r="X2">
-        <v>0.0001459604652253014</v>
+        <v>0.0001418473873653305</v>
       </c>
       <c r="Y2">
-        <v>0.0001501911389625026</v>
+        <v>0.0001458875659290409</v>
       </c>
       <c r="Z2">
-        <v>0.0001503971676397046</v>
+        <v>0.0001459029516031969</v>
       </c>
       <c r="AA2">
-        <v>0.0001504200058532859</v>
+        <v>0.0001459029516031969</v>
       </c>
       <c r="AB2">
-        <v>0.0001504207339403907</v>
+        <v>0.0001459029516031969</v>
       </c>
       <c r="AC2">
-        <v>0.0001515824084682304</v>
+        <v>0.0001468740182298937</v>
       </c>
       <c r="AD2">
-        <v>0.0001536902283372979</v>
+        <v>0.0001487912649507575</v>
       </c>
       <c r="AE2">
-        <v>0.0001547395789721149</v>
+        <v>0.0001496500035586538</v>
       </c>
       <c r="AF2">
-        <v>0.0001549625978482615</v>
+        <v>0.0001496823800558227</v>
       </c>
       <c r="AG2">
-        <v>0.000157979083260885</v>
+        <v>0.0001525083256965083</v>
       </c>
       <c r="AH2">
-        <v>0.0001644219558606698</v>
+        <v>0.0001587607843792536</v>
       </c>
       <c r="AI2">
-        <v>0.0001690291933744798</v>
+        <v>0.0001631775405511666</v>
       </c>
       <c r="AJ2">
-        <v>0.0001710856142467401</v>
+        <v>0.0001650433863872826</v>
       </c>
       <c r="AK2">
-        <v>0.0001710863137853466</v>
+        <v>0.0001650433863872826</v>
       </c>
       <c r="AL2">
-        <v>0.0001713264719904286</v>
+        <v>0.0001650929028429329</v>
       </c>
       <c r="AM2">
-        <v>0.0001742204921106593</v>
+        <v>0.0001677963786929434</v>
       </c>
       <c r="AN2">
-        <v>0.0001743070119102849</v>
+        <v>0.0001677963786929434</v>
       </c>
       <c r="AO2">
-        <v>0.0001744039935942606</v>
+        <v>0.0001677963786929434</v>
       </c>
       <c r="AP2">
-        <v>0.0001751807870460082</v>
+        <v>0.0001683825501064509</v>
       </c>
       <c r="AQ2">
-        <v>0.000176380001171516</v>
+        <v>0.0001693911577096858</v>
       </c>
       <c r="AR2">
-        <v>0.0001789772380101821</v>
+        <v>0.0001717978393769616</v>
       </c>
       <c r="AS2">
-        <v>0.0001855081136045005</v>
+        <v>0.0001781383042866852</v>
       </c>
       <c r="AT2">
-        <v>0.0001900369343231815</v>
+        <v>0.0001824766407831358</v>
       </c>
       <c r="AU2">
-        <v>0.0001944902670465516</v>
+        <v>0.00018673948651152</v>
       </c>
       <c r="AV2">
-        <v>0.0001982927534103507</v>
+        <v>0.0001903514619740442</v>
       </c>
       <c r="AW2">
-        <v>0.0002030518465147277</v>
+        <v>0.0001949200793143441</v>
       </c>
       <c r="AX2">
-        <v>0.0002066488036912938</v>
+        <v>0.0001983265180403264</v>
       </c>
       <c r="AY2">
-        <v>0.000212732448813393</v>
+        <v>0.0002042197360505731</v>
       </c>
       <c r="AZ2">
-        <v>0.000224002139113348</v>
+        <v>0.0002152991897277104</v>
       </c>
       <c r="BA2">
-        <v>0.0002298250589516428</v>
+        <v>0.0002209316728774317</v>
       </c>
       <c r="BB2">
-        <v>0.0002321431914076462</v>
+        <v>0.0002230592399102397</v>
       </c>
       <c r="BC2">
-        <v>0.0002356063014925265</v>
+        <v>0.0002263318266281882</v>
       </c>
       <c r="BD2">
-        <v>0.0002359011037542142</v>
+        <v>0.0002264359891475793</v>
       </c>
       <c r="BE2">
-        <v>0.0002359030626502925</v>
+        <v>0.0002264359891475793</v>
       </c>
       <c r="BF2">
-        <v>0.000239990629896383</v>
+        <v>0.0002303330559637233</v>
       </c>
       <c r="BG2">
-        <v>0.0002431955714973001</v>
+        <v>0.0002333474647149016</v>
       </c>
       <c r="BH2">
-        <v>0.0002472114378478445</v>
+        <v>0.0002371728280018483</v>
       </c>
       <c r="BI2">
-        <v>0.0002630593388634126</v>
+        <v>0.0002528306605572177</v>
       </c>
       <c r="BJ2">
-        <v>0.0002740946831779246</v>
+        <v>0.0002636757596411311</v>
       </c>
       <c r="BK2">
-        <v>0.0002833179246049999</v>
+        <v>0.0002727086892771136</v>
       </c>
       <c r="BL2">
-        <v>0.0002987432616468166</v>
+        <v>0.000287943942337501</v>
       </c>
       <c r="BM2">
-        <v>0.0003246025320405035</v>
+        <v>0.0003136135119993881</v>
       </c>
       <c r="BN2">
-        <v>0.0003506432604229186</v>
+        <v>0.0003394645463151511</v>
       </c>
       <c r="BO2">
-        <v>0.0003587148944215289</v>
+        <v>0.0003473458262228852</v>
       </c>
       <c r="BP2">
-        <v>0.0003773716272626194</v>
+        <v>0.0003658125937752006</v>
       </c>
       <c r="BQ2">
-        <v>0.0003960283601037099</v>
+        <v>0.0003842793613275159</v>
       </c>
       <c r="BR2">
-        <v>0.0003976964294000936</v>
+        <v>0.000385756841323183</v>
       </c>
       <c r="BS2">
-        <v>0.0004002382800422002</v>
+        <v>0.0003881081347595045</v>
       </c>
       <c r="BT2">
-        <v>0.0004010801127199076</v>
+        <v>0.0003887593477879328</v>
       </c>
       <c r="BU2">
-        <v>0.0004013202709249896</v>
+        <v>0.0003888088642435831</v>
       </c>
       <c r="BV2">
-        <v>0.0004022630076664292</v>
+        <v>0.0003895609850420587</v>
       </c>
       <c r="BW2">
-        <v>0.0004029484707638499</v>
+        <v>0.0003900558227465769</v>
       </c>
       <c r="BX2">
-        <v>0.0004040335148964497</v>
+        <v>0.0003909502561633167</v>
       </c>
       <c r="BY2">
-        <v>0.0004089492945910937</v>
+        <v>0.0003956755658491511</v>
       </c>
       <c r="BZ2">
-        <v>0.0004115465314297599</v>
+        <v>0.000398082247516427</v>
       </c>
       <c r="CA2">
-        <v>0.0004137048142956928</v>
+        <v>0.0004000499590877165</v>
       </c>
       <c r="CB2">
-        <v>0.0004246186136177549</v>
+        <v>0.0004107735087147012</v>
       </c>
       <c r="CC2">
-        <v>0.0004325863461228193</v>
+        <v>0.0004185508833124755</v>
       </c>
       <c r="CD2">
-        <v>0.0004449579673543252</v>
+        <v>0.0004307323083962757</v>
       </c>
       <c r="CE2">
-        <v>0.0004673162459654849</v>
+        <v>0.0004529007576804301</v>
       </c>
       <c r="CF2">
-        <v>0.0004811044601089956</v>
+        <v>0.000466498827709221</v>
       </c>
       <c r="CG2">
-        <v>0.0004969481081248279</v>
+        <v>0.0004821524071086374</v>
       </c>
       <c r="CH2">
-        <v>0.0005047160106423052</v>
+        <v>0.0004897299443788536</v>
       </c>
       <c r="CI2">
-        <v>0.0005098715793220542</v>
+        <v>0.000494695051857501</v>
       </c>
       <c r="CJ2">
-        <v>0.0005118256115006746</v>
+        <v>0.0004964585052391299</v>
       </c>
       <c r="CK2">
-        <v>0.0005119591176923815</v>
+        <v>0.0004964585052391299</v>
       </c>
       <c r="CL2">
-        <v>0.0005120085641913101</v>
+        <v>0.0004964585052391299</v>
       </c>
       <c r="CM2">
-        <v>0.0005618754060937067</v>
+        <v>0.0005461365282337306</v>
       </c>
       <c r="CN2">
-        <v>0.1466848163293025</v>
+        <v>0.1466742540541479</v>
       </c>
       <c r="CO2">
-        <v>0.2700256386676795</v>
+        <v>0.2700194161834343</v>
       </c>
       <c r="CP2">
-        <v>0.3693341924988808</v>
+        <v>0.3693314270743938</v>
       </c>
       <c r="CQ2">
-        <v>0.3770581880190855</v>
+        <v>0.377055515654717</v>
       </c>
       <c r="CR2">
-        <v>0.3821552384024695</v>
+        <v>0.3821525626076901</v>
       </c>
       <c r="CS2">
-        <v>0.382806174812035</v>
+        <v>0.3828033322762815</v>
       </c>
       <c r="CT2">
-        <v>0.3830207828787041</v>
+        <v>0.3830177575751658</v>
       </c>
       <c r="CU2">
-        <v>0.3839839385788753</v>
+        <v>0.3839807580025143</v>
       </c>
       <c r="CV2">
-        <v>0.4235949291183397</v>
+        <v>0.423593012845828</v>
       </c>
       <c r="CW2">
-        <v>0.4248504956403471</v>
+        <v>0.4248484348355776</v>
       </c>
       <c r="CX2">
-        <v>0.4991322810261486</v>
+        <v>0.4991327580209302</v>
       </c>
       <c r="CY2">
-        <v>0.5133063411456915</v>
+        <v>0.5133071481184234</v>
       </c>
       <c r="CZ2">
-        <v>0.5141209447950904</v>
+        <v>0.5141215910385225</v>
       </c>
       <c r="DA2">
-        <v>0.5231682602330938</v>
+        <v>0.5231690481436126</v>
       </c>
       <c r="DB2">
-        <v>0.5443812109153985</v>
+        <v>0.5443825873499123</v>
       </c>
       <c r="DC2">
-        <v>0.5975919776100789</v>
+        <v>0.5975951178828932</v>
       </c>
       <c r="DD2">
-        <v>0.6078965419699851</v>
+        <v>0.6078998700899956</v>
       </c>
       <c r="DE2">
-        <v>0.6122029187024838</v>
+        <v>0.6122062143497872</v>
       </c>
       <c r="DF2">
-        <v>0.6484908124483707</v>
+        <v>0.6484952503385927</v>
       </c>
       <c r="DG2">
-        <v>0.6510394422900562</v>
+        <v>0.6510437831436313</v>
       </c>
       <c r="DH2">
-        <v>0.6737834668772543</v>
+        <v>0.6737884524928209</v>
       </c>
       <c r="DI2">
-        <v>0.6965276494644427</v>
+        <v>0.6965332798478043</v>
       </c>
       <c r="DJ2">
-        <v>0.7396073067884422</v>
+        <v>0.7396143288835265</v>
       </c>
       <c r="DK2">
-        <v>0.7400242675025417</v>
+        <v>0.7400311142624721</v>
       </c>
       <c r="DL2">
-        <v>0.7580370493836328</v>
+        <v>0.7580443671219055</v>
       </c>
       <c r="DM2">
-        <v>0.7673438048055204</v>
+        <v>0.7673512737403904</v>
       </c>
       <c r="DN2">
-        <v>0.7678860951018347</v>
+        <v>0.7678933933050416</v>
       </c>
       <c r="DO2">
-        <v>0.7861916859647372</v>
+        <v>0.7861994659014762</v>
       </c>
       <c r="DP2">
-        <v>0.7889606797927342</v>
+        <v>0.7889683707870333</v>
       </c>
       <c r="DQ2">
-        <v>0.7890233601188407</v>
+        <v>0.7890308627648851</v>
       </c>
       <c r="DR2">
-        <v>0.7938247378205912</v>
+        <v>0.7938322261758481</v>
       </c>
       <c r="DS2">
-        <v>0.7997351647534502</v>
+        <v>0.7997426795544946</v>
       </c>
       <c r="DT2">
-        <v>0.8009076243806199</v>
+        <v>0.8009149915968008</v>
       </c>
       <c r="DU2">
-        <v>0.8020886375072583</v>
+        <v>0.8020958574527549</v>
       </c>
       <c r="DV2">
-        <v>0.8062697102475406</v>
+        <v>0.8062768931177793</v>
       </c>
       <c r="DW2">
-        <v>0.8160848406378493</v>
+        <v>0.8160921933778463</v>
       </c>
       <c r="DX2">
-        <v>0.837809272288382</v>
+        <v>0.8378172323396219</v>
       </c>
       <c r="DY2">
-        <v>0.8379836930875474</v>
+        <v>0.8379914688948807</v>
       </c>
       <c r="DZ2">
-        <v>0.8380433013558447</v>
+        <v>0.8380508887020833</v>
       </c>
       <c r="EA2">
-        <v>0.8583986850914193</v>
+        <v>0.8584068294622937</v>
       </c>
       <c r="EB2">
-        <v>0.8676334155177809</v>
+        <v>0.8676417084396969</v>
       </c>
       <c r="EC2">
-        <v>0.8691141354258023</v>
+        <v>0.8691222920855874</v>
       </c>
       <c r="ED2">
-        <v>0.8721341237382082</v>
+        <v>0.8721422006748517</v>
       </c>
       <c r="EE2">
-        <v>0.8734023440594295</v>
+        <v>0.8734102769286031</v>
       </c>
       <c r="EF2">
-        <v>0.8747063709784266</v>
+        <v>0.8747141610953452</v>
       </c>
       <c r="EG2">
-        <v>0.8763316393774691</v>
+        <v>0.8763392985416787</v>
       </c>
       <c r="EH2">
-        <v>0.876930957410241</v>
+        <v>0.8769384479374778</v>
       </c>
       <c r="EI2">
-        <v>0.8771393491472962</v>
+        <v>0.8771466566784156</v>
       </c>
       <c r="EJ2">
-        <v>0.8776941535128331</v>
+        <v>0.8777012907719448</v>
       </c>
       <c r="EK2">
-        <v>0.8787547279469529</v>
+        <v>0.8787617135115371</v>
       </c>
       <c r="EL2">
-        <v>0.885817310308243</v>
+        <v>0.8858243646385267</v>
       </c>
       <c r="EM2">
-        <v>0.8982462935361857</v>
+        <v>0.8982536137458625</v>
       </c>
       <c r="EN2">
-        <v>0.899807539739205</v>
+        <v>0.8998147266445686</v>
       </c>
       <c r="EO2">
-        <v>0.9012258383511038</v>
+        <v>0.901232886701535</v>
       </c>
       <c r="EP2">
-        <v>0.9050355004144571</v>
+        <v>0.9050424980473156</v>
       </c>
       <c r="EQ2">
-        <v>0.9081941310182509</v>
+        <v>0.9082010540204487</v>
       </c>
       <c r="ER2">
-        <v>0.9166944134902346</v>
+        <v>0.9167014580664081</v>
       </c>
       <c r="ES2">
-        <v>0.9171976418589753</v>
+        <v>0.9172045142686991</v>
       </c>
       <c r="ET2">
-        <v>0.9176472211010486</v>
+        <v>0.9176539193737323</v>
       </c>
       <c r="EU2">
-        <v>0.9220335122285831</v>
+        <v>0.9220401809639018</v>
       </c>
       <c r="EV2">
-        <v>0.9260662769780779</v>
+        <v>0.9260729031906262</v>
       </c>
       <c r="EW2">
-        <v>0.9266337382428286</v>
+        <v>0.9266401946482707</v>
       </c>
       <c r="EX2">
-        <v>0.9266816130298547</v>
+        <v>0.9266878805432187</v>
       </c>
       <c r="EY2">
-        <v>0.932437055672341</v>
+        <v>0.9324433439387523</v>
       </c>
       <c r="EZ2">
-        <v>0.9330879920819065</v>
+        <v>0.9330941136073436</v>
       </c>
       <c r="FA2">
-        <v>0.9359629493033214</v>
+        <v>0.9359689857784684</v>
       </c>
       <c r="FB2">
-        <v>0.937252865023195</v>
+        <v>0.9372587582277675</v>
       </c>
       <c r="FC2">
-        <v>0.9431059220596179</v>
+        <v>0.9431118396027195</v>
       </c>
       <c r="FD2">
-        <v>0.9505138950994532</v>
+        <v>0.9505198940948265</v>
       </c>
       <c r="FE2">
-        <v>0.9517948708198821</v>
+        <v>0.9518007262163051</v>
       </c>
       <c r="FF2">
-        <v>0.9528005273574133</v>
+        <v>0.9528062290421152</v>
       </c>
       <c r="FG2">
-        <v>0.9529226569598269</v>
+        <v>0.9529281724799101</v>
       </c>
       <c r="FH2">
-        <v>0.9530288234992321</v>
+        <v>0.9530341522683562</v>
       </c>
       <c r="FI2">
-        <v>0.9532305839866992</v>
+        <v>0.953235729516133</v>
       </c>
       <c r="FJ2">
-        <v>0.9534169641651218</v>
+        <v>0.9534219258899299</v>
       </c>
       <c r="FK2">
-        <v>0.9534609766553879</v>
+        <v>0.9534657493462515</v>
       </c>
       <c r="FL2">
-        <v>0.9561131947906387</v>
+        <v>0.9561178742497654</v>
       </c>
       <c r="FM2">
-        <v>0.9579487797766167</v>
+        <v>0.9579533360081897</v>
       </c>
       <c r="FN2">
-        <v>0.9586033565359561</v>
+        <v>0.9586077461602689</v>
       </c>
       <c r="FO2">
-        <v>0.9589285453457561</v>
+        <v>0.9589327562640341</v>
       </c>
       <c r="FP2">
-        <v>0.9589345414479836</v>
+        <v>0.9589385619359342</v>
       </c>
       <c r="FQ2">
-        <v>0.9616587317787637</v>
+        <v>0.9616626616785936</v>
       </c>
       <c r="FR2">
-        <v>0.9626598411165773</v>
+        <v>0.9626636171376626</v>
       </c>
       <c r="FS2">
-        <v>0.9628882151323913</v>
+        <v>0.9628918088913299</v>
       </c>
       <c r="FT2">
-        <v>0.9629305958997587</v>
+        <v>0.9629340005648179</v>
       </c>
       <c r="FU2">
-        <v>0.9634564472670941</v>
+        <v>0.9634596805966708</v>
       </c>
       <c r="FV2">
-        <v>0.9641312552251767</v>
+        <v>0.9641343226906071</v>
       </c>
       <c r="FW2">
-        <v>0.9657137275268776</v>
+        <v>0.9657166624676522</v>
       </c>
       <c r="FX2">
-        <v>0.9658020005613943</v>
+        <v>0.965804748093962</v>
       </c>
       <c r="FY2">
-        <v>0.9659567787917799</v>
+        <v>0.9659593413589482</v>
       </c>
       <c r="FZ2">
-        <v>0.9659583116973847</v>
+        <v>0.9659606836702875</v>
       </c>
       <c r="GA2">
-        <v>0.9661437205358675</v>
+        <v>0.9661459086684664</v>
       </c>
       <c r="GB2">
-        <v>0.9661545204851967</v>
+        <v>0.9661565183639186</v>
       </c>
       <c r="GC2">
-        <v>0.9663005494061258</v>
+        <v>0.9663023619980767</v>
       </c>
       <c r="GD2">
-        <v>0.9663010693382934</v>
+        <v>0.9663026912987714</v>
       </c>
       <c r="GE2">
-        <v>0.966392369912622</v>
+        <v>0.966393804576098</v>
       </c>
       <c r="GF2">
-        <v>0.967422997348602</v>
+        <v>0.967424279217565</v>
       </c>
       <c r="GG2">
-        <v>0.9683446021513542</v>
+        <v>0.9683457272212853</v>
       </c>
       <c r="GH2">
-        <v>0.969987105949326</v>
+        <v>0.969988100699623</v>
       </c>
       <c r="GI2">
-        <v>0.9700101481688947</v>
+        <v>0.9700109531149866</v>
       </c>
       <c r="GJ2">
-        <v>0.9703642349768997</v>
+        <v>0.9703648622784115</v>
       </c>
       <c r="GK2">
-        <v>0.9704660320345764</v>
+        <v>0.9704664724246331</v>
       </c>
       <c r="GL2">
-        <v>0.9726129281012166</v>
+        <v>0.9726132566985115</v>
       </c>
       <c r="GM2">
-        <v>0.9783117597472194</v>
+        <v>0.9783121070181786</v>
       </c>
       <c r="GN2">
-        <v>0.9805436562085795</v>
+        <v>0.9805438948089331</v>
       </c>
       <c r="GO2">
-        <v>0.9817185564355977</v>
+        <v>0.9817186475407336</v>
       </c>
       <c r="GP2">
-        <v>0.982833164866361</v>
+        <v>0.9828331062616964</v>
       </c>
       <c r="GQ2">
-        <v>0.9913399178379427</v>
+        <v>0.9913399810449223</v>
       </c>
       <c r="GR2">
-        <v>0.9971250427785853</v>
+        <v>0.9971251278288749</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.635885233918113E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.596646295305935E-06</v>
+        <v>1.325282317655664E-06</v>
       </c>
       <c r="D3">
-        <v>5.579672215687796E-06</v>
+        <v>1.325282317655664E-06</v>
       </c>
       <c r="E3">
-        <v>8.262131371305361E-06</v>
+        <v>2.372177342676067E-06</v>
       </c>
       <c r="F3">
-        <v>8.999828616600627E-06</v>
+        <v>2.372177342676067E-06</v>
       </c>
       <c r="G3">
-        <v>3.663088018949726E-05</v>
+        <v>2.837531935739717E-05</v>
       </c>
       <c r="H3">
-        <v>7.84445580564536E-05</v>
+        <v>6.856543909163242E-05</v>
       </c>
       <c r="I3">
-        <v>7.85796180492539E-05</v>
+        <v>6.856543909163242E-05</v>
       </c>
       <c r="J3">
-        <v>8.485672417940214E-05</v>
+        <v>7.320808397847816E-05</v>
       </c>
       <c r="K3">
-        <v>0.0001617694357740947</v>
+        <v>0.0001485080063083323</v>
       </c>
       <c r="L3">
-        <v>0.0001633216313062776</v>
+        <v>0.0001485080063083323</v>
       </c>
       <c r="M3">
-        <v>0.0001644528102297313</v>
+        <v>0.0001485080063083323</v>
       </c>
       <c r="N3">
-        <v>0.0001936741988356016</v>
+        <v>0.000176101973293374</v>
       </c>
       <c r="O3">
-        <v>0.0002002878766727283</v>
+        <v>0.0001810812931520423</v>
       </c>
       <c r="P3">
-        <v>0.000200899132885402</v>
+        <v>0.0001810812931520423</v>
       </c>
       <c r="Q3">
-        <v>0.0002011019658896075</v>
+        <v>0.0001810812931520423</v>
       </c>
       <c r="R3">
-        <v>0.0002015375891986396</v>
+        <v>0.0001810812931520423</v>
       </c>
       <c r="S3">
-        <v>0.0002027276830233148</v>
+        <v>0.0001810812931520423</v>
       </c>
       <c r="T3">
-        <v>0.000218002612340022</v>
+        <v>0.0001947245218817625</v>
       </c>
       <c r="U3">
-        <v>0.0002225608794345322</v>
+        <v>0.0001976478003694357</v>
       </c>
       <c r="V3">
-        <v>0.0002302048985930218</v>
+        <v>0.000203657777672402</v>
       </c>
       <c r="W3">
-        <v>0.0002433569458657137</v>
+        <v>0.0002151774730286019</v>
       </c>
       <c r="X3">
-        <v>0.0003014313450698165</v>
+        <v>0.0002716333031136731</v>
       </c>
       <c r="Y3">
-        <v>0.0003302331906669881</v>
+        <v>0.0002988075983684318</v>
       </c>
       <c r="Z3">
-        <v>0.0003435057189421781</v>
+        <v>0.0003104478116923638</v>
       </c>
       <c r="AA3">
-        <v>0.0003880746638662615</v>
+        <v>0.0003533940438376795</v>
       </c>
       <c r="AB3">
-        <v>0.0004170546694671271</v>
+        <v>0.0003807465537580797</v>
       </c>
       <c r="AC3">
-        <v>0.0004425758479962781</v>
+        <v>0.000404639175390891</v>
       </c>
       <c r="AD3">
-        <v>0.0004526825612058286</v>
+        <v>0.0004131126023334361</v>
       </c>
       <c r="AE3">
-        <v>0.0004557584882696043</v>
+        <v>0.0004145530859879983</v>
       </c>
       <c r="AF3">
-        <v>0.0004610518898793566</v>
+        <v>0.000418211724540327</v>
       </c>
       <c r="AG3">
-        <v>0.0004750588391697739</v>
+        <v>0.0004305865842099882</v>
       </c>
       <c r="AH3">
-        <v>0.0004855914433881548</v>
+        <v>0.0004394860328306021</v>
       </c>
       <c r="AI3">
-        <v>0.000496269770609557</v>
+        <v>0.0004485312491640656</v>
       </c>
       <c r="AJ3">
-        <v>0.0004972315512294983</v>
+        <v>0.0004485312491640656</v>
       </c>
       <c r="AK3">
-        <v>0.0004972529421279419</v>
+        <v>0.0004485312491640656</v>
       </c>
       <c r="AL3">
-        <v>0.0005084797013607152</v>
+        <v>0.0004581250657754091</v>
       </c>
       <c r="AM3">
-        <v>0.0005195956765911916</v>
+        <v>0.000467608064394395</v>
       </c>
       <c r="AN3">
-        <v>0.000541156147038222</v>
+        <v>0.000487538762745192</v>
       </c>
       <c r="AO3">
-        <v>0.0005435921108887287</v>
+        <v>0.0004883390868369406</v>
       </c>
       <c r="AP3">
-        <v>0.0005516399670555913</v>
+        <v>0.0004947530250510468</v>
       </c>
       <c r="AQ3">
-        <v>0.0005985286040277708</v>
+        <v>0.0005400196609579885</v>
       </c>
       <c r="AR3">
-        <v>0.0006026958074141727</v>
+        <v>0.0005425517557538115</v>
       </c>
       <c r="AS3">
-        <v>0.0006034151159890868</v>
+        <v>0.0005425517557538115</v>
       </c>
       <c r="AT3">
-        <v>0.0006053152540284838</v>
+        <v>0.0005428160896356976</v>
       </c>
       <c r="AU3">
-        <v>0.0006102599858310069</v>
+        <v>0.0005461259514040889</v>
       </c>
       <c r="AV3">
-        <v>0.0006106194177184593</v>
+        <v>0.0005461259514040889</v>
       </c>
       <c r="AW3">
-        <v>0.0006119585435462244</v>
+        <v>0.0005461259514040889</v>
       </c>
       <c r="AX3">
-        <v>0.0006134292466767177</v>
+        <v>0.0005461259514040889</v>
       </c>
       <c r="AY3">
-        <v>0.0006152391033142429</v>
+        <v>0.0005462999761845233</v>
       </c>
       <c r="AZ3">
-        <v>0.0006239244094943222</v>
+        <v>0.0005533515599903065</v>
       </c>
       <c r="BA3">
-        <v>0.0006239427653647028</v>
+        <v>0.0005533515599903065</v>
       </c>
       <c r="BB3">
-        <v>0.0006266797864214516</v>
+        <v>0.0005544530336568024</v>
       </c>
       <c r="BC3">
-        <v>0.0006459425028208409</v>
+        <v>0.0005720852729773094</v>
       </c>
       <c r="BD3">
-        <v>0.0006521905769503872</v>
+        <v>0.0005766988769561348</v>
       </c>
       <c r="BE3">
-        <v>0.0006963180598653175</v>
+        <v>0.0006192035116456612</v>
       </c>
       <c r="BF3">
-        <v>0.0006972684969850237</v>
+        <v>0.0006192035116456612</v>
       </c>
       <c r="BG3">
-        <v>0.0007076938052011799</v>
+        <v>0.0006279956313441563</v>
       </c>
       <c r="BH3">
-        <v>0.0007333827057338084</v>
+        <v>0.0006520560264398702</v>
       </c>
       <c r="BI3">
-        <v>0.00074057538558294</v>
+        <v>0.0006576145259563504</v>
       </c>
       <c r="BJ3">
-        <v>0.0007496558207712119</v>
+        <v>0.0006650613600013581</v>
       </c>
       <c r="BK3">
-        <v>0.0007497430894970212</v>
+        <v>0.0006650613600013581</v>
       </c>
       <c r="BL3">
-        <v>0.0007533644555721058</v>
+        <v>0.0006670474500154447</v>
       </c>
       <c r="BM3">
-        <v>0.0007604112077182118</v>
+        <v>0.0006724599770562662</v>
       </c>
       <c r="BN3">
-        <v>0.0007739690289993169</v>
+        <v>0.0006843855709179445</v>
       </c>
       <c r="BO3">
-        <v>0.0007747946045164343</v>
+        <v>0.0006843855709179445</v>
       </c>
       <c r="BP3">
-        <v>0.0007763468000486172</v>
+        <v>0.0006843855709179445</v>
       </c>
       <c r="BQ3">
-        <v>0.0007809298699436416</v>
+        <v>0.0006873336598159733</v>
       </c>
       <c r="BR3">
-        <v>0.0008000981383410726</v>
+        <v>0.0007048714221565718</v>
       </c>
       <c r="BS3">
-        <v>0.0008061285839661066</v>
+        <v>0.0007092673308594567</v>
       </c>
       <c r="BT3">
-        <v>0.0008118378390844812</v>
+        <v>0.0007133419505100025</v>
       </c>
       <c r="BU3">
-        <v>0.0008199800002532991</v>
+        <v>0.0007198502226601399</v>
       </c>
       <c r="BV3">
-        <v>0.0008329344565218942</v>
+        <v>0.0007311722663885963</v>
       </c>
       <c r="BW3">
-        <v>0.0008537322579531116</v>
+        <v>0.000750340061726202</v>
       </c>
       <c r="BX3">
-        <v>0.000855586980491567</v>
+        <v>0.0007505589661730442</v>
       </c>
       <c r="BY3">
-        <v>0.0008629001693431972</v>
+        <v>0.0007562380116658478</v>
       </c>
       <c r="BZ3">
-        <v>0.0008664182074161395</v>
+        <v>0.0007581207419753349</v>
       </c>
       <c r="CA3">
-        <v>0.0008763152706213432</v>
+        <v>0.0007663844545900189</v>
       </c>
       <c r="CB3">
-        <v>0.0008809445792173263</v>
+        <v>0.0007693787963756779</v>
       </c>
       <c r="CC3">
-        <v>0.000881132758971228</v>
+        <v>0.0007693787963756779</v>
       </c>
       <c r="CD3">
-        <v>0.0008970622773015074</v>
+        <v>0.0007836768149559124</v>
       </c>
       <c r="CE3">
-        <v>0.0009667825347470731</v>
+        <v>0.0008517820763924573</v>
       </c>
       <c r="CF3">
-        <v>0.0009688056802890206</v>
+        <v>0.000852169455517293</v>
       </c>
       <c r="CG3">
-        <v>0.0009721791355589652</v>
+        <v>0.0008539075586637834</v>
       </c>
       <c r="CH3">
-        <v>0.001040522436975981</v>
+        <v>0.0009206354416026684</v>
       </c>
       <c r="CI3">
-        <v>0.001065048815484506</v>
+        <v>0.0009435329579964801</v>
       </c>
       <c r="CJ3">
-        <v>0.001065191909387473</v>
+        <v>0.0009435329579964801</v>
       </c>
       <c r="CK3">
-        <v>0.001067262475330404</v>
+        <v>0.0009439677720715323</v>
       </c>
       <c r="CL3">
-        <v>0.001105440160121972</v>
+        <v>0.0009805207831575307</v>
       </c>
       <c r="CM3">
-        <v>0.001315164314470351</v>
+        <v>0.001188672896624385</v>
       </c>
       <c r="CN3">
-        <v>0.09520847026123515</v>
+        <v>0.09510915021815029</v>
       </c>
       <c r="CO3">
-        <v>0.09526413270238925</v>
+        <v>0.09516319335016334</v>
       </c>
       <c r="CP3">
-        <v>0.3680027383572963</v>
+        <v>0.3679838425856853</v>
       </c>
       <c r="CQ3">
-        <v>0.3702302814034817</v>
+        <v>0.3702104326856693</v>
       </c>
       <c r="CR3">
-        <v>0.3957290209321674</v>
+        <v>0.3957153591923558</v>
       </c>
       <c r="CS3">
-        <v>0.3985842224913666</v>
+        <v>0.3985698003796465</v>
       </c>
       <c r="CT3">
-        <v>0.3995068820104968</v>
+        <v>0.399491106596303</v>
       </c>
       <c r="CU3">
-        <v>0.3997044745145937</v>
+        <v>0.3996871233373606</v>
       </c>
       <c r="CV3">
-        <v>0.4076657276796607</v>
+        <v>0.4076491827376107</v>
       </c>
       <c r="CW3">
-        <v>0.4101439983310446</v>
+        <v>0.4101265773694823</v>
       </c>
       <c r="CX3">
-        <v>0.4649758764679177</v>
+        <v>0.464973642296052</v>
       </c>
       <c r="CY3">
-        <v>0.4893545269733797</v>
+        <v>0.4893581361207464</v>
       </c>
       <c r="CZ3">
-        <v>0.4902595019321433</v>
+        <v>0.490261752351169</v>
       </c>
       <c r="DA3">
-        <v>0.504368478224676</v>
+        <v>0.5043734210851732</v>
       </c>
       <c r="DB3">
-        <v>0.5044346469710479</v>
+        <v>0.5044379737458835</v>
       </c>
       <c r="DC3">
-        <v>0.5904042187535236</v>
+        <v>0.5904322857921384</v>
       </c>
       <c r="DD3">
-        <v>0.5918130818827346</v>
+        <v>0.5918399447928524</v>
       </c>
       <c r="DE3">
-        <v>0.6206764364811815</v>
+        <v>0.6207105186796322</v>
       </c>
       <c r="DF3">
-        <v>0.6426619899370256</v>
+        <v>0.6427011812195111</v>
       </c>
       <c r="DG3">
-        <v>0.6486336870608416</v>
+        <v>0.6486730741552627</v>
       </c>
       <c r="DH3">
-        <v>0.6801808377149338</v>
+        <v>0.6802282675233516</v>
       </c>
       <c r="DI3">
-        <v>0.6849565175139517</v>
+        <v>0.6850037761796859</v>
       </c>
       <c r="DJ3">
-        <v>0.734406230539232</v>
+        <v>0.7344670246721376</v>
       </c>
       <c r="DK3">
-        <v>0.7377820561092258</v>
+        <v>0.7378422496048535</v>
       </c>
       <c r="DL3">
-        <v>0.7464021662879534</v>
+        <v>0.7464633681651875</v>
       </c>
       <c r="DM3">
-        <v>0.7470911578022388</v>
+        <v>0.7471509346844309</v>
       </c>
       <c r="DN3">
-        <v>0.7513502035905449</v>
+        <v>0.7514096508196099</v>
       </c>
       <c r="DO3">
-        <v>0.7645719858646827</v>
+        <v>0.7646338533318519</v>
       </c>
       <c r="DP3">
-        <v>0.7707642989930729</v>
+        <v>0.770826429960212</v>
       </c>
       <c r="DQ3">
-        <v>0.7707758219903118</v>
+        <v>0.7708363201057193</v>
       </c>
       <c r="DR3">
-        <v>0.7723201044223307</v>
+        <v>0.7723794399577519</v>
       </c>
       <c r="DS3">
-        <v>0.781582628614378</v>
+        <v>0.7816431696328897</v>
       </c>
       <c r="DT3">
-        <v>0.7815888766885075</v>
+        <v>0.7816477832368686</v>
       </c>
       <c r="DU3">
-        <v>0.7828736966151467</v>
+        <v>0.7829313609768446</v>
       </c>
       <c r="DV3">
-        <v>0.7832614542931864</v>
+        <v>0.7833176012371446</v>
       </c>
       <c r="DW3">
-        <v>0.8088025548227504</v>
+        <v>0.808864901741649</v>
       </c>
       <c r="DX3">
-        <v>0.8133967449180054</v>
+        <v>0.8134588650106749</v>
       </c>
       <c r="DY3">
-        <v>0.8182390830184054</v>
+        <v>0.818301052420078</v>
       </c>
       <c r="DZ3">
-        <v>0.823010983517345</v>
+        <v>0.8230727806167926</v>
       </c>
       <c r="EA3">
-        <v>0.833459716733987</v>
+        <v>0.8335230832618223</v>
       </c>
       <c r="EB3">
-        <v>0.8554010601889144</v>
+        <v>0.8554695222365463</v>
       </c>
       <c r="EC3">
-        <v>0.8574734024318819</v>
+        <v>0.8575408639155643</v>
       </c>
       <c r="ED3">
-        <v>0.8578951618806265</v>
+        <v>0.8579611163787817</v>
       </c>
       <c r="EE3">
-        <v>0.8629528489854916</v>
+        <v>0.8630187188646959</v>
       </c>
       <c r="EF3">
-        <v>0.8630331855131573</v>
+        <v>0.8630974436535708</v>
       </c>
       <c r="EG3">
-        <v>0.8662229167792925</v>
+        <v>0.8662865171861278</v>
       </c>
       <c r="EH3">
-        <v>0.8668309162418987</v>
+        <v>0.8668930668042129</v>
       </c>
       <c r="EI3">
-        <v>0.8670892530472549</v>
+        <v>0.8671498464837197</v>
       </c>
       <c r="EJ3">
-        <v>0.8674672820950929</v>
+        <v>0.8675263551289399</v>
       </c>
       <c r="EK3">
-        <v>0.8687811950223353</v>
+        <v>0.8688390347956532</v>
       </c>
       <c r="EL3">
-        <v>0.8720317730897321</v>
+        <v>0.87208897379811</v>
       </c>
       <c r="EM3">
-        <v>0.8922994295099576</v>
+        <v>0.8923612122278545</v>
       </c>
       <c r="EN3">
-        <v>0.8960396177875058</v>
+        <v>0.8961009116596315</v>
       </c>
       <c r="EO3">
-        <v>0.8960414725100443</v>
+        <v>0.8961011305640783</v>
       </c>
       <c r="EP3">
-        <v>0.8985600856622648</v>
+        <v>0.8986188800744223</v>
       </c>
       <c r="EQ3">
-        <v>0.898923848269807</v>
+        <v>0.8989811179022059</v>
       </c>
       <c r="ER3">
-        <v>0.9134798280716078</v>
+        <v>0.9135399272923231</v>
       </c>
       <c r="ES3">
-        <v>0.9178499091622161</v>
+        <v>0.9179097127969672</v>
       </c>
       <c r="ET3">
-        <v>0.9185825059074056</v>
+        <v>0.9186408979258013</v>
       </c>
       <c r="EU3">
-        <v>0.9219371801769608</v>
+        <v>0.9219949650685677</v>
       </c>
       <c r="EV3">
-        <v>0.930399990352427</v>
+        <v>0.9304587353638287</v>
       </c>
       <c r="EW3">
-        <v>0.9305364367652561</v>
+        <v>0.930593587253154</v>
       </c>
       <c r="EX3">
-        <v>0.9306010909065966</v>
+        <v>0.9306566248441311</v>
       </c>
       <c r="EY3">
-        <v>0.933152496959497</v>
+        <v>0.9332071773164695</v>
       </c>
       <c r="EZ3">
-        <v>0.9333016143425887</v>
+        <v>0.933354704063686</v>
       </c>
       <c r="FA3">
-        <v>0.9358036205944649</v>
+        <v>0.9358558415784596</v>
       </c>
       <c r="FB3">
-        <v>0.9359991915285198</v>
+        <v>0.9360498361292297</v>
       </c>
       <c r="FC3">
-        <v>0.9361903149324826</v>
+        <v>0.9362393817853439</v>
       </c>
       <c r="FD3">
-        <v>0.952231389265075</v>
+        <v>0.9522837413537478</v>
       </c>
       <c r="FE3">
-        <v>0.9523880263883227</v>
+        <v>0.9524387901482803</v>
       </c>
       <c r="FF3">
-        <v>0.9547715167377414</v>
+        <v>0.9548213753982822</v>
       </c>
       <c r="FG3">
-        <v>0.9549219931208613</v>
+        <v>0.9549702615624868</v>
       </c>
       <c r="FH3">
-        <v>0.95492530597193</v>
+        <v>0.9549719390428378</v>
       </c>
       <c r="FI3">
-        <v>0.9550021169935227</v>
+        <v>0.9550471372439657</v>
       </c>
       <c r="FJ3">
-        <v>0.9550036691890549</v>
+        <v>0.9550471372439657</v>
       </c>
       <c r="FK3">
-        <v>0.9558907849074482</v>
+        <v>0.9559328887545567</v>
       </c>
       <c r="FL3">
-        <v>0.9560771950113132</v>
+        <v>0.9561177196644678</v>
       </c>
       <c r="FM3">
-        <v>0.9589035117699134</v>
+        <v>0.9589432671889041</v>
       </c>
       <c r="FN3">
-        <v>0.9591562059251527</v>
+        <v>0.9591944024870511</v>
       </c>
       <c r="FO3">
-        <v>0.959793440238365</v>
+        <v>0.9598301959253979</v>
       </c>
       <c r="FP3">
-        <v>0.9598137347387857</v>
+        <v>0.9598488602653054</v>
       </c>
       <c r="FQ3">
-        <v>0.9606189201054803</v>
+        <v>0.9606526562868352</v>
       </c>
       <c r="FR3">
-        <v>0.9631408613577698</v>
+        <v>0.9631737349183552</v>
       </c>
       <c r="FS3">
-        <v>0.9632774433106016</v>
+        <v>0.9633087223892689</v>
       </c>
       <c r="FT3">
-        <v>0.9632934191659328</v>
+        <v>0.963323066759067</v>
       </c>
       <c r="FU3">
-        <v>0.963454085059264</v>
+        <v>0.9634821455597652</v>
       </c>
       <c r="FV3">
-        <v>0.9645015178809813</v>
+        <v>0.9645282633611797</v>
       </c>
       <c r="FW3">
-        <v>0.9667746591281121</v>
+        <v>0.9668004656522664</v>
       </c>
       <c r="FX3">
-        <v>0.9671209361352917</v>
+        <v>0.9671452125148641</v>
       </c>
       <c r="FY3">
-        <v>0.96827500865922</v>
+        <v>0.9682980027370218</v>
       </c>
       <c r="FZ3">
-        <v>0.9685976483459096</v>
+        <v>0.9686191050268733</v>
       </c>
       <c r="GA3">
-        <v>0.9686398164267839</v>
+        <v>0.9686596496583506</v>
       </c>
       <c r="GB3">
-        <v>0.9687762628396129</v>
+        <v>0.9687945015476759</v>
       </c>
       <c r="GC3">
-        <v>0.9688525952761956</v>
+        <v>0.9688692210169573</v>
       </c>
       <c r="GD3">
-        <v>0.9689153972374978</v>
+        <v>0.9689304058596216</v>
       </c>
       <c r="GE3">
-        <v>0.9689680475125894</v>
+        <v>0.9689814359013982</v>
       </c>
       <c r="GF3">
-        <v>0.9692567134785744</v>
+        <v>0.9692685540469389</v>
       </c>
       <c r="GG3">
-        <v>0.9700713316954646</v>
+        <v>0.9700817858127929</v>
       </c>
       <c r="GH3">
-        <v>0.9719454805343227</v>
+        <v>0.9719548732792304</v>
       </c>
       <c r="GI3">
-        <v>0.9723158156620012</v>
+        <v>0.9723236856436902</v>
       </c>
       <c r="GJ3">
-        <v>0.9726571758390788</v>
+        <v>0.9726635141676346</v>
       </c>
       <c r="GK3">
-        <v>0.9727103928201822</v>
+        <v>0.9727151110892961</v>
       </c>
       <c r="GL3">
-        <v>0.9727483659779695</v>
+        <v>0.9727514595106261</v>
       </c>
       <c r="GM3">
-        <v>0.9778619560839937</v>
+        <v>0.9778649821495117</v>
       </c>
       <c r="GN3">
-        <v>0.9815368544601883</v>
+        <v>0.9815393716480922</v>
       </c>
       <c r="GO3">
-        <v>0.982956936989632</v>
+        <v>0.9829582534913057</v>
       </c>
       <c r="GP3">
-        <v>0.9829748214470029</v>
+        <v>0.9829745070487288</v>
       </c>
       <c r="GQ3">
-        <v>0.9892403821769118</v>
+        <v>0.9892403537519826</v>
       </c>
       <c r="GR3">
-        <v>0.9958005547129291</v>
+        <v>0.9958009026523124</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.606211982371333E-06</v>
+        <v>2.765974968224773E-06</v>
       </c>
       <c r="C4">
-        <v>4.255201679198801E-06</v>
+        <v>2.765974968224773E-06</v>
       </c>
       <c r="D4">
-        <v>2.119473659639129E-05</v>
+        <v>1.886741269601949E-05</v>
       </c>
       <c r="E4">
-        <v>5.423864643485889E-05</v>
+        <v>5.107580988760649E-05</v>
       </c>
       <c r="F4">
-        <v>5.660879162327263E-05</v>
+        <v>5.26055196892452E-05</v>
       </c>
       <c r="G4">
-        <v>8.235799649739979E-05</v>
+        <v>7.75180412113124E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001346485212417819</v>
+        <v>0.0001289761421399408</v>
       </c>
       <c r="I4">
-        <v>0.0001370650095299691</v>
+        <v>0.0001305522024788172</v>
       </c>
       <c r="J4">
-        <v>0.0001481999354755369</v>
+        <v>0.0001408480996708156</v>
       </c>
       <c r="K4">
-        <v>0.00018906326527578</v>
+        <v>0.0001808771717392834</v>
       </c>
       <c r="L4">
-        <v>0.0002140580331535951</v>
+        <v>0.0002050351351877225</v>
       </c>
       <c r="M4">
-        <v>0.0002362882430449246</v>
+        <v>0.0002264280969741099</v>
       </c>
       <c r="N4">
-        <v>0.0002415939522189881</v>
+        <v>0.0002308938418812009</v>
       </c>
       <c r="O4">
-        <v>0.0002502815446765195</v>
+        <v>0.0002387420128199991</v>
       </c>
       <c r="P4">
-        <v>0.0002561536248478143</v>
+        <v>0.0002437742196194931</v>
       </c>
       <c r="Q4">
-        <v>0.000256319787017002</v>
+        <v>0.0002437742196194931</v>
       </c>
       <c r="R4">
-        <v>0.0002576229427106317</v>
+        <v>0.0002442367686884246</v>
       </c>
       <c r="S4">
-        <v>0.0002584636235565221</v>
+        <v>0.0002442367686884246</v>
       </c>
       <c r="T4">
-        <v>0.0002587743308750032</v>
+        <v>0.0002442367686884246</v>
       </c>
       <c r="U4">
-        <v>0.0002796734127728398</v>
+        <v>0.0002642983888526057</v>
       </c>
       <c r="V4">
-        <v>0.0002828085792575138</v>
+        <v>0.0002665932427264631</v>
       </c>
       <c r="W4">
-        <v>0.0002938866002033598</v>
+        <v>0.0002768322257862282</v>
       </c>
       <c r="X4">
-        <v>0.0003156154380971402</v>
+        <v>0.0002977237351113881</v>
       </c>
       <c r="Y4">
-        <v>0.0003215917820679253</v>
+        <v>0.0003028602224433549</v>
       </c>
       <c r="Z4">
-        <v>0.0003416772619697391</v>
+        <v>0.0003221081100389849</v>
       </c>
       <c r="AA4">
-        <v>0.0003600553468798994</v>
+        <v>0.0003396483286282933</v>
       </c>
       <c r="AB4">
-        <v>0.000366328211349235</v>
+        <v>0.0003450813840464902</v>
       </c>
       <c r="AC4">
-        <v>0.0003663648818560557</v>
+        <v>0.0003450813840464902</v>
       </c>
       <c r="AD4">
-        <v>0.0003721956578275524</v>
+        <v>0.0003500722800173998</v>
       </c>
       <c r="AE4">
-        <v>0.000377882660399752</v>
+        <v>0.0003549193795152533</v>
       </c>
       <c r="AF4">
-        <v>0.0003853780913631112</v>
+        <v>0.0003615751976334799</v>
       </c>
       <c r="AG4">
-        <v>0.0003859120260305011</v>
+        <v>0.0003615751976334799</v>
       </c>
       <c r="AH4">
-        <v>0.0003863421228083986</v>
+        <v>0.0003615751976334799</v>
       </c>
       <c r="AI4">
-        <v>0.0003921418367800472</v>
+        <v>0.0003665350266194947</v>
       </c>
       <c r="AJ4">
-        <v>0.0004160992366629335</v>
+        <v>0.0003896554555889468</v>
       </c>
       <c r="AK4">
-        <v>0.0004616876404400784</v>
+        <v>0.0004344103599471755</v>
       </c>
       <c r="AL4">
-        <v>0.0004739492873801383</v>
+        <v>0.0004458331589577173</v>
       </c>
       <c r="AM4">
-        <v>0.0004971791712665809</v>
+        <v>0.0004682259551738797</v>
       </c>
       <c r="AN4">
-        <v>0.000578154660870739</v>
+        <v>0.0005483736245257036</v>
       </c>
       <c r="AO4">
-        <v>0.0006577879304814583</v>
+        <v>0.0006271788584752539</v>
       </c>
       <c r="AP4">
-        <v>0.0007191022141817286</v>
+        <v>0.0006876621665556055</v>
       </c>
       <c r="AQ4">
-        <v>0.0007521461240201961</v>
+        <v>0.0007198705637471924</v>
       </c>
       <c r="AR4">
-        <v>0.0008022928787750578</v>
+        <v>0.0007691845506391262</v>
       </c>
       <c r="AS4">
-        <v>0.0008338051586210127</v>
+        <v>0.0007998610720315265</v>
       </c>
       <c r="AT4">
-        <v>0.000846489980559004</v>
+        <v>0.0008117071139540776</v>
       </c>
       <c r="AU4">
-        <v>0.0008657214784649924</v>
+        <v>0.0008301008825008896</v>
       </c>
       <c r="AV4">
-        <v>0.0008672589915574764</v>
+        <v>0.0008307978265799869</v>
       </c>
       <c r="AW4">
-        <v>0.0008719898328343501</v>
+        <v>0.0008346886113310746</v>
       </c>
       <c r="AX4">
-        <v>0.0008772955420084136</v>
+        <v>0.0008391543562381656</v>
       </c>
       <c r="AY4">
-        <v>0.0008787033074015318</v>
+        <v>0.0008397215317950806</v>
       </c>
       <c r="AZ4">
-        <v>0.0008787065214112161</v>
+        <v>0.0008397215317950806</v>
       </c>
       <c r="BA4">
-        <v>0.0008934338703392227</v>
+        <v>0.0008536104285066379</v>
       </c>
       <c r="BB4">
-        <v>0.0009411562721059357</v>
+        <v>0.0009004996733333302</v>
       </c>
       <c r="BC4">
-        <v>0.000943783455293093</v>
+        <v>0.0009022864623849649</v>
       </c>
       <c r="BD4">
-        <v>0.0009482572612712232</v>
+        <v>0.00090592017058649</v>
       </c>
       <c r="BE4">
-        <v>0.0009557060164348105</v>
+        <v>0.0009125293054140865</v>
       </c>
       <c r="BF4">
-        <v>0.001000174776217429</v>
+        <v>0.0009561643860895037</v>
       </c>
       <c r="BG4">
-        <v>0.001032948883057215</v>
+        <v>0.0009881029369825409</v>
       </c>
       <c r="BH4">
-        <v>0.001052236909962927</v>
+        <v>0.001006553243601245</v>
       </c>
       <c r="BI4">
-        <v>0.001102900475715263</v>
+        <v>0.001056384124432089</v>
       </c>
       <c r="BJ4">
-        <v>0.001107895532490845</v>
+        <v>0.001060539167085033</v>
       </c>
       <c r="BK4">
-        <v>0.001110620722877523</v>
+        <v>0.001062423979065068</v>
       </c>
       <c r="BL4">
-        <v>0.001116236511550071</v>
+        <v>0.001067199853234366</v>
       </c>
       <c r="BM4">
-        <v>0.001135131871457702</v>
+        <v>0.001085257429837049</v>
       </c>
       <c r="BN4">
-        <v>0.001135945310153726</v>
+        <v>0.001085257429837049</v>
       </c>
       <c r="BO4">
-        <v>0.001137794339044687</v>
+        <v>0.001086265939708853</v>
       </c>
       <c r="BP4">
-        <v>0.001139407039036803</v>
+        <v>0.001087038082754102</v>
       </c>
       <c r="BQ4">
-        <v>0.001140105191633391</v>
+        <v>0.001087038082754102</v>
       </c>
       <c r="BR4">
-        <v>0.001140278386992544</v>
+        <v>0.001087038082754102</v>
       </c>
       <c r="BS4">
-        <v>0.001151918728935641</v>
+        <v>0.001097839477056317</v>
       </c>
       <c r="BT4">
-        <v>0.001153934284425788</v>
+        <v>0.001099014540252659</v>
       </c>
       <c r="BU4">
-        <v>0.001154455815063239</v>
+        <v>0.001099014540252659</v>
       </c>
       <c r="BV4">
-        <v>0.001167788862998061</v>
+        <v>0.001111508912203875</v>
       </c>
       <c r="BW4">
-        <v>0.001190587622886611</v>
+        <v>0.001133470515232356</v>
       </c>
       <c r="BX4">
-        <v>0.001190859078915284</v>
+        <v>0.001133470515232356</v>
       </c>
       <c r="BY4">
-        <v>0.001191983160809789</v>
+        <v>0.001133753961763149</v>
       </c>
       <c r="BZ4">
-        <v>0.001224855096649098</v>
+        <v>0.001165790357355989</v>
       </c>
       <c r="CA4">
-        <v>0.001228751352330051</v>
+        <v>0.001168846422571034</v>
       </c>
       <c r="CB4">
-        <v>0.001239434141277829</v>
+        <v>0.00117869011020314</v>
       </c>
       <c r="CC4">
-        <v>0.001247600039237911</v>
+        <v>0.001186016502919314</v>
       </c>
       <c r="CD4">
-        <v>0.001266180299147083</v>
+        <v>0.001203758928954089</v>
       </c>
       <c r="CE4">
-        <v>0.001290940486026044</v>
+        <v>0.001227682273756478</v>
       </c>
       <c r="CF4">
-        <v>0.001322022075874105</v>
+        <v>0.001257928036030846</v>
       </c>
       <c r="CG4">
-        <v>0.001323178142668453</v>
+        <v>0.001258243472594643</v>
       </c>
       <c r="CH4">
-        <v>0.001324481298362083</v>
+        <v>0.001258706021663575</v>
       </c>
       <c r="CI4">
-        <v>0.001354568908215002</v>
+        <v>0.001287957644421953</v>
       </c>
       <c r="CJ4">
-        <v>0.001354960610643088</v>
+        <v>0.001287957644421953</v>
       </c>
       <c r="CK4">
-        <v>0.001355238819411728</v>
+        <v>0.001287957644421953</v>
       </c>
       <c r="CL4">
-        <v>0.001361288620382154</v>
+        <v>0.001293167600542453</v>
       </c>
       <c r="CM4">
-        <v>0.001527516859569561</v>
+        <v>0.001458581701433956</v>
       </c>
       <c r="CN4">
-        <v>0.1151646803040637</v>
+        <v>0.115113141615491</v>
       </c>
       <c r="CO4">
-        <v>0.1151647681228833</v>
+        <v>0.115113141615491</v>
       </c>
       <c r="CP4">
-        <v>0.3566823269422448</v>
+        <v>0.3566686200430391</v>
       </c>
       <c r="CQ4">
-        <v>0.3593367981292687</v>
+        <v>0.3593226764223665</v>
       </c>
       <c r="CR4">
-        <v>0.3901745699785208</v>
+        <v>0.3901645565167692</v>
       </c>
       <c r="CS4">
-        <v>0.3919362150699091</v>
+        <v>0.3919256435134962</v>
       </c>
       <c r="CT4">
-        <v>0.392558735166866</v>
+        <v>0.39254742270106</v>
       </c>
       <c r="CU4">
-        <v>0.3926468710264351</v>
+        <v>0.392634731889523</v>
       </c>
       <c r="CV4">
-        <v>0.4044025264689686</v>
+        <v>0.4043914331459476</v>
       </c>
       <c r="CW4">
-        <v>0.4044787224685961</v>
+        <v>0.4044668005582769</v>
       </c>
       <c r="CX4">
-        <v>0.4630233651824055</v>
+        <v>0.4630199981093037</v>
       </c>
       <c r="CY4">
-        <v>0.4720103741384732</v>
+        <v>0.4720076085475457</v>
       </c>
       <c r="CZ4">
-        <v>0.4720214521594191</v>
+        <v>0.4720178475306054</v>
       </c>
       <c r="DA4">
-        <v>0.4945691830491964</v>
+        <v>0.4945683562218847</v>
       </c>
       <c r="DB4">
-        <v>0.495004377807069</v>
+        <v>0.495002780007086</v>
       </c>
       <c r="DC4">
-        <v>0.5987441472999457</v>
+        <v>0.5987583575666474</v>
       </c>
       <c r="DD4">
-        <v>0.5987465838533338</v>
+        <v>0.5987599536953064</v>
       </c>
       <c r="DE4">
-        <v>0.628525713707761</v>
+        <v>0.6285430218966261</v>
       </c>
       <c r="DF4">
-        <v>0.6598788935544936</v>
+        <v>0.659900392704783</v>
       </c>
       <c r="DG4">
-        <v>0.6615116826465118</v>
+        <v>0.6615326030224294</v>
       </c>
       <c r="DH4">
-        <v>0.6962310044767893</v>
+        <v>0.6962566560360968</v>
       </c>
       <c r="DI4">
-        <v>0.7081954484183022</v>
+        <v>0.7082221792993367</v>
       </c>
       <c r="DJ4">
-        <v>0.7477890082247524</v>
+        <v>0.7478212525409158</v>
       </c>
       <c r="DK4">
-        <v>0.7479654299638899</v>
+        <v>0.7479968617776815</v>
       </c>
       <c r="DL4">
-        <v>0.7534252144372002</v>
+        <v>0.7534566816595564</v>
       </c>
       <c r="DM4">
-        <v>0.7560198346245166</v>
+        <v>0.7560508774338701</v>
       </c>
       <c r="DN4">
-        <v>0.7573064493182271</v>
+        <v>0.7573368577967247</v>
       </c>
       <c r="DO4">
-        <v>0.7726322702433081</v>
+        <v>0.7726642975007779</v>
       </c>
       <c r="DP4">
-        <v>0.7753090596302228</v>
+        <v>0.7753406756617768</v>
       </c>
       <c r="DQ4">
-        <v>0.7753114961836108</v>
+        <v>0.7753422717904358</v>
       </c>
       <c r="DR4">
-        <v>0.7794561824633499</v>
+        <v>0.7794867824226002</v>
       </c>
       <c r="DS4">
-        <v>0.7874606374242208</v>
+        <v>0.7874916811785206</v>
       </c>
       <c r="DT4">
-        <v>0.7875594859737376</v>
+        <v>0.7875897047761785</v>
       </c>
       <c r="DU4">
-        <v>0.7878377892023771</v>
+        <v>0.7878672118530989</v>
       </c>
       <c r="DV4">
-        <v>0.7892945478952559</v>
+        <v>0.7893233635210186</v>
       </c>
       <c r="DW4">
-        <v>0.8104519637918296</v>
+        <v>0.8104833340916379</v>
       </c>
       <c r="DX4">
-        <v>0.8153065787680982</v>
+        <v>0.8153378873546453</v>
       </c>
       <c r="DY4">
-        <v>0.8171081408592914</v>
+        <v>0.8171388977573359</v>
       </c>
       <c r="DZ4">
-        <v>0.822072803835022</v>
+        <v>0.8221035166810766</v>
       </c>
       <c r="EA4">
-        <v>0.8372785947606898</v>
+        <v>0.8373109071224644</v>
       </c>
       <c r="EB4">
-        <v>0.8677835946115686</v>
+        <v>0.8678199618129202</v>
       </c>
       <c r="EC4">
-        <v>0.8697662281018766</v>
+        <v>0.869802072674328</v>
       </c>
       <c r="ED4">
-        <v>0.8698478599814776</v>
+        <v>0.8698828768390187</v>
       </c>
       <c r="EE4">
-        <v>0.8717426931722149</v>
+        <v>0.8717771733100506</v>
       </c>
       <c r="EF4">
-        <v>0.8723682065691571</v>
+        <v>0.8724019462779854</v>
       </c>
       <c r="EG4">
-        <v>0.8766854665480526</v>
+        <v>0.8767190583051382</v>
       </c>
       <c r="EH4">
-        <v>0.8777368108429132</v>
+        <v>0.8777697305113068</v>
       </c>
       <c r="EI4">
-        <v>0.8782201371005505</v>
+        <v>0.878252293520752</v>
       </c>
       <c r="EJ4">
-        <v>0.8786998019582056</v>
+        <v>0.878731194542608</v>
       </c>
       <c r="EK4">
-        <v>0.8800422724516431</v>
+        <v>0.8800730396693182</v>
       </c>
       <c r="EL4">
-        <v>0.8839700187324426</v>
+        <v>0.8840005754864975</v>
       </c>
       <c r="EM4">
-        <v>0.9025366186416813</v>
+        <v>0.9025693142775448</v>
       </c>
       <c r="EN4">
-        <v>0.9053563039278976</v>
+        <v>0.9053886112707766</v>
       </c>
       <c r="EO4">
-        <v>0.905377893350792</v>
+        <v>0.9054093633427281</v>
       </c>
       <c r="EP4">
-        <v>0.9075397109402241</v>
+        <v>0.9075706870599751</v>
       </c>
       <c r="EQ4">
-        <v>0.9079643467681483</v>
+        <v>0.9079945502206573</v>
       </c>
       <c r="ER4">
-        <v>0.919945179709581</v>
+        <v>0.9199764651140383</v>
       </c>
       <c r="ES4">
-        <v>0.9219398360998303</v>
+        <v>0.9219706008049062</v>
       </c>
       <c r="ET4">
-        <v>0.9231124354940982</v>
+        <v>0.923142547570347</v>
       </c>
       <c r="EU4">
-        <v>0.9269907189751395</v>
+        <v>0.9270206126496326</v>
       </c>
       <c r="EV4">
-        <v>0.9322782809492917</v>
+        <v>0.9323081823928804</v>
       </c>
       <c r="EW4">
-        <v>0.9323122665211255</v>
+        <v>0.9323413326031919</v>
       </c>
       <c r="EX4">
-        <v>0.9323140924041166</v>
+        <v>0.9323423179634491</v>
       </c>
       <c r="EY4">
-        <v>0.9341462993951599</v>
+        <v>0.9341739781840974</v>
       </c>
       <c r="EZ4">
-        <v>0.9343779784140274</v>
+        <v>0.934404853568667</v>
       </c>
       <c r="FA4">
-        <v>0.9370625229009042</v>
+        <v>0.9370889880742205</v>
       </c>
       <c r="FB4">
-        <v>0.9371572457554411</v>
+        <v>0.9371828853147782</v>
       </c>
       <c r="FC4">
-        <v>0.937957113751531</v>
+        <v>0.937982040863504</v>
       </c>
       <c r="FD4">
-        <v>0.9521191846823009</v>
+        <v>0.9521455438065226</v>
       </c>
       <c r="FE4">
-        <v>0.9521350327552235</v>
+        <v>0.9521605536070903</v>
       </c>
       <c r="FF4">
-        <v>0.9550875912407901</v>
+        <v>0.9551127451240913</v>
       </c>
       <c r="FG4">
-        <v>0.9551839038503193</v>
+        <v>0.9552082323747763</v>
       </c>
       <c r="FH4">
-        <v>0.9552219452521333</v>
+        <v>0.9552454390659758</v>
       </c>
       <c r="FI4">
-        <v>0.9552900033218006</v>
+        <v>0.955312667242313</v>
       </c>
       <c r="FJ4">
-        <v>0.9553090291217076</v>
+        <v>0.955330855279849</v>
       </c>
       <c r="FK4">
-        <v>0.9559744404684548</v>
+        <v>0.9559955326006903</v>
       </c>
       <c r="FL4">
-        <v>0.9570828757630363</v>
+        <v>0.9571033049689419</v>
       </c>
       <c r="FM4">
-        <v>0.9600566329484993</v>
+        <v>0.9600766985879546</v>
       </c>
       <c r="FN4">
-        <v>0.9601306044731377</v>
+        <v>0.9601498411682955</v>
       </c>
       <c r="FO4">
-        <v>0.9603474809620776</v>
+        <v>0.9603659116473241</v>
       </c>
       <c r="FP4">
-        <v>0.9603961537788396</v>
+        <v>0.9604137514596753</v>
       </c>
       <c r="FQ4">
-        <v>0.96109362451543</v>
+        <v>0.9611104933154747</v>
       </c>
       <c r="FR4">
-        <v>0.9626432875078547</v>
+        <v>0.9626595641928708</v>
       </c>
       <c r="FS4">
-        <v>0.9626442126072502</v>
+        <v>0.9626596486249684</v>
       </c>
       <c r="FT4">
-        <v>0.9626446232825082</v>
+        <v>0.9626596486249684</v>
       </c>
       <c r="FU4">
-        <v>0.9627011105822321</v>
+        <v>0.9627153041744043</v>
       </c>
       <c r="FV4">
-        <v>0.9638814877764619</v>
+        <v>0.9638950299880427</v>
       </c>
       <c r="FW4">
-        <v>0.9670866471607937</v>
+        <v>0.9670998629429646</v>
       </c>
       <c r="FX4">
-        <v>0.9674972037787868</v>
+        <v>0.9675096446341857</v>
       </c>
       <c r="FY4">
-        <v>0.9682665053250261</v>
+        <v>0.9682782288275437</v>
       </c>
       <c r="FZ4">
-        <v>0.9683458714996381</v>
+        <v>0.9683567669236293</v>
       </c>
       <c r="GA4">
-        <v>0.9683542467370972</v>
+        <v>0.9683643026894406</v>
       </c>
       <c r="GB4">
-        <v>0.9683981182288828</v>
+        <v>0.9684073404062652</v>
       </c>
       <c r="GC4">
-        <v>0.9691946009249892</v>
+        <v>0.969203110111711</v>
       </c>
       <c r="GD4">
-        <v>0.9694878058635559</v>
+        <v>0.969495521290089</v>
       </c>
       <c r="GE4">
-        <v>0.9695120574124373</v>
+        <v>0.9695189359152641</v>
       </c>
       <c r="GF4">
-        <v>0.9697543422612529</v>
+        <v>0.9697604188318795</v>
       </c>
       <c r="GG4">
-        <v>0.9709506536554048</v>
+        <v>0.9709560814026715</v>
       </c>
       <c r="GH4">
-        <v>0.9725574376475502</v>
+        <v>0.9725622824469652</v>
       </c>
       <c r="GI4">
-        <v>0.9730882603449553</v>
+        <v>0.9730923495187384</v>
       </c>
       <c r="GJ4">
-        <v>0.973094880771523</v>
+        <v>0.9730981301920341</v>
       </c>
       <c r="GK4">
-        <v>0.9732238541908925</v>
+        <v>0.9732262834941942</v>
       </c>
       <c r="GL4">
-        <v>0.97330005019052</v>
+        <v>0.9733016509065234</v>
       </c>
       <c r="GM4">
-        <v>0.9784814148651914</v>
+        <v>0.9784830063070064</v>
       </c>
       <c r="GN4">
-        <v>0.9829776395432119</v>
+        <v>0.9829791117547886</v>
       </c>
       <c r="GO4">
-        <v>0.9858253422292912</v>
+        <v>0.9858264306443114</v>
       </c>
       <c r="GP4">
-        <v>0.9858572644691351</v>
+        <v>0.9858575171914951</v>
       </c>
       <c r="GQ4">
-        <v>0.9915677731412198</v>
+        <v>0.9915681015101141</v>
       </c>
       <c r="GR4">
-        <v>0.996707024316097</v>
+        <v>0.9967073366521344</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.234079390064972E-05</v>
+        <v>3.503054990313031E-05</v>
       </c>
       <c r="C5">
-        <v>4.296638163440676E-05</v>
+        <v>3.503054990313031E-05</v>
       </c>
       <c r="D5">
-        <v>4.645221554389942E-05</v>
+        <v>3.503054990313031E-05</v>
       </c>
       <c r="E5">
-        <v>0.0001301673333702926</v>
+        <v>0.0001114847325856623</v>
       </c>
       <c r="F5">
-        <v>0.0001547214557327613</v>
+        <v>0.0001287074132535684</v>
       </c>
       <c r="G5">
-        <v>0.000159183051016919</v>
+        <v>0.0001287074132535684</v>
       </c>
       <c r="H5">
-        <v>0.0001595892030563735</v>
+        <v>0.0001287074132535684</v>
       </c>
       <c r="I5">
-        <v>0.0001784304455671733</v>
+        <v>0.0001402104056067338</v>
       </c>
       <c r="J5">
-        <v>0.0002067748758312292</v>
+        <v>0.0001612279113675648</v>
       </c>
       <c r="K5">
-        <v>0.0002234118673992609</v>
+        <v>0.000170524025808459</v>
       </c>
       <c r="L5">
-        <v>0.000223413366436422</v>
+        <v>0.000170524025808459</v>
       </c>
       <c r="M5">
-        <v>0.0002378754795609229</v>
+        <v>0.0001776426698417075</v>
       </c>
       <c r="N5">
-        <v>0.0002382077845322949</v>
+        <v>0.0001776426698417075</v>
       </c>
       <c r="O5">
-        <v>0.0002455597273414066</v>
+        <v>0.0001776426698417075</v>
       </c>
       <c r="P5">
-        <v>0.0002599005639690564</v>
+        <v>0.0001846398928438994</v>
       </c>
       <c r="Q5">
-        <v>0.000286944955266867</v>
+        <v>0.0002043558102855276</v>
       </c>
       <c r="R5">
-        <v>0.0002921490721317456</v>
+        <v>0.0002043558102855276</v>
       </c>
       <c r="S5">
-        <v>0.0002988495819577713</v>
+        <v>0.0002043558102855276</v>
       </c>
       <c r="T5">
-        <v>0.0003403864478792945</v>
+        <v>0.000238581474108871</v>
       </c>
       <c r="U5">
-        <v>0.0003535872395365448</v>
+        <v>0.0002444372934644296</v>
       </c>
       <c r="V5">
-        <v>0.0003666766231966877</v>
+        <v>0.0002501815720496992</v>
       </c>
       <c r="W5">
-        <v>0.0004080156821233469</v>
+        <v>0.0002842091931368966</v>
       </c>
       <c r="X5">
-        <v>0.0004224731207479692</v>
+        <v>0.0002913231570993179</v>
       </c>
       <c r="Y5">
-        <v>0.0004340565474472133</v>
+        <v>0.0002955596839629685</v>
       </c>
       <c r="Z5">
-        <v>0.000434864935326224</v>
+        <v>0.0002955596839629685</v>
       </c>
       <c r="AA5">
-        <v>0.000435374903912983</v>
+        <v>0.0002955596839629685</v>
       </c>
       <c r="AB5">
-        <v>0.0004375286764570618</v>
+        <v>0.0002955596839629685</v>
       </c>
       <c r="AC5">
-        <v>0.0004385420253307508</v>
+        <v>0.0002955596839629685</v>
       </c>
       <c r="AD5">
-        <v>0.000455058910901901</v>
+        <v>0.0003047355492677475</v>
       </c>
       <c r="AE5">
-        <v>0.0004587780040053373</v>
+        <v>0.0003047355492677475</v>
       </c>
       <c r="AF5">
-        <v>0.0004604642859615541</v>
+        <v>0.0003047355492677475</v>
       </c>
       <c r="AG5">
-        <v>0.0005389227739244321</v>
+        <v>0.0003759268373706775</v>
       </c>
       <c r="AH5">
-        <v>0.0005544557115211298</v>
+        <v>0.0003841175820571497</v>
       </c>
       <c r="AI5">
-        <v>0.0005544604492160068</v>
+        <v>0.0003841175820571497</v>
       </c>
       <c r="AJ5">
-        <v>0.0006110259977473204</v>
+        <v>0.0004333898392871538</v>
       </c>
       <c r="AK5">
-        <v>0.0006208034424934556</v>
+        <v>0.0004358182318749169</v>
       </c>
       <c r="AL5">
-        <v>0.0006260075593583342</v>
+        <v>0.0004358182318749169</v>
       </c>
       <c r="AM5">
-        <v>0.0006510206007088873</v>
+        <v>0.0004535003784587381</v>
       </c>
       <c r="AN5">
-        <v>0.0006517482298199949</v>
+        <v>0.0004535003784587381</v>
       </c>
       <c r="AO5">
-        <v>0.0006726376672776147</v>
+        <v>0.0004670540067447098</v>
       </c>
       <c r="AP5">
-        <v>0.0007108836722845829</v>
+        <v>0.0004979848876902164</v>
       </c>
       <c r="AQ5">
-        <v>0.0007133165172214157</v>
+        <v>0.0004979848876902164</v>
       </c>
       <c r="AR5">
-        <v>0.0007851076253574078</v>
+        <v>0.0005625008499547013</v>
       </c>
       <c r="AS5">
-        <v>0.0007926271477621685</v>
+        <v>0.0005626686292673963</v>
       </c>
       <c r="AT5">
-        <v>0.0007931601929483283</v>
+        <v>0.0005626686292673963</v>
       </c>
       <c r="AU5">
-        <v>0.0008021803857141251</v>
+        <v>0.0005643388674014139</v>
       </c>
       <c r="AV5">
-        <v>0.0008184434962918643</v>
+        <v>0.0005732606552702808</v>
       </c>
       <c r="AW5">
-        <v>0.0008191700773229992</v>
+        <v>0.0005732606552702808</v>
       </c>
       <c r="AX5">
-        <v>0.0008199510735327211</v>
+        <v>0.0005732606552702808</v>
       </c>
       <c r="AY5">
-        <v>0.0008236087921377509</v>
+        <v>0.0005732606552702808</v>
       </c>
       <c r="AZ5">
-        <v>0.0009207441556156964</v>
+        <v>0.0006631510775074939</v>
       </c>
       <c r="BA5">
-        <v>0.0009207612908632514</v>
+        <v>0.0006631510775074939</v>
       </c>
       <c r="BB5">
-        <v>0.0009353404959847122</v>
+        <v>0.0006703869530849284</v>
       </c>
       <c r="BC5">
-        <v>0.0009566533854313374</v>
+        <v>0.0006843645380190799</v>
       </c>
       <c r="BD5">
-        <v>0.0009838578117249927</v>
+        <v>0.0007042406811821393</v>
       </c>
       <c r="BE5">
-        <v>0.001003236349221842</v>
+        <v>0.0007162816088556805</v>
       </c>
       <c r="BF5">
-        <v>0.001006329993341518</v>
+        <v>0.0007162816088556805</v>
       </c>
       <c r="BG5">
-        <v>0.001042877392392589</v>
+        <v>0.0007455118594904597</v>
       </c>
       <c r="BH5">
-        <v>0.001043082539827262</v>
+        <v>0.0007455118594904597</v>
       </c>
       <c r="BI5">
-        <v>0.001043758690309707</v>
+        <v>0.0007455118594904597</v>
       </c>
       <c r="BJ5">
-        <v>0.001044408818192827</v>
+        <v>0.0007455118594904597</v>
       </c>
       <c r="BK5">
-        <v>0.001044834789321766</v>
+        <v>0.0007455118594904597</v>
       </c>
       <c r="BL5">
-        <v>0.001044856182981211</v>
+        <v>0.0007455118594904597</v>
       </c>
       <c r="BM5">
-        <v>0.001045345303308511</v>
+        <v>0.0007455118594904597</v>
       </c>
       <c r="BN5">
-        <v>0.001047776230945394</v>
+        <v>0.0007455118594904597</v>
       </c>
       <c r="BO5">
-        <v>0.001071127346339098</v>
+        <v>0.0007615300994768793</v>
       </c>
       <c r="BP5">
-        <v>0.001086179641948275</v>
+        <v>0.0007692396293590892</v>
       </c>
       <c r="BQ5">
-        <v>0.001089665475857768</v>
+        <v>0.0007692396293590892</v>
       </c>
       <c r="BR5">
-        <v>0.001095597177403755</v>
+        <v>0.0007692396293590892</v>
       </c>
       <c r="BS5">
-        <v>0.0010969434566688</v>
+        <v>0.0007692396293590892</v>
       </c>
       <c r="BT5">
-        <v>0.001098668262124017</v>
+        <v>0.0007692396293590892</v>
       </c>
       <c r="BU5">
-        <v>0.001099942790090924</v>
+        <v>0.0007692396293590892</v>
       </c>
       <c r="BV5">
-        <v>0.001100121046276296</v>
+        <v>0.0007692396293590892</v>
       </c>
       <c r="BW5">
-        <v>0.001111492108981054</v>
+        <v>0.0007732635391383146</v>
       </c>
       <c r="BX5">
-        <v>0.001111523435786241</v>
+        <v>0.0007732635391383146</v>
       </c>
       <c r="BY5">
-        <v>0.001117014604043666</v>
+        <v>0.0007732635391383146</v>
       </c>
       <c r="BZ5">
-        <v>0.001127571827769555</v>
+        <v>0.0007764726400263361</v>
       </c>
       <c r="CA5">
-        <v>0.001134840688880824</v>
+        <v>0.0007764726400263361</v>
       </c>
       <c r="CB5">
-        <v>0.001142112865092007</v>
+        <v>0.0007764726400263361</v>
       </c>
       <c r="CC5">
-        <v>0.001146011859190772</v>
+        <v>0.0007764726400263361</v>
       </c>
       <c r="CD5">
-        <v>0.001146131149107675</v>
+        <v>0.0007764726400263361</v>
       </c>
       <c r="CE5">
-        <v>0.001150211810301723</v>
+        <v>0.0007764726400263361</v>
       </c>
       <c r="CF5">
-        <v>0.001150525948543567</v>
+        <v>0.0007764726400263361</v>
       </c>
       <c r="CG5">
-        <v>0.001156457650089554</v>
+        <v>0.0007764726400263361</v>
       </c>
       <c r="CH5">
-        <v>0.001156522071647881</v>
+        <v>0.0007764726400263361</v>
       </c>
       <c r="CI5">
-        <v>0.001162379170495806</v>
+        <v>0.0007764726400263361</v>
       </c>
       <c r="CJ5">
-        <v>0.001234180704631527</v>
+        <v>0.0008409990407159883</v>
       </c>
       <c r="CK5">
-        <v>0.001234181221683614</v>
+        <v>0.0008409990407159883</v>
       </c>
       <c r="CL5">
-        <v>0.001256936306092793</v>
+        <v>0.0008564205393835068</v>
       </c>
       <c r="CM5">
-        <v>0.001294425955119399</v>
+        <v>0.0008865941629430743</v>
       </c>
       <c r="CN5">
-        <v>0.009915975731266648</v>
+        <v>0.009511058175400149</v>
       </c>
       <c r="CO5">
-        <v>0.1067747872163927</v>
+        <v>0.1064779427927883</v>
       </c>
       <c r="CP5">
-        <v>0.2781515827667093</v>
+        <v>0.2780516200895637</v>
       </c>
       <c r="CQ5">
-        <v>0.3522262808434095</v>
+        <v>0.3522072377789712</v>
       </c>
       <c r="CR5">
-        <v>0.3629798295642008</v>
+        <v>0.3629662415975049</v>
       </c>
       <c r="CS5">
-        <v>0.3697526583883488</v>
+        <v>0.369739781399946</v>
       </c>
       <c r="CT5">
-        <v>0.3697811600906088</v>
+        <v>0.3697609563651355</v>
       </c>
       <c r="CU5">
-        <v>0.3702072482195457</v>
+        <v>0.3701801915902653</v>
       </c>
       <c r="CV5">
-        <v>0.3706788663073005</v>
+        <v>0.3706450110356453</v>
       </c>
       <c r="CW5">
-        <v>0.3994991285590017</v>
+        <v>0.3994922598289665</v>
       </c>
       <c r="CX5">
-        <v>0.4052444969098271</v>
+        <v>0.4052371146571551</v>
       </c>
       <c r="CY5">
-        <v>0.4822322549108917</v>
+        <v>0.4823092639807189</v>
       </c>
       <c r="CZ5">
-        <v>0.490680639691535</v>
+        <v>0.4907603566240903</v>
       </c>
       <c r="DA5">
-        <v>0.4909250181451899</v>
+        <v>0.4909976656170271</v>
       </c>
       <c r="DB5">
-        <v>0.5026990618394848</v>
+        <v>0.502778380608691</v>
       </c>
       <c r="DC5">
-        <v>0.5253535762512755</v>
+        <v>0.525452533382625</v>
       </c>
       <c r="DD5">
-        <v>0.5782076748789544</v>
+        <v>0.5783622614591247</v>
       </c>
       <c r="DE5">
-        <v>0.5940392384678985</v>
+        <v>0.5942053319931466</v>
       </c>
       <c r="DF5">
-        <v>0.5959317483187607</v>
+        <v>0.5960927365838423</v>
       </c>
       <c r="DG5">
-        <v>0.6355706802895624</v>
+        <v>0.6357715485082002</v>
       </c>
       <c r="DH5">
-        <v>0.641496791835695</v>
+        <v>0.6416973619367811</v>
       </c>
       <c r="DI5">
-        <v>0.6618099573082773</v>
+        <v>0.6620273754121424</v>
       </c>
       <c r="DJ5">
-        <v>0.7002227163109158</v>
+        <v>0.7004785530469737</v>
       </c>
       <c r="DK5">
-        <v>0.7414495152404896</v>
+        <v>0.7417471243090495</v>
       </c>
       <c r="DL5">
-        <v>0.7438014063794244</v>
+        <v>0.7440944576666054</v>
       </c>
       <c r="DM5">
-        <v>0.7587336659917183</v>
+        <v>0.7590371524566594</v>
       </c>
       <c r="DN5">
-        <v>0.7717562986535944</v>
+        <v>0.7720679444520785</v>
       </c>
       <c r="DO5">
-        <v>0.7727085380688702</v>
+        <v>0.7730139580170993</v>
       </c>
       <c r="DP5">
-        <v>0.7908081935989247</v>
+        <v>0.7911278235457924</v>
       </c>
       <c r="DQ5">
-        <v>0.7920304354671901</v>
+        <v>0.7923441613457722</v>
       </c>
       <c r="DR5">
-        <v>0.7921757199534178</v>
+        <v>0.7924822582736437</v>
       </c>
       <c r="DS5">
-        <v>0.7983987807918402</v>
+        <v>0.7987053748910331</v>
       </c>
       <c r="DT5">
-        <v>0.8027117638798565</v>
+        <v>0.8030161373765475</v>
       </c>
       <c r="DU5">
-        <v>0.8047918970258473</v>
+        <v>0.8050913888669826</v>
       </c>
       <c r="DV5">
-        <v>0.8054087381398315</v>
+        <v>0.8057016044116544</v>
       </c>
       <c r="DW5">
-        <v>0.8156709403733803</v>
+        <v>0.8159686761688567</v>
       </c>
       <c r="DX5">
-        <v>0.8203044777530736</v>
+        <v>0.8206003749743971</v>
       </c>
       <c r="DY5">
-        <v>0.8409917802159417</v>
+        <v>0.8413049713268733</v>
       </c>
       <c r="DZ5">
-        <v>0.8411348362122273</v>
+        <v>0.8414408371089457</v>
       </c>
       <c r="EA5">
-        <v>0.8411358176463019</v>
+        <v>0.8414408371089457</v>
       </c>
       <c r="EB5">
-        <v>0.8612874361230786</v>
+        <v>0.8616091110609525</v>
       </c>
       <c r="EC5">
-        <v>0.8679320089505567</v>
+        <v>0.8682542420145302</v>
       </c>
       <c r="ED5">
-        <v>0.8681861086439592</v>
+        <v>0.8685012838327377</v>
       </c>
       <c r="EE5">
-        <v>0.8731603555148062</v>
+        <v>0.8734740981782284</v>
       </c>
       <c r="EF5">
-        <v>0.8746970780749063</v>
+        <v>0.875005291460032</v>
       </c>
       <c r="EG5">
-        <v>0.8764777203286731</v>
+        <v>0.8767806951327112</v>
       </c>
       <c r="EH5">
-        <v>0.8776311737987245</v>
+        <v>0.8779281625542357</v>
       </c>
       <c r="EI5">
-        <v>0.877663931264874</v>
+        <v>0.8779535983552245</v>
       </c>
       <c r="EJ5">
-        <v>0.8778579152898373</v>
+        <v>0.8781404528606875</v>
       </c>
       <c r="EK5">
-        <v>0.8782365390000065</v>
+        <v>0.878512167100178</v>
       </c>
       <c r="EL5">
-        <v>0.8793702076705716</v>
+        <v>0.8796398261432018</v>
       </c>
       <c r="EM5">
-        <v>0.8871733274679688</v>
+        <v>0.8874448847931389</v>
       </c>
       <c r="EN5">
-        <v>0.8982705311798374</v>
+        <v>0.8985479531619174</v>
       </c>
       <c r="EO5">
-        <v>0.8993815526509904</v>
+        <v>0.8996529380151802</v>
       </c>
       <c r="EP5">
-        <v>0.9010966288064596</v>
+        <v>0.9013626974495744</v>
       </c>
       <c r="EQ5">
-        <v>0.9030052138569045</v>
+        <v>0.9032661963978615</v>
       </c>
       <c r="ER5">
-        <v>0.9090502850999482</v>
+        <v>0.9093111112964567</v>
       </c>
       <c r="ES5">
-        <v>0.9183169908593445</v>
+        <v>0.9185815001724476</v>
       </c>
       <c r="ET5">
-        <v>0.9185347738536899</v>
+        <v>0.9187921820102914</v>
       </c>
       <c r="EU5">
-        <v>0.9185544184271798</v>
+        <v>0.9188044892910129</v>
       </c>
       <c r="EV5">
-        <v>0.9254850456472307</v>
+        <v>0.925736015549421</v>
       </c>
       <c r="EW5">
-        <v>0.9285673255672013</v>
+        <v>0.9288146081465509</v>
       </c>
       <c r="EX5">
-        <v>0.9289902228562211</v>
+        <v>0.9292306487290029</v>
       </c>
       <c r="EY5">
-        <v>0.9292876628484983</v>
+        <v>0.9295210824979371</v>
       </c>
       <c r="EZ5">
-        <v>0.9338317783305133</v>
+        <v>0.9340632528350846</v>
       </c>
       <c r="FA5">
-        <v>0.9350051033000487</v>
+        <v>0.9352306154384346</v>
       </c>
       <c r="FB5">
-        <v>0.9357762875800254</v>
+        <v>0.9359953580913091</v>
       </c>
       <c r="FC5">
-        <v>0.9375349549343628</v>
+        <v>0.9377487606754397</v>
       </c>
       <c r="FD5">
-        <v>0.9490239976360575</v>
+        <v>0.9492441350176606</v>
       </c>
       <c r="FE5">
-        <v>0.9567540018353531</v>
+        <v>0.9569759909322093</v>
       </c>
       <c r="FF5">
-        <v>0.958428648091872</v>
+        <v>0.958645272284341</v>
       </c>
       <c r="FG5">
-        <v>0.9587762683328462</v>
+        <v>0.9589859461055004</v>
       </c>
       <c r="FH5">
-        <v>0.9594389266156408</v>
+        <v>0.9596420334227044</v>
       </c>
       <c r="FI5">
-        <v>0.9596964666389539</v>
+        <v>0.9598925196709192</v>
       </c>
       <c r="FJ5">
-        <v>0.9598749387343201</v>
+        <v>0.9600638437600667</v>
       </c>
       <c r="FK5">
-        <v>0.9598802839921813</v>
+        <v>0.9600638437600667</v>
       </c>
       <c r="FL5">
-        <v>0.9600237077484574</v>
+        <v>0.9602000777404165</v>
       </c>
       <c r="FM5">
-        <v>0.9624205776862242</v>
+        <v>0.9625924435013785</v>
       </c>
       <c r="FN5">
-        <v>0.9628222876857941</v>
+        <v>0.9629872715439146</v>
       </c>
       <c r="FO5">
-        <v>0.9637537805616085</v>
+        <v>0.9639125138442826</v>
       </c>
       <c r="FP5">
-        <v>0.9637903279606597</v>
+        <v>0.9639417440949173</v>
       </c>
       <c r="FQ5">
-        <v>0.9637917086846238</v>
+        <v>0.9639417440949173</v>
       </c>
       <c r="FR5">
-        <v>0.9666528477103363</v>
+        <v>0.9667989322477667</v>
       </c>
       <c r="FS5">
-        <v>0.9675045358382228</v>
+        <v>0.9676442746909636</v>
       </c>
       <c r="FT5">
-        <v>0.9676862905035036</v>
+        <v>0.9678188852621082</v>
       </c>
       <c r="FU5">
-        <v>0.9677867980808941</v>
+        <v>0.9679121519171756</v>
       </c>
       <c r="FV5">
-        <v>0.9687080406969746</v>
+        <v>0.9688271317418142</v>
       </c>
       <c r="FW5">
-        <v>0.9692792067321446</v>
+        <v>0.9693916177732894</v>
       </c>
       <c r="FX5">
-        <v>0.9696889629815055</v>
+        <v>0.9697945016549299</v>
       </c>
       <c r="FY5">
-        <v>0.9701355899999091</v>
+        <v>0.9702343002472459</v>
       </c>
       <c r="FZ5">
-        <v>0.9710661827757469</v>
+        <v>0.9711586413749212</v>
       </c>
       <c r="GA5">
-        <v>0.9710713868926117</v>
+        <v>0.9711586413749212</v>
       </c>
       <c r="GB5">
-        <v>0.9713249969860269</v>
+        <v>0.9714051930096488</v>
       </c>
       <c r="GC5">
-        <v>0.9716534110774999</v>
+        <v>0.9717266377919125</v>
       </c>
       <c r="GD5">
-        <v>0.9716666118691571</v>
+        <v>0.971732493611268</v>
       </c>
       <c r="GE5">
-        <v>0.9716702695877621</v>
+        <v>0.971732493611268</v>
       </c>
       <c r="GF5">
-        <v>0.9716705667395544</v>
+        <v>0.971732493611268</v>
       </c>
       <c r="GG5">
-        <v>0.9724230920700156</v>
+        <v>0.9724785550773716</v>
       </c>
       <c r="GH5">
-        <v>0.9740378743280889</v>
+        <v>0.9740879010866861</v>
       </c>
       <c r="GI5">
-        <v>0.9755374820891526</v>
+        <v>0.9755819353369918</v>
       </c>
       <c r="GJ5">
-        <v>0.9758328060414847</v>
+        <v>0.975870250544139</v>
       </c>
       <c r="GK5">
-        <v>0.9759392519747209</v>
+        <v>0.9759694626322317</v>
       </c>
       <c r="GL5">
-        <v>0.9761841110183632</v>
+        <v>0.9762072527879108</v>
       </c>
       <c r="GM5">
-        <v>0.9788467179492304</v>
+        <v>0.9788656722404775</v>
       </c>
       <c r="GN5">
-        <v>0.9836705031239841</v>
+        <v>0.9836878455735005</v>
       </c>
       <c r="GO5">
-        <v>0.9849902696897173</v>
+        <v>0.9850018242983709</v>
       </c>
       <c r="GP5">
-        <v>0.9856078741736816</v>
+        <v>0.9856128041227876</v>
       </c>
       <c r="GQ5">
-        <v>0.9879330185133107</v>
+        <v>0.9879333588048914</v>
       </c>
       <c r="GR5">
-        <v>0.9961291203005045</v>
+        <v>0.9961318677904392</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>6.331997936400308E-05</v>
+        <v>5.643737726135593E-05</v>
       </c>
       <c r="C6">
-        <v>7.728800322370582E-05</v>
+        <v>6.346649126712849E-05</v>
       </c>
       <c r="D6">
-        <v>7.792730926728451E-05</v>
+        <v>6.346649126712849E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001196618688480953</v>
+        <v>9.829382101907396E-05</v>
       </c>
       <c r="F6">
-        <v>0.0001225532366190539</v>
+        <v>9.829382101907396E-05</v>
       </c>
       <c r="G6">
-        <v>0.0001336273750078234</v>
+        <v>0.0001024257477965325</v>
       </c>
       <c r="H6">
-        <v>0.0001405742955380473</v>
+        <v>0.0001024257477965325</v>
       </c>
       <c r="I6">
-        <v>0.0001482684564607658</v>
+        <v>0.0001031738407474666</v>
       </c>
       <c r="J6">
-        <v>0.0001544205227989734</v>
+        <v>0.0001031738407474666</v>
       </c>
       <c r="K6">
-        <v>0.0001887132494545312</v>
+        <v>0.0001305508468695221</v>
       </c>
       <c r="L6">
-        <v>0.0001904989004365958</v>
+        <v>0.0001305508468695221</v>
       </c>
       <c r="M6">
-        <v>0.0001909702832618612</v>
+        <v>0.0001305508468695221</v>
       </c>
       <c r="N6">
-        <v>0.0001913496809580504</v>
+        <v>0.0001305508468695221</v>
       </c>
       <c r="O6">
-        <v>0.0001920349576511674</v>
+        <v>0.0001305508468695221</v>
       </c>
       <c r="P6">
-        <v>0.0002032979015380404</v>
+        <v>0.0001348717945613311</v>
       </c>
       <c r="Q6">
-        <v>0.000210096712469752</v>
+        <v>0.0001348717945613311</v>
       </c>
       <c r="R6">
-        <v>0.0002174040807963555</v>
+        <v>0.0001352326536079775</v>
       </c>
       <c r="S6">
-        <v>0.0002176430410939553</v>
+        <v>0.0001352326536079775</v>
       </c>
       <c r="T6">
-        <v>0.0002351937259176732</v>
+        <v>0.0001458485161884876</v>
       </c>
       <c r="U6">
-        <v>0.0002577677356909359</v>
+        <v>0.0001614934350442618</v>
       </c>
       <c r="V6">
-        <v>0.0002712937905550779</v>
+        <v>0.0001680800757931931</v>
       </c>
       <c r="W6">
-        <v>0.0002714458646735504</v>
+        <v>0.0001680800757931931</v>
       </c>
       <c r="X6">
-        <v>0.0002821268585662686</v>
+        <v>0.0001718184095192742</v>
       </c>
       <c r="Y6">
-        <v>0.0003264553821210252</v>
+        <v>0.0002092426628093163</v>
       </c>
       <c r="Z6">
-        <v>0.000368007651703667</v>
+        <v>0.0002438874945806577</v>
       </c>
       <c r="AA6">
-        <v>0.0003950807654317399</v>
+        <v>0.0002640366506108662</v>
       </c>
       <c r="AB6">
-        <v>0.0004211347891700488</v>
+        <v>0.0002831655539280691</v>
       </c>
       <c r="AC6">
-        <v>0.0004636025047434957</v>
+        <v>0.0003187268761615975</v>
       </c>
       <c r="AD6">
-        <v>0.000475420068624798</v>
+        <v>0.0003236030766374463</v>
       </c>
       <c r="AE6">
-        <v>0.0004877281595011734</v>
+        <v>0.0003289703637715417</v>
       </c>
       <c r="AF6">
-        <v>0.0004977726864002844</v>
+        <v>0.0003320715043316723</v>
       </c>
       <c r="AG6">
-        <v>0.0005275560891011348</v>
+        <v>0.0003549340416189623</v>
       </c>
       <c r="AH6">
-        <v>0.0005303996228725738</v>
+        <v>0.0003549340416189623</v>
       </c>
       <c r="AI6">
-        <v>0.0005306089109004717</v>
+        <v>0.0003549340416189623</v>
       </c>
       <c r="AJ6">
-        <v>0.0005445537197604077</v>
+        <v>0.0003619399141379845</v>
       </c>
       <c r="AK6">
-        <v>0.0005445963014559799</v>
+        <v>0.0003619399141379845</v>
       </c>
       <c r="AL6">
-        <v>0.000544818711983746</v>
+        <v>0.0003619399141379845</v>
       </c>
       <c r="AM6">
-        <v>0.0005450716804812052</v>
+        <v>0.0003619399141379845</v>
       </c>
       <c r="AN6">
-        <v>0.0005507430654242408</v>
+        <v>0.0003619399141379845</v>
       </c>
       <c r="AO6">
-        <v>0.0005588516803427965</v>
+        <v>0.0003631029339529992</v>
       </c>
       <c r="AP6">
-        <v>0.0005590385975009191</v>
+        <v>0.0003631029339529992</v>
       </c>
       <c r="AQ6">
-        <v>0.0005596779035444978</v>
+        <v>0.0003631029339529992</v>
       </c>
       <c r="AR6">
-        <v>0.0006129191330097336</v>
+        <v>0.0004094500620398906</v>
       </c>
       <c r="AS6">
-        <v>0.0006151441462873852</v>
+        <v>0.0004094500620398906</v>
       </c>
       <c r="AT6">
-        <v>0.0006164727922740401</v>
+        <v>0.0004094500620398906</v>
       </c>
       <c r="AU6">
-        <v>0.0006408559620291312</v>
+        <v>0.0004269062050252913</v>
       </c>
       <c r="AV6">
-        <v>0.0006494543899427671</v>
+        <v>0.0004285595966839268</v>
       </c>
       <c r="AW6">
-        <v>0.000655398056483068</v>
+        <v>0.0004285595966839268</v>
       </c>
       <c r="AX6">
-        <v>0.0006558314483287149</v>
+        <v>0.0004285595966839268</v>
       </c>
       <c r="AY6">
-        <v>0.0006570330426166459</v>
+        <v>0.0004285595966839268</v>
       </c>
       <c r="AZ6">
-        <v>0.0006663931205226316</v>
+        <v>0.0004309755073338787</v>
       </c>
       <c r="BA6">
-        <v>0.0006670274672162601</v>
+        <v>0.0004309755073338787</v>
       </c>
       <c r="BB6">
-        <v>0.0006772518471135646</v>
+        <v>0.0004342567060941606</v>
       </c>
       <c r="BC6">
-        <v>0.0006836716095490835</v>
+        <v>0.0004342567060941606</v>
       </c>
       <c r="BD6">
-        <v>0.0006860587486251066</v>
+        <v>0.0004342567060941606</v>
       </c>
       <c r="BE6">
-        <v>0.0006966476215187501</v>
+        <v>0.0004379028137163895</v>
       </c>
       <c r="BF6">
-        <v>0.0007084651854000524</v>
+        <v>0.0004427790141922383</v>
       </c>
       <c r="BG6">
-        <v>0.0007109404117751908</v>
+        <v>0.0004427790141922383</v>
       </c>
       <c r="BH6">
-        <v>0.000716597006718375</v>
+        <v>0.0004427790141922383</v>
       </c>
       <c r="BI6">
-        <v>0.0007315073555686129</v>
+        <v>0.0004507515283273253</v>
       </c>
       <c r="BJ6">
-        <v>0.0007316486133071941</v>
+        <v>0.0004507515283273253</v>
       </c>
       <c r="BK6">
-        <v>0.0007371054504523846</v>
+        <v>0.0004507515283273253</v>
       </c>
       <c r="BL6">
-        <v>0.0007635938321863307</v>
+        <v>0.0004703152852177314</v>
       </c>
       <c r="BM6">
-        <v>0.0007699422211225664</v>
+        <v>0.0004703152852177314</v>
       </c>
       <c r="BN6">
-        <v>0.000794855508872333</v>
+        <v>0.0004883021510320414</v>
       </c>
       <c r="BO6">
-        <v>0.0007969559084512362</v>
+        <v>0.0004883021510320414</v>
       </c>
       <c r="BP6">
-        <v>0.0007982132523386072</v>
+        <v>0.0004883021510320414</v>
       </c>
       <c r="BQ6">
-        <v>0.0008062240292581456</v>
+        <v>0.0004893672212204922</v>
       </c>
       <c r="BR6">
-        <v>0.0008097735446224937</v>
+        <v>0.0004893672212204922</v>
       </c>
       <c r="BS6">
-        <v>0.0008110308885098647</v>
+        <v>0.0004893672212204922</v>
       </c>
       <c r="BT6">
-        <v>0.0008212751504069695</v>
+        <v>0.0004926683246647961</v>
       </c>
       <c r="BU6">
-        <v>0.0008233755499858728</v>
+        <v>0.0004926683246647961</v>
       </c>
       <c r="BV6">
-        <v>0.0008368206878508275</v>
+        <v>0.000499173956092884</v>
       </c>
       <c r="BW6">
-        <v>0.0008461807657568132</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="BX6">
-        <v>0.0008461819052666017</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="BY6">
-        <v>0.0008465613029627909</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="BZ6">
-        <v>0.0008470134907882491</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="CA6">
-        <v>0.0008506821379514006</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="CB6">
-        <v>0.0008514586576436011</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="CC6">
-        <v>0.000852475368133389</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="CD6">
-        <v>0.0008529819051783013</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="CE6">
-        <v>0.0008536907656211814</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="CF6">
-        <v>0.0008542383099156818</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="CG6">
-        <v>0.0008592430095654137</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="CH6">
-        <v>0.0008616397602413402</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="CI6">
-        <v>0.0008616622173231147</v>
+        <v>0.0005015898667428359</v>
       </c>
       <c r="CJ6">
-        <v>0.0008841022130977235</v>
+        <v>0.0005171006186976683</v>
       </c>
       <c r="CK6">
-        <v>0.0008920332370180629</v>
+        <v>0.0005180858448933214</v>
       </c>
       <c r="CL6">
-        <v>0.0008929723056086308</v>
+        <v>0.0005180858448933214</v>
       </c>
       <c r="CM6">
-        <v>0.0009999781045338459</v>
+        <v>0.0006182588847309697</v>
       </c>
       <c r="CN6">
-        <v>0.1571840765357935</v>
+        <v>0.1569735995698</v>
       </c>
       <c r="CO6">
-        <v>0.2165545759394659</v>
+        <v>0.2164048824622914</v>
       </c>
       <c r="CP6">
-        <v>0.3718221543799312</v>
+        <v>0.3718426574598119</v>
       </c>
       <c r="CQ6">
-        <v>0.3816464392812544</v>
+        <v>0.3816711964602936</v>
       </c>
       <c r="CR6">
-        <v>0.40319269506484</v>
+        <v>0.4032350804396514</v>
       </c>
       <c r="CS6">
-        <v>0.4034356656723996</v>
+        <v>0.4034713734161736</v>
       </c>
       <c r="CT6">
-        <v>0.4070345407362518</v>
+        <v>0.4070673997435382</v>
       </c>
       <c r="CU6">
-        <v>0.4088366776181508</v>
+        <v>0.4088646379137129</v>
       </c>
       <c r="CV6">
-        <v>0.425613051449646</v>
+        <v>0.4256531977791883</v>
       </c>
       <c r="CW6">
-        <v>0.4260201971455566</v>
+        <v>0.426053853158423</v>
       </c>
       <c r="CX6">
-        <v>0.4888765265142166</v>
+        <v>0.4889749431480073</v>
       </c>
       <c r="CY6">
-        <v>0.4977745724248431</v>
+        <v>0.4978761863722165</v>
       </c>
       <c r="CZ6">
-        <v>0.4979972886726061</v>
+        <v>0.498092201879879</v>
       </c>
       <c r="DA6">
-        <v>0.5139827385120455</v>
+        <v>0.5140889353543768</v>
       </c>
       <c r="DB6">
-        <v>0.5211677294398781</v>
+        <v>0.5212751690982871</v>
       </c>
       <c r="DC6">
-        <v>0.5979949046682126</v>
+        <v>0.5981830448815532</v>
       </c>
       <c r="DD6">
-        <v>0.6040593986072997</v>
+        <v>0.6042475032139055</v>
       </c>
       <c r="DE6">
-        <v>0.6168862674784644</v>
+        <v>0.6170820519603637</v>
       </c>
       <c r="DF6">
-        <v>0.6594352620510949</v>
+        <v>0.6596726376493823</v>
       </c>
       <c r="DG6">
-        <v>0.6599463475459615</v>
+        <v>0.6601773514169236</v>
       </c>
       <c r="DH6">
-        <v>0.689515075248968</v>
+        <v>0.6897728604961365</v>
       </c>
       <c r="DI6">
-        <v>0.7155018149879527</v>
+        <v>0.7157822947684596</v>
       </c>
       <c r="DJ6">
-        <v>0.7551309905899104</v>
+        <v>0.7554497301407885</v>
       </c>
       <c r="DK6">
-        <v>0.7551746110294723</v>
+        <v>0.7554864455022025</v>
       </c>
       <c r="DL6">
-        <v>0.7674477169061991</v>
+        <v>0.7677665994424001</v>
       </c>
       <c r="DM6">
-        <v>0.7750406048299348</v>
+        <v>0.7753611955692961</v>
       </c>
       <c r="DN6">
-        <v>0.7752181484481515</v>
+        <v>0.7755319869080323</v>
       </c>
       <c r="DO6">
-        <v>0.7916821392827843</v>
+        <v>0.7920078073655585</v>
       </c>
       <c r="DP6">
-        <v>0.7932267790672697</v>
+        <v>0.7935472546488969</v>
       </c>
       <c r="DQ6">
-        <v>0.7932652934428829</v>
+        <v>0.7935788581206359</v>
       </c>
       <c r="DR6">
-        <v>0.7972738164026206</v>
+        <v>0.7975849997286452</v>
       </c>
       <c r="DS6">
-        <v>0.8023827260513059</v>
+        <v>0.8026927835037154</v>
       </c>
       <c r="DT6">
-        <v>0.8033052059420404</v>
+        <v>0.8036093610445401</v>
       </c>
       <c r="DU6">
-        <v>0.8038922196361443</v>
+        <v>0.8041900896410401</v>
       </c>
       <c r="DV6">
-        <v>0.8084038650908286</v>
+        <v>0.8086999277779124</v>
       </c>
       <c r="DW6">
-        <v>0.8238545619356391</v>
+        <v>0.8241612981352785</v>
       </c>
       <c r="DX6">
-        <v>0.8385587997879472</v>
+        <v>0.8388753578332352</v>
       </c>
       <c r="DY6">
-        <v>0.8390414151030997</v>
+        <v>0.8393515689382199</v>
       </c>
       <c r="DZ6">
-        <v>0.8413469979799421</v>
+        <v>0.8416528275063495</v>
       </c>
       <c r="EA6">
-        <v>0.8614134917783907</v>
+        <v>0.8617352611769981</v>
       </c>
       <c r="EB6">
-        <v>0.8753771326381374</v>
+        <v>0.8757078789036924</v>
       </c>
       <c r="EC6">
-        <v>0.8757371527345214</v>
+        <v>0.8760613549157937</v>
       </c>
       <c r="ED6">
-        <v>0.8775718130160937</v>
+        <v>0.8778911535929758</v>
       </c>
       <c r="EE6">
-        <v>0.880464007287044</v>
+        <v>0.8807796928451763</v>
       </c>
       <c r="EF6">
-        <v>0.8821398609702115</v>
+        <v>0.882450503734731</v>
       </c>
       <c r="EG6">
-        <v>0.8846107729453931</v>
+        <v>0.8849172800322208</v>
       </c>
       <c r="EH6">
-        <v>0.8848076350334159</v>
+        <v>0.8851074118820292</v>
       </c>
       <c r="EI6">
-        <v>0.885048751050994</v>
+        <v>0.8853418481525892</v>
       </c>
       <c r="EJ6">
-        <v>0.8857830888836182</v>
+        <v>0.8860700689760037</v>
       </c>
       <c r="EK6">
-        <v>0.8867570773738354</v>
+        <v>0.8870382138846693</v>
       </c>
       <c r="EL6">
-        <v>0.892863440012502</v>
+        <v>0.8931445886863865</v>
       </c>
       <c r="EM6">
-        <v>0.9063053738774888</v>
+        <v>0.9065949041805557</v>
       </c>
       <c r="EN6">
-        <v>0.9074926817655632</v>
+        <v>0.9077766118722794</v>
       </c>
       <c r="EO6">
-        <v>0.9078647099618264</v>
+        <v>0.9081421096848136</v>
       </c>
       <c r="EP6">
-        <v>0.9096716468436773</v>
+        <v>0.9099441533314647</v>
       </c>
       <c r="EQ6">
-        <v>0.9132400833078353</v>
+        <v>0.9135097063304383</v>
       </c>
       <c r="ER6">
-        <v>0.9244356821953849</v>
+        <v>0.9247111239077704</v>
       </c>
       <c r="ES6">
-        <v>0.925196105887747</v>
+        <v>0.9254654603533931</v>
       </c>
       <c r="ET6">
-        <v>0.9255111152645831</v>
+        <v>0.9257738742912965</v>
       </c>
       <c r="EU6">
-        <v>0.9310966157084813</v>
+        <v>0.9313587926243485</v>
       </c>
       <c r="EV6">
-        <v>0.9350211321690628</v>
+        <v>0.935280831886603</v>
       </c>
       <c r="EW6">
-        <v>0.93511299989814</v>
+        <v>0.9353658495849231</v>
       </c>
       <c r="EX6">
-        <v>0.9351536467037317</v>
+        <v>0.9353995879196211</v>
       </c>
       <c r="EY6">
-        <v>0.9377741958774104</v>
+        <v>0.9380161721430709</v>
       </c>
       <c r="EZ6">
-        <v>0.9381080288340573</v>
+        <v>0.9383434311374105</v>
       </c>
       <c r="FA6">
-        <v>0.939280781222278</v>
+        <v>0.9395105667222897</v>
       </c>
       <c r="FB6">
-        <v>0.9405530514094991</v>
+        <v>0.9407773336502715</v>
       </c>
       <c r="FC6">
-        <v>0.9453930197608856</v>
+        <v>0.9456158692814446</v>
       </c>
       <c r="FD6">
-        <v>0.9574635536396471</v>
+        <v>0.9576932201006431</v>
       </c>
       <c r="FE6">
-        <v>0.9583946331902952</v>
+        <v>0.9586184071131001</v>
       </c>
       <c r="FF6">
-        <v>0.959445712379738</v>
+        <v>0.9596637306770587</v>
       </c>
       <c r="FG6">
-        <v>0.9601769914723929</v>
+        <v>0.960388889270657</v>
       </c>
       <c r="FH6">
-        <v>0.9602259487219011</v>
+        <v>0.9604309475310114</v>
       </c>
       <c r="FI6">
-        <v>0.9603894773802586</v>
+        <v>0.9605877079196228</v>
       </c>
       <c r="FJ6">
-        <v>0.9604086002210666</v>
+        <v>0.9605998977319273</v>
       </c>
       <c r="FK6">
-        <v>0.9612150515829664</v>
+        <v>0.9614003143620192</v>
       </c>
       <c r="FL6">
-        <v>0.9627263227677869</v>
+        <v>0.9629063549740339</v>
       </c>
       <c r="FM6">
-        <v>0.9636643106583656</v>
+        <v>0.9638384582084413</v>
       </c>
       <c r="FN6">
-        <v>0.9644974516899973</v>
+        <v>0.9646655949596479</v>
       </c>
       <c r="FO6">
-        <v>0.9646140795848259</v>
+        <v>0.9647754010736486</v>
       </c>
       <c r="FP6">
-        <v>0.9646785284641786</v>
+        <v>0.9648329686389088</v>
       </c>
       <c r="FQ6">
-        <v>0.9662342902485522</v>
+        <v>0.9663835506116994</v>
       </c>
       <c r="FR6">
-        <v>0.9672736980381123</v>
+        <v>0.9674171894593773</v>
       </c>
       <c r="FS6">
-        <v>0.967302597042822</v>
+        <v>0.967439166589626</v>
       </c>
       <c r="FT6">
-        <v>0.9673816216180282</v>
+        <v>0.967511326480773</v>
       </c>
       <c r="FU6">
-        <v>0.967812929713696</v>
+        <v>0.9679361718276777</v>
       </c>
       <c r="FV6">
-        <v>0.9685866535059247</v>
+        <v>0.968703823547818</v>
       </c>
       <c r="FW6">
-        <v>0.9700424378913025</v>
+        <v>0.9701543140531336</v>
       </c>
       <c r="FX6">
-        <v>0.970420912157501</v>
+        <v>0.9705262652901991</v>
       </c>
       <c r="FY6">
-        <v>0.9718864129427813</v>
+        <v>0.9719864832812722</v>
       </c>
       <c r="FZ6">
-        <v>0.97199606478768</v>
+        <v>0.9720893053860701</v>
       </c>
       <c r="GA6">
-        <v>0.9721359520162749</v>
+        <v>0.9722223973714033</v>
       </c>
       <c r="GB6">
-        <v>0.9723203353744229</v>
+        <v>0.9724000362538218</v>
       </c>
       <c r="GC6">
-        <v>0.9723782077478416</v>
+        <v>0.9724510198097318</v>
       </c>
       <c r="GD6">
-        <v>0.9723859804637635</v>
+        <v>0.9724518465473087</v>
       </c>
       <c r="GE6">
-        <v>0.9724306859373144</v>
+        <v>0.9724896481806732</v>
       </c>
       <c r="GF6">
-        <v>0.9728841057327602</v>
+        <v>0.9729366304555372</v>
       </c>
       <c r="GG6">
-        <v>0.9738936771226199</v>
+        <v>0.9739403988618935</v>
       </c>
       <c r="GH6">
-        <v>0.9756105071053758</v>
+        <v>0.9756522328026448</v>
       </c>
       <c r="GI6">
-        <v>0.9756105113449718</v>
+        <v>0.9756522328026448</v>
       </c>
       <c r="GJ6">
-        <v>0.9757754881433147</v>
+        <v>0.9758104429834863</v>
       </c>
       <c r="GK6">
-        <v>0.9760140754909183</v>
+        <v>0.9760423476990042</v>
       </c>
       <c r="GL6">
-        <v>0.9767299901837275</v>
+        <v>0.9767521243628576</v>
       </c>
       <c r="GM6">
-        <v>0.9810442001403948</v>
+        <v>0.9810643017391312</v>
       </c>
       <c r="GN6">
-        <v>0.9830734603200126</v>
+        <v>0.9830889223416835</v>
       </c>
       <c r="GO6">
-        <v>0.9840358287603465</v>
+        <v>0.9840454339426553</v>
       </c>
       <c r="GP6">
-        <v>0.9852525169481259</v>
+        <v>0.9852565554553212</v>
       </c>
       <c r="GQ6">
-        <v>0.9925365448749638</v>
+        <v>0.9925419391937736</v>
       </c>
       <c r="GR6">
-        <v>0.9971320615288056</v>
+        <v>0.9971357442220324</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>102</v>
       </c>
       <c r="E2">
-        <v>0.0005118256115006746</v>
+        <v>0.0004964585052391299</v>
       </c>
       <c r="F2">
-        <v>0.5133063411456915</v>
+        <v>0.5133071481184234</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>104</v>
       </c>
       <c r="E3">
-        <v>0.001065191909387473</v>
+        <v>0.0009805207831575307</v>
       </c>
       <c r="F3">
-        <v>0.504368478224676</v>
+        <v>0.5043734210851732</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.001354960610643088</v>
+        <v>0.001293167600542453</v>
       </c>
       <c r="F4">
-        <v>0.5987441472999457</v>
+        <v>0.5987583575666474</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
-        <v>0.001234181221683614</v>
+        <v>0.0008865941629430743</v>
       </c>
       <c r="F5">
-        <v>0.5026990618394848</v>
+        <v>0.502778380608691</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>104</v>
       </c>
       <c r="E6">
-        <v>0.0008841022130977235</v>
+        <v>0.0005180858448933214</v>
       </c>
       <c r="F6">
-        <v>0.5139827385120455</v>
+        <v>0.5140889353543768</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>113</v>
       </c>
       <c r="E2">
-        <v>0.0005118256115006746</v>
+        <v>0.0004964585052391299</v>
       </c>
       <c r="F2">
-        <v>0.7396073067884422</v>
+        <v>0.7396143288835265</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>113</v>
       </c>
       <c r="E3">
-        <v>0.001065191909387473</v>
+        <v>0.0009805207831575307</v>
       </c>
       <c r="F3">
-        <v>0.734406230539232</v>
+        <v>0.7344670246721376</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>112</v>
       </c>
       <c r="E4">
-        <v>0.001354960610643088</v>
+        <v>0.001293167600542453</v>
       </c>
       <c r="F4">
-        <v>0.7081954484183022</v>
+        <v>0.7082221792993367</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>113</v>
       </c>
       <c r="E5">
-        <v>0.001234181221683614</v>
+        <v>0.0008865941629430743</v>
       </c>
       <c r="F5">
-        <v>0.7002227163109158</v>
+        <v>0.7004785530469737</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>112</v>
       </c>
       <c r="E6">
-        <v>0.0008841022130977235</v>
+        <v>0.0005180858448933214</v>
       </c>
       <c r="F6">
-        <v>0.7155018149879527</v>
+        <v>0.7157822947684596</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>123</v>
       </c>
       <c r="E2">
-        <v>0.0005118256115006746</v>
+        <v>0.0004964585052391299</v>
       </c>
       <c r="F2">
-        <v>0.8009076243806199</v>
+        <v>0.8009149915968008</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>126</v>
       </c>
       <c r="E3">
-        <v>0.001065191909387473</v>
+        <v>0.0009805207831575307</v>
       </c>
       <c r="F3">
-        <v>0.8088025548227504</v>
+        <v>0.808864901741649</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>126</v>
       </c>
       <c r="E4">
-        <v>0.001354960610643088</v>
+        <v>0.001293167600542453</v>
       </c>
       <c r="F4">
-        <v>0.8104519637918296</v>
+        <v>0.8104833340916379</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>123</v>
       </c>
       <c r="E5">
-        <v>0.001234181221683614</v>
+        <v>0.0008865941629430743</v>
       </c>
       <c r="F5">
-        <v>0.8027117638798565</v>
+        <v>0.8030161373765475</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>122</v>
       </c>
       <c r="E6">
-        <v>0.0008841022130977235</v>
+        <v>0.0005180858448933214</v>
       </c>
       <c r="F6">
-        <v>0.8023827260513059</v>
+        <v>0.8026927835037154</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>144</v>
       </c>
       <c r="E2">
-        <v>0.0005118256115006746</v>
+        <v>0.0004964585052391299</v>
       </c>
       <c r="F2">
-        <v>0.9012258383511038</v>
+        <v>0.901232886701535</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>147</v>
       </c>
       <c r="E3">
-        <v>0.001065191909387473</v>
+        <v>0.0009805207831575307</v>
       </c>
       <c r="F3">
-        <v>0.9134798280716078</v>
+        <v>0.9135399272923231</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>142</v>
       </c>
       <c r="E4">
-        <v>0.001354960610643088</v>
+        <v>0.001293167600542453</v>
       </c>
       <c r="F4">
-        <v>0.9025366186416813</v>
+        <v>0.9025693142775448</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.001234181221683614</v>
+        <v>0.0008865941629430743</v>
       </c>
       <c r="F5">
-        <v>0.9010966288064596</v>
+        <v>0.9013626974495744</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>142</v>
       </c>
       <c r="E6">
-        <v>0.0008841022130977235</v>
+        <v>0.0005180858448933214</v>
       </c>
       <c r="F6">
-        <v>0.9063053738774888</v>
+        <v>0.9065949041805557</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>61</v>

--- a/on_trucks/Processed_Stand_Alone/61_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/61_11R22.xlsx
@@ -1994,49 +1994,49 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.581785761227374E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.565783255536945E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.406493682382858E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.893122058270004E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9.14143061445457E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.168899802767462E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.725614216157009E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.710766871740306E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.806996381090636E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.715450121463902E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.703475850010521E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.342311339354851E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.049124288885082E-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.049124288885082E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.842145085138949E-07</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2048,25 +2048,25 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>6.178849063656074E-07</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.087896110555296E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>3.039317944539006E-07</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>3.553040481518997E-07</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>2.701658483372021E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>4.040178563710447E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.538567415597015E-08</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -2075,37 +2075,37 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>9.710666266968087E-07</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.917246720863834E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>8.587386078963076E-07</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.237649716891994E-08</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.825945640685604E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>6.252458682745218E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.416756171913048E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.865845836116002E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>4.95164556503116E-08</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.703475850010521E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -2114,145 +2114,145 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>5.861714135074739E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.008607603234868E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>2.406681667275816E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>6.340464909723629E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>4.338336496450611E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>4.262845728384223E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>3.611975462524168E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>4.568617340299842E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>3.406438725982328E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>5.893218010246693E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1.10794536771373E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>5.632483149721317E-06</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>2.127567032807973E-06</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>3.272586717948485E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.041625193911157E-07</v>
+        <v>0</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
       <c r="BF2">
-        <v>3.897066816144044E-06</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>3.014408751178304E-06</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>3.825363286946672E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.565783255536945E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.08450990839134E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>9.032929635982509E-06</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1.52352530603874E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>2.566956966188705E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>2.585103431576304E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>7.881279907734131E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1.846676755231533E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.846676755231533E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1.477479995667045E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>2.351293436321511E-06</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>6.512130284283421E-07</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>4.95164556503116E-08</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>7.521207984755633E-07</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>4.948377045182337E-07</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>8.944334167398013E-07</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>4.725309685834377E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2.406681667275816E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>1.96771157128952E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>1.072354962698476E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>7.777374597774271E-06</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>1.218142508380013E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>2.21684492841544E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>1.359807002879098E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.565357939941636E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>7.577537270216163E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>4.965107478647423E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1.763453381628945E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -2261,337 +2261,337 @@
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>4.967802299460074E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1461281175259141</v>
+        <v>0.3094603065274857</v>
       </c>
       <c r="CO2">
-        <v>0.1233451621292865</v>
+        <v>0.2487473987716461</v>
       </c>
       <c r="CP2">
-        <v>0.09931201089095948</v>
+        <v>0.1847029203967876</v>
       </c>
       <c r="CQ2">
-        <v>0.007724088580323121</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.005097046952973218</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.0006507696685913945</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0002144252988842178</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0009630004273485197</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.03961225484331363</v>
+        <v>0.02561268302998169</v>
       </c>
       <c r="CW2">
-        <v>0.001255421989749668</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.07428432318535262</v>
+        <v>0.1180081624709837</v>
       </c>
       <c r="CY2">
-        <v>0.01417439009749314</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0008144429200990995</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.009047457105090145</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.0212135392062997</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.05321253053298092</v>
+        <v>0.06185522790732362</v>
       </c>
       <c r="DD2">
-        <v>0.01030475220710237</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.004306344259791609</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.03628903598880547</v>
+        <v>0.01675683986768128</v>
       </c>
       <c r="DG2">
-        <v>0.002548532805038665</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.02274466934918967</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.02274482735498336</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.04308104903572216</v>
+        <v>0.03485646102811026</v>
       </c>
       <c r="DK2">
-        <v>0.0004167853789456418</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.01801325285943336</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.009306906618484908</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.0005421195646512581</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.01830607259643462</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.002768904885557179</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>6.24919778517588E-05</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.004801363410963058</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.005910453378646539</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001172312042306146</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001180865855954088</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.004181035665024352</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.009815300260067017</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.0217250389617756</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0001742365552588557</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>5.94198072025895E-05</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.02035594076021041</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.009234878977403126</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.001480583645890495</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.003019908589264248</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.001268076253751343</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.001303884166742096</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.001625137446333537</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0005991493957991268</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0002082087409378669</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0005546340935291799</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.001060422739592318</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.007062651126989505</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.01242924910733591</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.001561112898706101</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.001418160056966395</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.003809611345780564</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.003158555973133083</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.008500404045959415</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0005030562022909426</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.000449405105033186</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.004386261590169477</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.004032722226724356</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.000567291457644529</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>4.768589494801732E-05</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.005755463395533572</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.0006507696685913945</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.002874872171124766</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001289772449299079</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.00585308137495202</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.007408054492106976</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.001280832121478585</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.001005502825810086</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0001219434377949788</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.000105979788446037</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0002015772477768315</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0001861963737968724</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>4.382345632160639E-05</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.002652124903513806</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.001835461758424352</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.0006544101520792401</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0003250101037652226</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>5.805671900139668E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.002724099742659468</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.001000955459068995</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.000228191753667276</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>4.219167348802235E-05</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0005256800318528054</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0006746420939362865</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.001582339777045095</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>8.808562630979642E-05</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0001545932649862587</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>1.342311339354851E-06</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0001852249981788456</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>1.060969545222376E-05</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0001458436341581677</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>3.293006946709563E-07</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>9.111327732653701E-05</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001030474641466998</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0009214480037202648</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001642373478337716</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>2.285241536355899E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0003539091634248042</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0001016101462216801</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.002146784273878362</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.005698850319667126</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.002231787790754557</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.001174752731800408</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.001114458720962856</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.008506874783225914</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.005785146783952619</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.002874872171124766</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2770,31 +2770,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.325282317655664E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.046895025020403E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.60031420147211E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.019011973423524E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.64264488684575E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.529992232985409E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.759396698504176E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.979319858668246E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2821,52 +2821,52 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1.364322872972025E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.923278487673131E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>6.009977302966306E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.151969535619989E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>5.645583008507124E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>2.717429525475866E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1.164021332393202E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>4.294623214531572E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.735250992040017E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>2.389262163281126E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>8.473426942545125E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.440483654562212E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.658638552328729E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.237485966966117E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.899448620613881E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>9.045216333463444E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -2875,34 +2875,34 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>9.593816611343477E-06</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.482998618985881E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.993069835079696E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>8.00324091748599E-07</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>6.413938214106135E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>4.526663590694175E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>2.532094795822922E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>2.64333881886135E-07</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>3.309861768391294E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -2914,52 +2914,52 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.740247804343626E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>7.051583805783184E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.101473666495851E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1.763223932050705E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>4.613603978825406E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>4.250463468952634E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>8.79211969849516E-06</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>2.406039509571386E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>5.558499516480144E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>7.446834045007845E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
         <v>0</v>
       </c>
       <c r="BL3">
-        <v>1.986090014086468E-06</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>5.41252704082155E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1.192559386167822E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -2968,403 +2968,403 @@
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>2.948088898028841E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.753776234059848E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>4.395908702884879E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>4.074619650545799E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>6.50827215013736E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>1.132204372845645E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>1.916779533760574E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>2.189044468421176E-07</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>5.679045492803635E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1.882730309487196E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>8.263712614683968E-06</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>2.994341785659051E-06</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>1.429801858023447E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>6.81052614365449E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>3.873791248357224E-07</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.738103146490374E-06</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>6.672788293888506E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>2.289751639381161E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>4.348140750523076E-07</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>3.655301108599836E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0002081521134668543</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.09392047732152591</v>
+        <v>0.1564362821468858</v>
       </c>
       <c r="CO3">
-        <v>5.404313201304961E-05</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.272820649235522</v>
+        <v>0.5943208672566022</v>
       </c>
       <c r="CQ3">
-        <v>0.002226590099983995</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.02550492650668657</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.002854441187290652</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0009213062166564904</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0001960167410576162</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.007962059400250068</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.002477394631871619</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.05484706492656971</v>
+        <v>0.06079833617771431</v>
       </c>
       <c r="CY3">
-        <v>0.02438449382469433</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.0009036162304226708</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.01411166873400424</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>6.455266071030355E-05</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.08599431204625484</v>
+        <v>0.1370358223488838</v>
       </c>
       <c r="DD3">
-        <v>0.00140765900071408</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.02887057388677987</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.02199066253987895</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.005971892935751485</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.03155519336808899</v>
+        <v>0.003788041527370176</v>
       </c>
       <c r="DI3">
-        <v>0.004775508656334299</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.04946324849245174</v>
+        <v>0.04762065054254369</v>
       </c>
       <c r="DK3">
-        <v>0.003375224932715817</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.008621118560334099</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.0006875665192433716</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.004258716135178945</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.01322420251224202</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.006192576628360197</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>9.890145507393718E-06</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001543119852032602</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.0092637296751378</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>4.613603978825406E-06</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.001283577739975961</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.0003862402602999355</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.02554730050450449</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.004593963269025819</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.004842187409403066</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.004771728196714524</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.01045030264502977</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.02194643897472396</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.002071341679018035</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0004202524632173673</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.005057602485914261</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>7.872478887485895E-05</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.003189073532557018</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0006065496180850265</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.0002567796795069191</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0003765086452202319</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.001312679666713211</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.003249939002456862</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.02027223842974446</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.003739699431776993</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>2.189044468421176E-07</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.002517749510344019</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0003622378277836876</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.01455880939011721</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.004369785504644061</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0007311851288340278</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.003354067142766427</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.008463770295261073</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0001348518893252638</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>6.303759097717623E-05</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.002550552472338381</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0001475267472165056</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.002501137514773509</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0001939945507701166</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.0001895456561142983</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01604435956840387</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.0001550487945324639</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.002382585250001938</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0001488861642046445</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>1.67748035102859E-06</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>7.519820112784979E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
         <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0008857515105909939</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0001848309099110644</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002825547524436352</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0002511352981470061</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0006357934383467564</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>1.86643399074753E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0008037960215298007</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.002521078631520049</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0001349874709136172</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>1.434436979802652E-05</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0001590788006982505</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.001046117801414507</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.002272202291086683</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.000344746862597668</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001152790222157723</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0003211022898514766</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>4.054463147731647E-05</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0001348518893252638</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>7.471946928144183E-05</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>6.11848426643793E-05</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>5.103004177648284E-05</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0002871181455407537</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0008132317658539843</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.001873087466437462</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0003688123644598337</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0003398285239444004</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>5.159692166145724E-05</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>3.634842133005055E-05</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.005113522638885508</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.003674389498580608</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.00141888184321351</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>1.625355742304181E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.006265846703253795</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.006560548900329707</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.004199097347686987</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,55 +3540,55 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.765974968224773E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.610143772779472E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.220839719158699E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.52970980163871E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2.49125215220672E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5.145810092862841E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.576060338876353E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.029589719199846E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4.002907206846776E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.415796344843907E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2.139296178638744E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4.46574490709098E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>7.848170938798267E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>5.032206799493977E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>4.625490689314807E-07</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -3597,40 +3597,40 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2.006162016418112E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2.29485387385745E-06</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.023898305976501E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2.089150932515995E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>5.136487331966733E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.924788759563001E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1.754021858930833E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>5.433055418196929E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>4.990895970909547E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>4.847099497853524E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>6.655818118226604E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -3639,106 +3639,106 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>4.9598289860148E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>2.312042896945213E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>4.47549043582287E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1.142279901054178E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>2.23927962161624E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>8.014766935182397E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>7.88052339495503E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>6.048330808035152E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>3.220839719158699E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>4.931398689193379E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>3.067652139240024E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.184604192255111E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1.839376854681202E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>6.969440790973362E-07</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>3.890784751087696E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>4.46574490709098E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>5.671755569149925E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>1.388889671155728E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>4.688924482669232E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1.786789051634704E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>3.633708201525004E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>6.609134827596568E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>4.363508067541715E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>3.193855089303709E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>1.845030661870421E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>4.98308808308443E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>4.155042652943906E-06</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1.884811980035203E-06</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>4.775874169297863E-06</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1.805757660268254E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.008509871804649E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>7.721430452483482E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
         <v>0</v>
@@ -3747,55 +3747,55 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>1.080139430221553E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>1.17506319634181E-06</v>
+        <v>0</v>
       </c>
       <c r="BU4">
         <v>0</v>
       </c>
       <c r="BV4">
-        <v>1.249437195121576E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>2.196160302848092E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
       </c>
       <c r="BY4">
-        <v>2.834465307934128E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>3.203639559283968E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>3.056065215044556E-06</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>9.843687632106778E-06</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>7.326392716173461E-06</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>1.774242603477531E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>2.392334480238942E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>3.024576227436798E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>3.154365637970812E-07</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>4.625490689314807E-07</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>2.925162275837806E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -3804,340 +3804,340 @@
         <v>0</v>
       </c>
       <c r="CL4">
-        <v>5.209956120499773E-06</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0001654141008915029</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.113654559914057</v>
+        <v>0.2018037726614971</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.2415554784275482</v>
+        <v>0.5103597443524637</v>
       </c>
       <c r="CQ4">
-        <v>0.002654056379327425</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.03084188009440264</v>
+        <v>0.002021416232281439</v>
       </c>
       <c r="CS4">
-        <v>0.001761086996726998</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0006217791875638128</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>8.730918846298193E-05</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.01175670125642465</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>7.536741232926951E-05</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.05855319755102681</v>
+        <v>0.06887388753618062</v>
       </c>
       <c r="CY4">
-        <v>0.008987610438241997</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>1.023898305976501E-05</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.0225505086912792</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.0004344237852013426</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.1037555775595614</v>
+        <v>0.1779228642626965</v>
       </c>
       <c r="DD4">
-        <v>1.59612865896558E-06</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.02978306820131968</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.03135737080815678</v>
+        <v>0.003265017450542431</v>
       </c>
       <c r="DG4">
-        <v>0.001632210317646536</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.03472405301366731</v>
+        <v>0.01138700681050479</v>
       </c>
       <c r="DI4">
-        <v>0.01196552326323994</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.03959907324157904</v>
+        <v>0.02314780275254296</v>
       </c>
       <c r="DK4">
-        <v>0.0001756092367657089</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.005459819881874861</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.00259419577431373</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.001285980362854586</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01532743970405331</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.002676378160998854</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>1.59612865896558E-06</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.004144510632164381</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.008004898755920456</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>9.802359765788536E-05</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0002775070769203723</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.001456151667919668</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.0211599705706193</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.004854553263007412</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.001801010402690669</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.004964618923740687</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.01520739044138779</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.03050905469045588</v>
+        <v>0.001218487941290337</v>
       </c>
       <c r="EC4">
-        <v>0.001982110861407765</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>8.080416469066442E-05</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.001894296471031932</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0006247729679348591</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.004317112027152802</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.00105067220616858</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0004825630094451594</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0004789010218560274</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.001341845126710227</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.003927535817179317</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.01856873879104732</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.002819296993231841</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>2.075207195154908E-05</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.002161323717247007</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0004238631606821657</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.01198191489338095</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.00199413569086791</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.001171946765440709</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.00387806507928569</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.00528756974324775</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>3.315021031147483E-05</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>9.853602573021926E-07</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.001831660220648334</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0002308753845696082</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.002684134505553526</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>9.389724055772031E-05</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.0007991555487258377</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0141635029430186</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>1.500980056768949E-05</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.002952191517000963</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>9.548725068492867E-05</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>3.72066911995585E-05</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>6.722817633723759E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>1.818803753596663E-05</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0006646773208413465</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.001107772368251701</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.00297339361901269</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>7.314258034086766E-05</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0002160704790286251</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>4.78398123512799E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0006967418557993257</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.001549070877396099</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>8.44320976655176E-08</v>
+        <v>0</v>
       </c>
       <c r="FT4">
         <v>0</v>
       </c>
       <c r="FU4">
-        <v>5.565554943586056E-05</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.001179725813638325</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.003204832954921867</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0004097816912210894</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0007685841933579931</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>7.85380960855859E-05</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>7.535765811414384E-06</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>4.303771682459895E-05</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0007957697054458113</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0002924111783779694</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>2.341462517509904E-05</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0002414829166153952</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.001195662570792077</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001606201044293682</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0005300670717732189</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>5.780673295689878E-06</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0001281533021600478</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>7.536741232926951E-05</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.005181355400482869</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.004496105447782273</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.002847318889522808</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>3.108654718363873E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.005710584318619021</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.005139235142020282</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.003292663347865413</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.503054990313031E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4322,10 +4322,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.645418268253194E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.722268066790617E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4334,19 +4334,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.150299235316538E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.101750576083103E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9.296114440894211E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.118644033248506E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -4355,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>6.997223002191898E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.971591744162823E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -4367,22 +4367,22 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3.422566382334342E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>5.855819355558561E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>5.744278585269556E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>3.402762108719739E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>7.113963962421311E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.236526863650671E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>9.175865304778928E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -4406,52 +4406,52 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>7.119128810293007E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>8.190744686472126E-06</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>4.92722572300041E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>2.428392587763165E-06</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>1.768214658382118E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>1.355362828597169E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.093088094550664E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>6.451596226448493E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.677793126949876E-07</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>1.670238134017576E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>8.921787868866861E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -4463,28 +4463,28 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>8.98904222372131E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>7.23587557743456E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.397758493415153E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.987614316305937E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>1.204092767354121E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>2.92302506347792E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
         <v>0</v>
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>1.601823998641954E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>7.709529882209891E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>4.023909779225369E-06</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>3.209100888021575E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -4571,301 +4571,301 @@
         <v>0</v>
       </c>
       <c r="CJ5">
-        <v>6.452640068965218E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
         <v>0</v>
       </c>
       <c r="CL5">
-        <v>1.542149866751851E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>3.017362355956748E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.008624464012457074</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.09696688461738816</v>
+        <v>0.1902475244329943</v>
       </c>
       <c r="CP5">
-        <v>0.1715736772967754</v>
+        <v>0.4022893133794479</v>
       </c>
       <c r="CQ5">
-        <v>0.07415561768940747</v>
+        <v>0.1254150651644367</v>
       </c>
       <c r="CR5">
-        <v>0.0107590038185337</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.006773539802441123</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>2.117496518946176E-05</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0004192352251298644</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.0004648194453800037</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.02884724879332119</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.005744854828188603</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.07707214932356379</v>
+        <v>0.1337042110051248</v>
       </c>
       <c r="CZ5">
-        <v>0.008451092643371412</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0002373089929367693</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.01178071499166379</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.02267415277393404</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.05290972807649972</v>
+        <v>0.06503160302259735</v>
       </c>
       <c r="DE5">
-        <v>0.01584307053402195</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.001887404590695679</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.03967881192435787</v>
+        <v>0.02742769284839943</v>
       </c>
       <c r="DH5">
-        <v>0.005925813428580851</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.02033001347536134</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.03845117763483127</v>
+        <v>0.02393860342939874</v>
       </c>
       <c r="DK5">
-        <v>0.04126857126207589</v>
+        <v>0.03194598671760086</v>
       </c>
       <c r="DL5">
-        <v>0.002347333357555903</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.01494269479005399</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.01303079199541914</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0009460135650207213</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.01811386552869312</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001216337799979843</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0001380969278714651</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.006223116617389377</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.00431076248551442</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.002075251490435059</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0006102155446718236</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.01026707175720233</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.004631698805540381</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.02070459635247624</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0001358657820724081</v>
+        <v>0</v>
       </c>
       <c r="EA5">
         <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.02016827395200684</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.006645130953577608</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.0002470418182075242</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.004972814345490665</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001531193281803635</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.00177540367267918</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.001147467421524543</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>2.543580098875993E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0001868545054630217</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.000371714239490406</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.001127659043023772</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.007805058649937064</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.01110306836877846</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.001104984853262812</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.001709759434394265</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.001903498948287143</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.006044914898595111</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.009270388875990862</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0002106818378438641</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>1.230728072147856E-05</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.006931526258408129</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.00307859259712991</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0004160405824518792</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.0002904337689341911</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.004542170337147571</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.001167362603349887</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.0007647426528745254</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.001753402584130567</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.01149537434222088</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.007731855914548736</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.001669281352131704</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0003406738211592985</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0006560873172039777</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0002504862482147802</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0001713240891475946</v>
+        <v>0</v>
       </c>
       <c r="FK5">
         <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0001362339803497444</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.002392365760962077</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0003948280425361057</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0009252423003679887</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>2.92302506347792E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
         <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.002857188152849396</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0008453424431968578</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0001746105711446466</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>9.326665506734524E-05</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0009149798246385747</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0005644860314751783</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0004028838816404599</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0004397985923160728</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0009243411276753892</v>
+        <v>0</v>
       </c>
       <c r="GA5">
         <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0002465516347275812</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0003214447822636524</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>5.855819355558561E-06</v>
+        <v>0</v>
       </c>
       <c r="GE5">
         <v>0</v>
@@ -4874,43 +4874,43 @@
         <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0007460614661035216</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.001609346009314483</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.001494034250305697</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0002883152071472248</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>9.921208809271438E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0002377901556790606</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.00265841945256671</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.004822173333023042</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.001313978724870372</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0006109798244166849</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.002320554682103818</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.00819850898554773</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.00386813220956128</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,34 +5086,34 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>5.643737726135593E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7.029114005772565E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.482732975194548E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.131926777458545E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.48092950934051E-07</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.737700612205555E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5128,58 +5128,58 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>4.320947691808973E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>3.608590466464168E-07</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1.061586258051014E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.564491885577415E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>6.586640748931297E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>3.738333726081114E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>3.742425329004204E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.464483177134142E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.014915603020849E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.912890331720291E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>3.556132223352838E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.876200475848811E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>5.367287134095377E-06</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.101140560130583E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.286253728729001E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>7.005872519022205E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.163019815014768E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>4.634712808689138E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -5221,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>1.745614298540077E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.653391658635456E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>2.41591064995193E-06</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>3.281198760281888E-06</v>
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -5251,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>3.646107622228867E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>4.876200475848811E-06</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>7.972514135086944E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
         <v>0</v>
@@ -5272,13 +5272,13 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>1.956375689040613E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>1.798686581430999E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1.065070188450833E-06</v>
+        <v>0</v>
       </c>
       <c r="BR6">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>0</v>
       </c>
       <c r="BT6">
-        <v>3.301103444303886E-06</v>
+        <v>0</v>
       </c>
       <c r="BU6">
         <v>0</v>
       </c>
       <c r="BV6">
-        <v>6.505631428087926E-06</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>2.41591064995193E-06</v>
+        <v>0</v>
       </c>
       <c r="BX6">
         <v>0</v>
@@ -5344,346 +5344,346 @@
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>1.551075195483239E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>9.852261956530084E-07</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0001001730398376483</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.156355340685069</v>
+        <v>0.3297345787809811</v>
       </c>
       <c r="CO6">
-        <v>0.05943128289249146</v>
+        <v>0.07674872959315625</v>
       </c>
       <c r="CP6">
-        <v>0.1554377749975204</v>
+        <v>0.3273395992481714</v>
       </c>
       <c r="CQ6">
-        <v>0.00982853900048173</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.02156388397935782</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0002362929765221309</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.003596026327364683</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.001797238170174663</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.01678855986547531</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.0004006553792347831</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.06292108998958422</v>
+        <v>0.08585763229561121</v>
       </c>
       <c r="CY6">
-        <v>0.008901243224209189</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.00021601550766247</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.01599673347449784</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.007186233743910306</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.07690787578326611</v>
+        <v>0.122365171930356</v>
       </c>
       <c r="DD6">
-        <v>0.006064458332352324</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.01283454874645821</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.04259058568901868</v>
+        <v>0.03279206723329934</v>
       </c>
       <c r="DG6">
-        <v>0.0005047137675412705</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.02959550907921296</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.02600943427232303</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.03966743537232902</v>
+        <v>0.02516222091842473</v>
       </c>
       <c r="DK6">
-        <v>3.671536141392134E-05</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.01228015394019761</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.007594596126895951</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0001707913387361753</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01647582045752624</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.001539447283338298</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>3.160347173903475E-05</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.004006141608009221</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.005107783775070292</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0009165775408245982</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0005807285965000778</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.004509838136872378</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01546137035736601</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01471405969795669</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0004762111049847177</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.002301258568129516</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.02008243367064851</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.01397261772669429</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0003534760121013443</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.001829798677182057</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.002888539252200606</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.001670810889554671</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.002466776297489801</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0001901318498084232</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0002344362705599362</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0007282208234144967</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0009681449086656325</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.006106374801717167</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.01345031549416919</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001181707691723777</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0003654978125341249</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.001802043646651153</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.003565552998973578</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.0112014175773322</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0007543364456226274</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0003084139379034472</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.005584918333051927</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.003922039262254574</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>8.501769832005074E-05</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>3.373833469794368E-05</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.002616584223449784</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0003272589943395596</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001167135584879285</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.001266766927981806</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.004838535631173041</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01207735081919852</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0009251870124570601</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.00104532356395859</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.000725158593598309</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>4.205826035444215E-05</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0001567603886113926</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>1.218981230454631E-05</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0008004166300919343</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.001506040612014667</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0009321032344073932</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0008271367512065797</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0001098061140006763</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>5.756756526017056E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.001550581972790699</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.001033638847677817</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>2.197713024877848E-05</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>7.215989114693689E-05</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0004248453469046909</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0007676517201403302</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.001450490505315555</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0003719512370655441</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001460217991073091</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0001028221047977967</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0001330919853331427</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0001776388824185319</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>5.098355591006652E-05</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>8.26737576894618E-07</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>3.780163336458644E-05</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0004469822748641111</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.001003768406356324</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.001711833940751259</v>
+        <v>0</v>
       </c>
       <c r="GI6">
         <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0001582101808415312</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0002319047155178929</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0007097766638534356</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.004312177376273593</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.002024620602552354</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0009565116009717481</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.00121112151266591</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.007285383738452431</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.004593805028258843</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.002864255777967593</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.581785761227374E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.523961831659683E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.930455514042541E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.823577572312545E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>7.737720633758003E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.906620436525465E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001063223465268247</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001234300152442278</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001282370116253184</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001299524617467823</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001326559375967928</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001339982489361477</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001350473732250328</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001360964975139178</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001367807120224317</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001367807120224317</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001367807120224317</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001367807120224317</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001373985969287974</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001384864930393526</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001387904248338066</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001391457288819584</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001418473873653305</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001458875659290409</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001459029516031969</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001459029516031969</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0001459029516031969</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0001468740182298937</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0001487912649507575</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0001496500035586538</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0001496823800558227</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0001525083256965083</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001587607843792536</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0001631775405511666</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0001650433863872826</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0001650433863872826</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001650929028429329</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0001677963786929434</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0001677963786929434</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0001677963786929434</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001683825501064509</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001693911577096858</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001717978393769616</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0001781383042866852</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0001824766407831358</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.00018673948651152</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0001903514619740442</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0001949200793143441</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0001983265180403264</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0002042197360505731</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0002152991897277104</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0002209316728774317</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0002230592399102397</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0002263318266281882</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0002264359891475793</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0002264359891475793</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0002303330559637233</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0002333474647149016</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0002371728280018483</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0002528306605572177</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0002636757596411311</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0002727086892771136</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.000287943942337501</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0003136135119993881</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0003394645463151511</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0003473458262228852</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0003658125937752006</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0003842793613275159</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.000385756841323183</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0003881081347595045</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0003887593477879328</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0003888088642435831</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0003895609850420587</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0003900558227465769</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0003909502561633167</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0003956755658491511</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.000398082247516427</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0004000499590877165</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0004107735087147012</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0004185508833124755</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0004307323083962757</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0004529007576804301</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.000466498827709221</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0004821524071086374</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0004897299443788536</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.000494695051857501</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0004964585052391299</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0004964585052391299</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0004964585052391299</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0005461365282337306</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1466742540541479</v>
+        <v>0.3094603065274857</v>
       </c>
       <c r="CO2">
-        <v>0.2700194161834343</v>
+        <v>0.5582077052991318</v>
       </c>
       <c r="CP2">
-        <v>0.3693314270743938</v>
+        <v>0.7429106256959194</v>
       </c>
       <c r="CQ2">
-        <v>0.377055515654717</v>
+        <v>0.7429106256959194</v>
       </c>
       <c r="CR2">
-        <v>0.3821525626076901</v>
+        <v>0.7429106256959194</v>
       </c>
       <c r="CS2">
-        <v>0.3828033322762815</v>
+        <v>0.7429106256959194</v>
       </c>
       <c r="CT2">
-        <v>0.3830177575751658</v>
+        <v>0.7429106256959194</v>
       </c>
       <c r="CU2">
-        <v>0.3839807580025143</v>
+        <v>0.7429106256959194</v>
       </c>
       <c r="CV2">
-        <v>0.423593012845828</v>
+        <v>0.768523308725901</v>
       </c>
       <c r="CW2">
-        <v>0.4248484348355776</v>
+        <v>0.768523308725901</v>
       </c>
       <c r="CX2">
-        <v>0.4991327580209302</v>
+        <v>0.8865314711968847</v>
       </c>
       <c r="CY2">
-        <v>0.5133071481184234</v>
+        <v>0.8865314711968847</v>
       </c>
       <c r="CZ2">
-        <v>0.5141215910385225</v>
+        <v>0.8865314711968847</v>
       </c>
       <c r="DA2">
-        <v>0.5231690481436126</v>
+        <v>0.8865314711968847</v>
       </c>
       <c r="DB2">
-        <v>0.5443825873499123</v>
+        <v>0.8865314711968847</v>
       </c>
       <c r="DC2">
-        <v>0.5975951178828932</v>
+        <v>0.9483866991042083</v>
       </c>
       <c r="DD2">
-        <v>0.6078998700899956</v>
+        <v>0.9483866991042083</v>
       </c>
       <c r="DE2">
-        <v>0.6122062143497872</v>
+        <v>0.9483866991042083</v>
       </c>
       <c r="DF2">
-        <v>0.6484952503385927</v>
+        <v>0.9651435389718895</v>
       </c>
       <c r="DG2">
-        <v>0.6510437831436313</v>
+        <v>0.9651435389718895</v>
       </c>
       <c r="DH2">
-        <v>0.6737884524928209</v>
+        <v>0.9651435389718895</v>
       </c>
       <c r="DI2">
-        <v>0.6965332798478043</v>
+        <v>0.9651435389718895</v>
       </c>
       <c r="DJ2">
-        <v>0.7396143288835265</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK2">
-        <v>0.7400311142624721</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL2">
-        <v>0.7580443671219055</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM2">
-        <v>0.7673512737403904</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN2">
-        <v>0.7678933933050416</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO2">
-        <v>0.7861994659014762</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP2">
-        <v>0.7889683707870333</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ2">
-        <v>0.7890308627648851</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR2">
-        <v>0.7938322261758481</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS2">
-        <v>0.7997426795544946</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT2">
-        <v>0.8009149915968008</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU2">
-        <v>0.8020958574527549</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV2">
-        <v>0.8062768931177793</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DW2">
-        <v>0.8160921933778463</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DX2">
-        <v>0.8378172323396219</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DY2">
-        <v>0.8379914688948807</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DZ2">
-        <v>0.8380508887020833</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EA2">
-        <v>0.8584068294622937</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB2">
-        <v>0.8676417084396969</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC2">
-        <v>0.8691222920855874</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED2">
-        <v>0.8721422006748517</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE2">
-        <v>0.8734102769286031</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF2">
-        <v>0.8747141610953452</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG2">
-        <v>0.8763392985416787</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH2">
-        <v>0.8769384479374778</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI2">
-        <v>0.8771466566784156</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ2">
-        <v>0.8777012907719448</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK2">
-        <v>0.8787617135115371</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL2">
-        <v>0.8858243646385267</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM2">
-        <v>0.8982536137458625</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN2">
-        <v>0.8998147266445686</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO2">
-        <v>0.901232886701535</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP2">
-        <v>0.9050424980473156</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ2">
-        <v>0.9082010540204487</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER2">
-        <v>0.9167014580664081</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES2">
-        <v>0.9172045142686991</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET2">
-        <v>0.9176539193737323</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU2">
-        <v>0.9220401809639018</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV2">
-        <v>0.9260729031906262</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW2">
-        <v>0.9266401946482707</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX2">
-        <v>0.9266878805432187</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY2">
-        <v>0.9324433439387523</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ2">
-        <v>0.9330941136073436</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA2">
-        <v>0.9359689857784684</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB2">
-        <v>0.9372587582277675</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC2">
-        <v>0.9431118396027195</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD2">
-        <v>0.9505198940948265</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE2">
-        <v>0.9518007262163051</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF2">
-        <v>0.9528062290421152</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG2">
-        <v>0.9529281724799101</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH2">
-        <v>0.9530341522683562</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI2">
-        <v>0.953235729516133</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ2">
-        <v>0.9534219258899299</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK2">
-        <v>0.9534657493462515</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL2">
-        <v>0.9561178742497654</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM2">
-        <v>0.9579533360081897</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN2">
-        <v>0.9586077461602689</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO2">
-        <v>0.9589327562640341</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP2">
-        <v>0.9589385619359342</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ2">
-        <v>0.9616626616785936</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR2">
-        <v>0.9626636171376626</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS2">
-        <v>0.9628918088913299</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT2">
-        <v>0.9629340005648179</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU2">
-        <v>0.9634596805966708</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV2">
-        <v>0.9641343226906071</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW2">
-        <v>0.9657166624676522</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX2">
-        <v>0.965804748093962</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY2">
-        <v>0.9659593413589482</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ2">
-        <v>0.9659606836702875</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA2">
-        <v>0.9661459086684664</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB2">
-        <v>0.9661565183639186</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC2">
-        <v>0.9663023619980767</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD2">
-        <v>0.9663026912987714</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE2">
-        <v>0.966393804576098</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF2">
-        <v>0.967424279217565</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG2">
-        <v>0.9683457272212853</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH2">
-        <v>0.969988100699623</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI2">
-        <v>0.9700109531149866</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ2">
-        <v>0.9703648622784115</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK2">
-        <v>0.9704664724246331</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL2">
-        <v>0.9726132566985115</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM2">
-        <v>0.9783121070181786</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN2">
-        <v>0.9805438948089331</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO2">
-        <v>0.9817186475407336</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP2">
-        <v>0.9828331062616964</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ2">
-        <v>0.9913399810449223</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR2">
-        <v>0.9971251278288749</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7421,769 +7421,769 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.325282317655664E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.325282317655664E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.372177342676067E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.372177342676067E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.837531935739717E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.856543909163242E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>6.856543909163242E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.320808397847816E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001485080063083323</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001485080063083323</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001485080063083323</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.000176101973293374</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0001810812931520423</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0001810812931520423</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001810812931520423</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001810812931520423</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001810812931520423</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0001947245218817625</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001976478003694357</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.000203657777672402</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0002151774730286019</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0002716333031136731</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0002988075983684318</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0003104478116923638</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0003533940438376795</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0003807465537580797</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.000404639175390891</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0004131126023334361</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0004145530859879983</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.000418211724540327</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0004305865842099882</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0004394860328306021</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0004485312491640656</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0004485312491640656</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0004485312491640656</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0004581250657754091</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.000467608064394395</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.000487538762745192</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0004883390868369406</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0004947530250510468</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0005400196609579885</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0005425517557538115</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0005425517557538115</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0005428160896356976</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0005461259514040889</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0005461259514040889</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0005461259514040889</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0005461259514040889</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0005462999761845233</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0005533515599903065</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0005533515599903065</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0005544530336568024</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0005720852729773094</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0005766988769561348</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0006192035116456612</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0006192035116456612</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0006279956313441563</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0006520560264398702</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0006576145259563504</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0006650613600013581</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0006650613600013581</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0006670474500154447</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0006724599770562662</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0006843855709179445</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0006843855709179445</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0006843855709179445</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0006873336598159733</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0007048714221565718</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0007092673308594567</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0007133419505100025</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0007198502226601399</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0007311722663885963</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.000750340061726202</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0007505589661730442</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0007562380116658478</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0007581207419753349</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0007663844545900189</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0007693787963756779</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0007693787963756779</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0007836768149559124</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0008517820763924573</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.000852169455517293</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0008539075586637834</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0009206354416026684</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0009435329579964801</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0009435329579964801</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0009439677720715323</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0009805207831575307</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001188672896624385</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.09510915021815029</v>
+        <v>0.1564362821468858</v>
       </c>
       <c r="CO3">
-        <v>0.09516319335016334</v>
+        <v>0.1564362821468858</v>
       </c>
       <c r="CP3">
-        <v>0.3679838425856853</v>
+        <v>0.7507571494034879</v>
       </c>
       <c r="CQ3">
-        <v>0.3702104326856693</v>
+        <v>0.7507571494034879</v>
       </c>
       <c r="CR3">
-        <v>0.3957153591923558</v>
+        <v>0.7507571494034879</v>
       </c>
       <c r="CS3">
-        <v>0.3985698003796465</v>
+        <v>0.7507571494034879</v>
       </c>
       <c r="CT3">
-        <v>0.399491106596303</v>
+        <v>0.7507571494034879</v>
       </c>
       <c r="CU3">
-        <v>0.3996871233373606</v>
+        <v>0.7507571494034879</v>
       </c>
       <c r="CV3">
-        <v>0.4076491827376107</v>
+        <v>0.7507571494034879</v>
       </c>
       <c r="CW3">
-        <v>0.4101265773694823</v>
+        <v>0.7507571494034879</v>
       </c>
       <c r="CX3">
-        <v>0.464973642296052</v>
+        <v>0.8115554855812023</v>
       </c>
       <c r="CY3">
-        <v>0.4893581361207464</v>
+        <v>0.8115554855812023</v>
       </c>
       <c r="CZ3">
-        <v>0.490261752351169</v>
+        <v>0.8115554855812023</v>
       </c>
       <c r="DA3">
-        <v>0.5043734210851732</v>
+        <v>0.8115554855812023</v>
       </c>
       <c r="DB3">
-        <v>0.5044379737458835</v>
+        <v>0.8115554855812023</v>
       </c>
       <c r="DC3">
-        <v>0.5904322857921384</v>
+        <v>0.9485913079300861</v>
       </c>
       <c r="DD3">
-        <v>0.5918399447928524</v>
+        <v>0.9485913079300861</v>
       </c>
       <c r="DE3">
-        <v>0.6207105186796322</v>
+        <v>0.9485913079300861</v>
       </c>
       <c r="DF3">
-        <v>0.6427011812195111</v>
+        <v>0.9485913079300861</v>
       </c>
       <c r="DG3">
-        <v>0.6486730741552627</v>
+        <v>0.9485913079300861</v>
       </c>
       <c r="DH3">
-        <v>0.6802282675233516</v>
+        <v>0.9523793494574563</v>
       </c>
       <c r="DI3">
-        <v>0.6850037761796859</v>
+        <v>0.9523793494574563</v>
       </c>
       <c r="DJ3">
-        <v>0.7344670246721376</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.7378422496048535</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.7464633681651875</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.7471509346844309</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.7514096508196099</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.7646338533318519</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.770826429960212</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7708363201057193</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7723794399577519</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7816431696328897</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7816477832368686</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7829313609768446</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7833176012371446</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.808864901741649</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.8134588650106749</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.818301052420078</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.8230727806167926</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.8335230832618223</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.8554695222365463</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.8575408639155643</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.8579611163787817</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.8630187188646959</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.8630974436535708</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.8662865171861278</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8668930668042129</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8671498464837197</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8675263551289399</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.8688390347956532</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.87208897379811</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8923612122278545</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8961009116596315</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8961011305640783</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8986188800744223</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8989811179022059</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.9135399272923231</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.9179097127969672</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.9186408979258013</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.9219949650685677</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.9304587353638287</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.930593587253154</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.9306566248441311</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.9332071773164695</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.933354704063686</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.9358558415784596</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.9360498361292297</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.9362393817853439</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.9522837413537478</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9524387901482803</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9548213753982822</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9549702615624868</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9549719390428378</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9550471372439657</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9550471372439657</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9559328887545567</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9561177196644678</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9589432671889041</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9591944024870511</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9598301959253979</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9598488602653054</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9606526562868352</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9631737349183552</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9633087223892689</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.963323066759067</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9634821455597652</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9645282633611797</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9668004656522664</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9671452125148641</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9682980027370218</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9686191050268733</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9686596496583506</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9687945015476759</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9688692210169573</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9689304058596216</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9689814359013982</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9692685540469389</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9700817858127929</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9719548732792304</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9723236856436902</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9726635141676346</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9727151110892961</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9727514595106261</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9778649821495117</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9815393716480922</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9829582534913057</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9829745070487288</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9892403537519826</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9958009026523124</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.765974968224773E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.765974968224773E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.886741269601949E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5.107580988760649E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5.26055196892452E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.75180412113124E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001289761421399408</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001305522024788172</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001408480996708156</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001808771717392834</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0002050351351877225</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0002264280969741099</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0002308938418812009</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0002387420128199991</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0002437742196194931</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002437742196194931</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0002442367686884246</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0002442367686884246</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0002442367686884246</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002642983888526057</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002665932427264631</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002768322257862282</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002977237351113881</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0003028602224433549</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0003221081100389849</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0003396483286282933</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0003450813840464902</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0003450813840464902</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0003500722800173998</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0003549193795152533</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0003615751976334799</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0003615751976334799</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0003615751976334799</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0003665350266194947</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0003896554555889468</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0004344103599471755</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0004458331589577173</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0004682259551738797</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0005483736245257036</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0006271788584752539</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0006876621665556055</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0007198705637471924</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0007691845506391262</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0007998610720315265</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0008117071139540776</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0008301008825008896</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0008307978265799869</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0008346886113310746</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0008391543562381656</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0008397215317950806</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0008397215317950806</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0008536104285066379</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0009004996733333302</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0009022864623849649</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.00090592017058649</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0009125293054140865</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0009561643860895037</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0009881029369825409</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.001006553243601245</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.001056384124432089</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.001060539167085033</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.001062423979065068</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.001067199853234366</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.001085257429837049</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.001085257429837049</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.001086265939708853</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.001087038082754102</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.001087038082754102</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.001087038082754102</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.001097839477056317</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.001099014540252659</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001099014540252659</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001111508912203875</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.001133470515232356</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.001133470515232356</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.001133753961763149</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.001165790357355989</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.001168846422571034</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.00117869011020314</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001186016502919314</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.001203758928954089</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.001227682273756478</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.001257928036030846</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.001258243472594643</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.001258706021663575</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.001287957644421953</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.001287957644421953</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.001287957644421953</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.001293167600542453</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001458581701433956</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.115113141615491</v>
+        <v>0.2018037726614971</v>
       </c>
       <c r="CO4">
-        <v>0.115113141615491</v>
+        <v>0.2018037726614971</v>
       </c>
       <c r="CP4">
-        <v>0.3566686200430391</v>
+        <v>0.7121635170139607</v>
       </c>
       <c r="CQ4">
-        <v>0.3593226764223665</v>
+        <v>0.7121635170139607</v>
       </c>
       <c r="CR4">
-        <v>0.3901645565167692</v>
+        <v>0.7141849332462422</v>
       </c>
       <c r="CS4">
-        <v>0.3919256435134962</v>
+        <v>0.7141849332462422</v>
       </c>
       <c r="CT4">
-        <v>0.39254742270106</v>
+        <v>0.7141849332462422</v>
       </c>
       <c r="CU4">
-        <v>0.392634731889523</v>
+        <v>0.7141849332462422</v>
       </c>
       <c r="CV4">
-        <v>0.4043914331459476</v>
+        <v>0.7141849332462422</v>
       </c>
       <c r="CW4">
-        <v>0.4044668005582769</v>
+        <v>0.7141849332462422</v>
       </c>
       <c r="CX4">
-        <v>0.4630199981093037</v>
+        <v>0.7830588207824228</v>
       </c>
       <c r="CY4">
-        <v>0.4720076085475457</v>
+        <v>0.7830588207824228</v>
       </c>
       <c r="CZ4">
-        <v>0.4720178475306054</v>
+        <v>0.7830588207824228</v>
       </c>
       <c r="DA4">
-        <v>0.4945683562218847</v>
+        <v>0.7830588207824228</v>
       </c>
       <c r="DB4">
-        <v>0.495002780007086</v>
+        <v>0.7830588207824228</v>
       </c>
       <c r="DC4">
-        <v>0.5987583575666474</v>
+        <v>0.9609816850451194</v>
       </c>
       <c r="DD4">
-        <v>0.5987599536953064</v>
+        <v>0.9609816850451194</v>
       </c>
       <c r="DE4">
-        <v>0.6285430218966261</v>
+        <v>0.9609816850451194</v>
       </c>
       <c r="DF4">
-        <v>0.659900392704783</v>
+        <v>0.9642467024956618</v>
       </c>
       <c r="DG4">
-        <v>0.6615326030224294</v>
+        <v>0.9642467024956618</v>
       </c>
       <c r="DH4">
-        <v>0.6962566560360968</v>
+        <v>0.9756337093061666</v>
       </c>
       <c r="DI4">
-        <v>0.7082221792993367</v>
+        <v>0.9756337093061666</v>
       </c>
       <c r="DJ4">
-        <v>0.7478212525409158</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DK4">
-        <v>0.7479968617776815</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DL4">
-        <v>0.7534566816595564</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DM4">
-        <v>0.7560508774338701</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DN4">
-        <v>0.7573368577967247</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DO4">
-        <v>0.7726642975007779</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DP4">
-        <v>0.7753406756617768</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DQ4">
-        <v>0.7753422717904358</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DR4">
-        <v>0.7794867824226002</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DS4">
-        <v>0.7874916811785206</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DT4">
-        <v>0.7875897047761785</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DU4">
-        <v>0.7878672118530989</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DV4">
-        <v>0.7893233635210186</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DW4">
-        <v>0.8104833340916379</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DX4">
-        <v>0.8153378873546453</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DY4">
-        <v>0.8171388977573359</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="DZ4">
-        <v>0.8221035166810766</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="EA4">
-        <v>0.8373109071224644</v>
+        <v>0.9987815120587095</v>
       </c>
       <c r="EB4">
-        <v>0.8678199618129202</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC4">
-        <v>0.869802072674328</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED4">
-        <v>0.8698828768390187</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE4">
-        <v>0.8717771733100506</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF4">
-        <v>0.8724019462779854</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG4">
-        <v>0.8767190583051382</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH4">
-        <v>0.8777697305113068</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI4">
-        <v>0.878252293520752</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ4">
-        <v>0.878731194542608</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK4">
-        <v>0.8800730396693182</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL4">
-        <v>0.8840005754864975</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM4">
-        <v>0.9025693142775448</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN4">
-        <v>0.9053886112707766</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO4">
-        <v>0.9054093633427281</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP4">
-        <v>0.9075706870599751</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ4">
-        <v>0.9079945502206573</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER4">
-        <v>0.9199764651140383</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES4">
-        <v>0.9219706008049062</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET4">
-        <v>0.923142547570347</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU4">
-        <v>0.9270206126496326</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV4">
-        <v>0.9323081823928804</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW4">
-        <v>0.9323413326031919</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX4">
-        <v>0.9323423179634491</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY4">
-        <v>0.9341739781840974</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ4">
-        <v>0.934404853568667</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA4">
-        <v>0.9370889880742205</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB4">
-        <v>0.9371828853147782</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC4">
-        <v>0.937982040863504</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD4">
-        <v>0.9521455438065226</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE4">
-        <v>0.9521605536070903</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF4">
-        <v>0.9551127451240913</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG4">
-        <v>0.9552082323747763</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH4">
-        <v>0.9552454390659758</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI4">
-        <v>0.955312667242313</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ4">
-        <v>0.955330855279849</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK4">
-        <v>0.9559955326006903</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL4">
-        <v>0.9571033049689419</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM4">
-        <v>0.9600766985879546</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN4">
-        <v>0.9601498411682955</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO4">
-        <v>0.9603659116473241</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP4">
-        <v>0.9604137514596753</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ4">
-        <v>0.9611104933154747</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR4">
-        <v>0.9626595641928708</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS4">
-        <v>0.9626596486249684</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT4">
-        <v>0.9626596486249684</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU4">
-        <v>0.9627153041744043</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV4">
-        <v>0.9638950299880427</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW4">
-        <v>0.9670998629429646</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX4">
-        <v>0.9675096446341857</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY4">
-        <v>0.9682782288275437</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ4">
-        <v>0.9683567669236293</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA4">
-        <v>0.9683643026894406</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB4">
-        <v>0.9684073404062652</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC4">
-        <v>0.969203110111711</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD4">
-        <v>0.969495521290089</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE4">
-        <v>0.9695189359152641</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF4">
-        <v>0.9697604188318795</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG4">
-        <v>0.9709560814026715</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH4">
-        <v>0.9725622824469652</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI4">
-        <v>0.9730923495187384</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ4">
-        <v>0.9730981301920341</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK4">
-        <v>0.9732262834941942</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL4">
-        <v>0.9733016509065234</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM4">
-        <v>0.9784830063070064</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN4">
-        <v>0.9829791117547886</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO4">
-        <v>0.9858264306443114</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP4">
-        <v>0.9858575171914951</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ4">
-        <v>0.9915681015101141</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR4">
-        <v>0.9967073366521344</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS4">
         <v>0.9999999999999998</v>
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.503054990313031E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.503054990313031E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.503054990313031E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001114847325856623</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001287074132535684</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001287074132535684</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001287074132535684</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001402104056067338</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001612279113675648</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.000170524025808459</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.000170524025808459</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001776426698417075</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0001776426698417075</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001776426698417075</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001846398928438994</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0002043558102855276</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002043558102855276</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0002043558102855276</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.000238581474108871</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002444372934644296</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0002501815720496992</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0002842091931368966</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0002913231570993179</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0002955596839629685</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0002955596839629685</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0002955596839629685</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0002955596839629685</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0002955596839629685</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0003047355492677475</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0003047355492677475</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0003047355492677475</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0003759268373706775</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0003841175820571497</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0003841175820571497</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0004333898392871538</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0004358182318749169</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0004358182318749169</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0004535003784587381</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0004535003784587381</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0004670540067447098</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0004979848876902164</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0004979848876902164</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0005625008499547013</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0005626686292673963</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0005626686292673963</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0005643388674014139</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0005732606552702808</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0005732606552702808</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0005732606552702808</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0005732606552702808</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0006631510775074939</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0006631510775074939</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0006703869530849284</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0006843645380190799</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0007042406811821393</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0007162816088556805</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0007162816088556805</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0007455118594904597</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0007455118594904597</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0007455118594904597</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0007455118594904597</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0007455118594904597</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0007455118594904597</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0007455118594904597</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0007455118594904597</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0007615300994768793</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0007692396293590892</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0007692396293590892</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0007692396293590892</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0007692396293590892</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0007692396293590892</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0007692396293590892</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0007692396293590892</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0007732635391383146</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0007732635391383146</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0007732635391383146</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0007764726400263361</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0007764726400263361</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0007764726400263361</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0007764726400263361</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0007764726400263361</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0007764726400263361</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0007764726400263361</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0007764726400263361</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0007764726400263361</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0007764726400263361</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0008409990407159883</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0008409990407159883</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0008564205393835068</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0008865941629430743</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.009511058175400149</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1064779427927883</v>
+        <v>0.1902475244329943</v>
       </c>
       <c r="CP5">
-        <v>0.2780516200895637</v>
+        <v>0.5925368378124422</v>
       </c>
       <c r="CQ5">
-        <v>0.3522072377789712</v>
+        <v>0.7179519029768788</v>
       </c>
       <c r="CR5">
-        <v>0.3629662415975049</v>
+        <v>0.7179519029768788</v>
       </c>
       <c r="CS5">
-        <v>0.369739781399946</v>
+        <v>0.7179519029768788</v>
       </c>
       <c r="CT5">
-        <v>0.3697609563651355</v>
+        <v>0.7179519029768788</v>
       </c>
       <c r="CU5">
-        <v>0.3701801915902653</v>
+        <v>0.7179519029768788</v>
       </c>
       <c r="CV5">
-        <v>0.3706450110356453</v>
+        <v>0.7179519029768788</v>
       </c>
       <c r="CW5">
-        <v>0.3994922598289665</v>
+        <v>0.7179519029768788</v>
       </c>
       <c r="CX5">
-        <v>0.4052371146571551</v>
+        <v>0.7179519029768788</v>
       </c>
       <c r="CY5">
-        <v>0.4823092639807189</v>
+        <v>0.8516561139820037</v>
       </c>
       <c r="CZ5">
-        <v>0.4907603566240903</v>
+        <v>0.8516561139820037</v>
       </c>
       <c r="DA5">
-        <v>0.4909976656170271</v>
+        <v>0.8516561139820037</v>
       </c>
       <c r="DB5">
-        <v>0.502778380608691</v>
+        <v>0.8516561139820037</v>
       </c>
       <c r="DC5">
-        <v>0.525452533382625</v>
+        <v>0.8516561139820037</v>
       </c>
       <c r="DD5">
-        <v>0.5783622614591247</v>
+        <v>0.9166877170046011</v>
       </c>
       <c r="DE5">
-        <v>0.5942053319931466</v>
+        <v>0.9166877170046011</v>
       </c>
       <c r="DF5">
-        <v>0.5960927365838423</v>
+        <v>0.9166877170046011</v>
       </c>
       <c r="DG5">
-        <v>0.6357715485082002</v>
+        <v>0.9441154098530005</v>
       </c>
       <c r="DH5">
-        <v>0.6416973619367811</v>
+        <v>0.9441154098530005</v>
       </c>
       <c r="DI5">
-        <v>0.6620273754121424</v>
+        <v>0.9441154098530005</v>
       </c>
       <c r="DJ5">
-        <v>0.7004785530469737</v>
+        <v>0.9680540132823992</v>
       </c>
       <c r="DK5">
-        <v>0.7417471243090495</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.7440944576666054</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.7590371524566594</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.7720679444520785</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.7730139580170993</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7911278235457924</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7923441613457722</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7924822582736437</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7987053748910331</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.8030161373765475</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.8050913888669826</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.8057016044116544</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.8159686761688567</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.8206003749743971</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.8413049713268733</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.8414408371089457</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.8414408371089457</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.8616091110609525</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.8682542420145302</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.8685012838327377</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.8734740981782284</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.875005291460032</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.8767806951327112</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8779281625542357</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.8779535983552245</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8781404528606875</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.878512167100178</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8796398261432018</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8874448847931389</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8985479531619174</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8996529380151802</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.9013626974495744</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.9032661963978615</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.9093111112964567</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.9185815001724476</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.9187921820102914</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.9188044892910129</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.925736015549421</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.9288146081465509</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.9292306487290029</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.9295210824979371</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.9340632528350846</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.9352306154384346</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.9359953580913091</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.9377487606754397</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.9492441350176606</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.9569759909322093</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.958645272284341</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9589859461055004</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9596420334227044</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9598925196709192</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9600638437600667</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9600638437600667</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9602000777404165</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9625924435013785</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9629872715439146</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9639125138442826</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9639417440949173</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9639417440949173</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9667989322477667</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9676442746909636</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9678188852621082</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9679121519171756</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9688271317418142</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9693916177732894</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9697945016549299</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9702343002472459</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9711586413749212</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9711586413749212</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9714051930096488</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9717266377919125</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.971732493611268</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.971732493611268</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.971732493611268</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9724785550773716</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9740879010866861</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9755819353369918</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.975870250544139</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9759694626322317</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9762072527879108</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9788656722404775</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9836878455735005</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9850018242983709</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9856128041227876</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9879333588048914</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9961318677904392</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>5.643737726135593E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.346649126712849E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6.346649126712849E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>9.829382101907396E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>9.829382101907396E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001024257477965325</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001024257477965325</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001031738407474666</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001031738407474666</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0001305508468695221</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0001305508468695221</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001305508468695221</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001305508468695221</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001305508468695221</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001348717945613311</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001348717945613311</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001352326536079775</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001352326536079775</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0001458485161884876</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001614934350442618</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001680800757931931</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0001680800757931931</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001718184095192742</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0002092426628093163</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0002438874945806577</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0002640366506108662</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002831655539280691</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0003187268761615975</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0003236030766374463</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0003289703637715417</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0003320715043316723</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0003549340416189623</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0003549340416189623</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0003549340416189623</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0003619399141379845</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0003619399141379845</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0003619399141379845</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0003619399141379845</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0003619399141379845</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0003631029339529992</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0003631029339529992</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0003631029339529992</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0004094500620398906</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0004094500620398906</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0004094500620398906</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0004269062050252913</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0004285595966839268</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0004285595966839268</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0004285595966839268</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0004285595966839268</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0004309755073338787</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0004309755073338787</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0004342567060941606</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0004342567060941606</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0004342567060941606</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0004379028137163895</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0004427790141922383</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0004427790141922383</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0004427790141922383</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0004507515283273253</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0004507515283273253</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0004507515283273253</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0004703152852177314</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0004703152852177314</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0004883021510320414</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0004883021510320414</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0004883021510320414</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0004893672212204922</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0004893672212204922</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0004893672212204922</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0004926683246647961</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0004926683246647961</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.000499173956092884</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0005015898667428359</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0005171006186976683</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0005180858448933214</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0005180858448933214</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0006182588847309697</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1569735995698</v>
+        <v>0.3297345787809811</v>
       </c>
       <c r="CO6">
-        <v>0.2164048824622914</v>
+        <v>0.4064833083741373</v>
       </c>
       <c r="CP6">
-        <v>0.3718426574598119</v>
+        <v>0.7338229076223086</v>
       </c>
       <c r="CQ6">
-        <v>0.3816711964602936</v>
+        <v>0.7338229076223086</v>
       </c>
       <c r="CR6">
-        <v>0.4032350804396514</v>
+        <v>0.7338229076223086</v>
       </c>
       <c r="CS6">
-        <v>0.4034713734161736</v>
+        <v>0.7338229076223086</v>
       </c>
       <c r="CT6">
-        <v>0.4070673997435382</v>
+        <v>0.7338229076223086</v>
       </c>
       <c r="CU6">
-        <v>0.4088646379137129</v>
+        <v>0.7338229076223086</v>
       </c>
       <c r="CV6">
-        <v>0.4256531977791883</v>
+        <v>0.7338229076223086</v>
       </c>
       <c r="CW6">
-        <v>0.426053853158423</v>
+        <v>0.7338229076223086</v>
       </c>
       <c r="CX6">
-        <v>0.4889749431480073</v>
+        <v>0.8196805399179198</v>
       </c>
       <c r="CY6">
-        <v>0.4978761863722165</v>
+        <v>0.8196805399179198</v>
       </c>
       <c r="CZ6">
-        <v>0.498092201879879</v>
+        <v>0.8196805399179198</v>
       </c>
       <c r="DA6">
-        <v>0.5140889353543768</v>
+        <v>0.8196805399179198</v>
       </c>
       <c r="DB6">
-        <v>0.5212751690982871</v>
+        <v>0.8196805399179198</v>
       </c>
       <c r="DC6">
-        <v>0.5981830448815532</v>
+        <v>0.9420457118482758</v>
       </c>
       <c r="DD6">
-        <v>0.6042475032139055</v>
+        <v>0.9420457118482758</v>
       </c>
       <c r="DE6">
-        <v>0.6170820519603637</v>
+        <v>0.9420457118482758</v>
       </c>
       <c r="DF6">
-        <v>0.6596726376493823</v>
+        <v>0.9748377790815751</v>
       </c>
       <c r="DG6">
-        <v>0.6601773514169236</v>
+        <v>0.9748377790815751</v>
       </c>
       <c r="DH6">
-        <v>0.6897728604961365</v>
+        <v>0.9748377790815751</v>
       </c>
       <c r="DI6">
-        <v>0.7157822947684596</v>
+        <v>0.9748377790815751</v>
       </c>
       <c r="DJ6">
-        <v>0.7554497301407885</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK6">
-        <v>0.7554864455022025</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL6">
-        <v>0.7677665994424001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM6">
-        <v>0.7753611955692961</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN6">
-        <v>0.7755319869080323</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO6">
-        <v>0.7920078073655585</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP6">
-        <v>0.7935472546488969</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ6">
-        <v>0.7935788581206359</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR6">
-        <v>0.7975849997286452</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS6">
-        <v>0.8026927835037154</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT6">
-        <v>0.8036093610445401</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU6">
-        <v>0.8041900896410401</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV6">
-        <v>0.8086999277779124</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DW6">
-        <v>0.8241612981352785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DX6">
-        <v>0.8388753578332352</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DY6">
-        <v>0.8393515689382199</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DZ6">
-        <v>0.8416528275063495</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EA6">
-        <v>0.8617352611769981</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB6">
-        <v>0.8757078789036924</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC6">
-        <v>0.8760613549157937</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED6">
-        <v>0.8778911535929758</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE6">
-        <v>0.8807796928451763</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF6">
-        <v>0.882450503734731</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG6">
-        <v>0.8849172800322208</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH6">
-        <v>0.8851074118820292</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI6">
-        <v>0.8853418481525892</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ6">
-        <v>0.8860700689760037</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK6">
-        <v>0.8870382138846693</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL6">
-        <v>0.8931445886863865</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM6">
-        <v>0.9065949041805557</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN6">
-        <v>0.9077766118722794</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO6">
-        <v>0.9081421096848136</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP6">
-        <v>0.9099441533314647</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ6">
-        <v>0.9135097063304383</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER6">
-        <v>0.9247111239077704</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES6">
-        <v>0.9254654603533931</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET6">
-        <v>0.9257738742912965</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU6">
-        <v>0.9313587926243485</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV6">
-        <v>0.935280831886603</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW6">
-        <v>0.9353658495849231</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX6">
-        <v>0.9353995879196211</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY6">
-        <v>0.9380161721430709</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ6">
-        <v>0.9383434311374105</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA6">
-        <v>0.9395105667222897</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB6">
-        <v>0.9407773336502715</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC6">
-        <v>0.9456158692814446</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD6">
-        <v>0.9576932201006431</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE6">
-        <v>0.9586184071131001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF6">
-        <v>0.9596637306770587</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG6">
-        <v>0.960388889270657</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH6">
-        <v>0.9604309475310114</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI6">
-        <v>0.9605877079196228</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ6">
-        <v>0.9605998977319273</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK6">
-        <v>0.9614003143620192</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL6">
-        <v>0.9629063549740339</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM6">
-        <v>0.9638384582084413</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN6">
-        <v>0.9646655949596479</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO6">
-        <v>0.9647754010736486</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP6">
-        <v>0.9648329686389088</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ6">
-        <v>0.9663835506116994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR6">
-        <v>0.9674171894593773</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS6">
-        <v>0.967439166589626</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT6">
-        <v>0.967511326480773</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU6">
-        <v>0.9679361718276777</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV6">
-        <v>0.968703823547818</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW6">
-        <v>0.9701543140531336</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX6">
-        <v>0.9705262652901991</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY6">
-        <v>0.9719864832812722</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ6">
-        <v>0.9720893053860701</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA6">
-        <v>0.9722223973714033</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB6">
-        <v>0.9724000362538218</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC6">
-        <v>0.9724510198097318</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD6">
-        <v>0.9724518465473087</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE6">
-        <v>0.9724896481806732</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF6">
-        <v>0.9729366304555372</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG6">
-        <v>0.9739403988618935</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH6">
-        <v>0.9756522328026448</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI6">
-        <v>0.9756522328026448</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ6">
-        <v>0.9758104429834863</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK6">
-        <v>0.9760423476990042</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL6">
-        <v>0.9767521243628576</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM6">
-        <v>0.9810643017391312</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN6">
-        <v>0.9830889223416835</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO6">
-        <v>0.9840454339426553</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP6">
-        <v>0.9852565554553212</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ6">
-        <v>0.9925419391937736</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR6">
-        <v>0.9971357442220324</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>0.0004964585052391299</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5133071481184234</v>
+        <v>0.5582077052991318</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.0009805207831575307</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5043734210851732</v>
+        <v>0.7507571494034879</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001293167600542453</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5987583575666474</v>
+        <v>0.7121635170139607</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.0008865941629430743</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.502778380608691</v>
+        <v>0.5925368378124422</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.0005180858448933214</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5140889353543768</v>
+        <v>0.7338229076223086</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0004964585052391299</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7396143288835265</v>
+        <v>0.7429106256959194</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.0009805207831575307</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7344670246721376</v>
+        <v>0.7507571494034879</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001293167600542453</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7082221792993367</v>
+        <v>0.7121635170139607</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.0008865941629430743</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7004785530469737</v>
+        <v>0.7179519029768788</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.0005180858448933214</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7157822947684596</v>
+        <v>0.7338229076223086</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.0004964585052391299</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8009149915968008</v>
+        <v>0.8865314711968847</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.0009805207831575307</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.808864901741649</v>
+        <v>0.8115554855812023</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.001293167600542453</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8104833340916379</v>
+        <v>0.9609816850451194</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.0008865941629430743</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8030161373765475</v>
+        <v>0.8516561139820037</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.0005180858448933214</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8026927835037154</v>
+        <v>0.8196805399179198</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.0004964585052391299</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.901232886701535</v>
+        <v>0.9483866991042083</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.0009805207831575307</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9135399272923231</v>
+        <v>0.9485913079300861</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.001293167600542453</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9025693142775448</v>
+        <v>0.9609816850451194</v>
       </c>
       <c r="G4">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.0008865941629430743</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9013626974495744</v>
+        <v>0.9166877170046011</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.0005180858448933214</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9065949041805557</v>
+        <v>0.9420457118482758</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>61</v>

--- a/on_trucks/Processed_Stand_Alone/61_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/61_11R22.xlsx
@@ -180,7 +180,7 @@
     <t>11R22.5</t>
   </si>
   <si>
-    <t>710Rバフ100</t>
+    <t>710R</t>
   </si>
   <si>
     <t>100%</t>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2884640488661734</v>
+        <v>0.220926448265725</v>
       </c>
       <c r="E2">
-        <v>0.2346618086604776</v>
+        <v>0.1844888277257527</v>
       </c>
       <c r="F2">
-        <v>0.1779072150042185</v>
+        <v>0.146051722883264</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -692,64 +692,64 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03692547847444817</v>
+        <v>0.05057170199383092</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1188040107759598</v>
+        <v>0.1060240192015539</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.009887987049081361</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.001688294091832426</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.02114595774189774</v>
       </c>
       <c r="S2">
-        <v>0.06904270324974983</v>
+        <v>0.07232312432653053</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.003699132503106689</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.02907765469769576</v>
+        <v>0.04525675555761163</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.02359475062994405</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.02359500333443535</v>
       </c>
       <c r="Z2">
-        <v>0.04511708027127699</v>
+        <v>0.05611947243510346</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01602762179749123</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.002103241264127646</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.01649593919871151</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1544041058760192</v>
+        <v>0.1376808949027615</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5461802015523262</v>
+        <v>0.4237001810906716</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.004579893327653409</v>
+        <v>0.02830052484017615</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -799,55 +799,55 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0002536075354545008</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.06883667019906924</v>
+        <v>0.07521170103578299</v>
       </c>
       <c r="O3">
-        <v>0.002126241456205936</v>
+        <v>0.02650921657872247</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.01008538608075656</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.137046480939115</v>
+        <v>0.1250088213659609</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0119503736122114</v>
+        <v>0.03368140318654952</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.02268204353572318</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01782946096864761</v>
+        <v>0.03797347814385769</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.05704657206875177</v>
+        <v>0.06660424517378731</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.001307288079783204</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.008666536380677246</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.002334672069335378</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -882,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1909974978852321</v>
+        <v>0.1641449435294445</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4622062553270624</v>
+        <v>0.3625884154086267</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01539653852271165</v>
+        <v>0.03565770598628428</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -906,49 +906,49 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.006046275559817431</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.07415727348720992</v>
+        <v>0.0786529409724868</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.001749918643107959</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.02279330636352453</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1700071036370611</v>
+        <v>0.1487862701959948</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0131513704564841</v>
+        <v>0.03401491631305618</v>
       </c>
       <c r="V4">
-        <v>0.01648961586394525</v>
+        <v>0.03645751077383207</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.02362853017566474</v>
+        <v>0.04168105500901204</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.006370271388141631</v>
       </c>
       <c r="Z4">
-        <v>0.03396581464462865</v>
+        <v>0.04924484697197596</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.01158642134575382</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.0002252015389415149</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -989,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.001060747944511756</v>
       </c>
       <c r="E5">
-        <v>0.1800982339947837</v>
+        <v>0.1449448338917928</v>
       </c>
       <c r="F5">
-        <v>0.3640783843812691</v>
+        <v>0.2664575805046329</v>
       </c>
       <c r="G5">
-        <v>0.1238457110113683</v>
+        <v>0.1077919206168679</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004537291906204824</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1016,64 +1016,64 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.01211539499188095</v>
+        <v>0.03399777733060494</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1310378701886822</v>
+        <v>0.1125421016221356</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0007783764541280451</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.006201361978558502</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.02394360095494947</v>
       </c>
       <c r="T5">
-        <v>0.07145340428301071</v>
+        <v>0.07318855129375663</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.01281775657135562</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.03882600058422424</v>
+        <v>0.05163924051236533</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.02012568043614711</v>
       </c>
       <c r="Z5">
-        <v>0.03579865772313499</v>
+        <v>0.0496397816293447</v>
       </c>
       <c r="AA5">
-        <v>0.04274634284164566</v>
+        <v>0.05422849568125691</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.01135130659134793</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.0082373735097958</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.01651622057024322</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3059806124356602</v>
+        <v>0.2364675958786759</v>
       </c>
       <c r="E6">
-        <v>0.08180551116353922</v>
+        <v>0.08196103485697036</v>
       </c>
       <c r="F6">
-        <v>0.3038583799825965</v>
+        <v>0.2350049051688209</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.002889341507151283</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02159664531163911</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1120,55 +1120,55 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01398430505883026</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.08987706612345597</v>
+        <v>0.08752413348780622</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.001411140070842918</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.01272205525849713</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.122227023328923</v>
+        <v>0.1098204572483507</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.007681219177424844</v>
       </c>
       <c r="V6">
-        <v>0.04285475851179927</v>
+        <v>0.0551152932591016</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01279851982979415</v>
+        <v>0.03439985229508899</v>
       </c>
       <c r="Y6">
-        <v>0.004504307832145874</v>
+        <v>0.02868329338703252</v>
       </c>
       <c r="Z6">
-        <v>0.03609382079208569</v>
+        <v>0.05045550173708574</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.006797458871527095</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.01348576742515438</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1323,85 +1323,85 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2884640488661734</v>
+        <v>0.220926448265725</v>
       </c>
       <c r="E2">
-        <v>0.5231258575266511</v>
+        <v>0.4054152759914777</v>
       </c>
       <c r="F2">
-        <v>0.7010330725308697</v>
+        <v>0.5514669988747417</v>
       </c>
       <c r="G2">
-        <v>0.7010330725308697</v>
+        <v>0.5514669988747417</v>
       </c>
       <c r="H2">
-        <v>0.7010330725308697</v>
+        <v>0.5514669988747417</v>
       </c>
       <c r="I2">
-        <v>0.7010330725308697</v>
+        <v>0.5514669988747417</v>
       </c>
       <c r="J2">
-        <v>0.7010330725308697</v>
+        <v>0.5514669988747417</v>
       </c>
       <c r="K2">
-        <v>0.7010330725308697</v>
+        <v>0.5514669988747417</v>
       </c>
       <c r="L2">
-        <v>0.7379585510053178</v>
+        <v>0.6020387008685726</v>
       </c>
       <c r="M2">
-        <v>0.7379585510053178</v>
+        <v>0.6020387008685726</v>
       </c>
       <c r="N2">
-        <v>0.8567625617812776</v>
+        <v>0.7080627200701265</v>
       </c>
       <c r="O2">
-        <v>0.8567625617812776</v>
+        <v>0.7179507071192078</v>
       </c>
       <c r="P2">
-        <v>0.8567625617812776</v>
+        <v>0.7179507071192078</v>
       </c>
       <c r="Q2">
-        <v>0.8567625617812776</v>
+        <v>0.7196390012110403</v>
       </c>
       <c r="R2">
-        <v>0.8567625617812776</v>
+        <v>0.7407849589529381</v>
       </c>
       <c r="S2">
-        <v>0.9258052650310274</v>
+        <v>0.8131080832794686</v>
       </c>
       <c r="T2">
-        <v>0.9258052650310274</v>
+        <v>0.8168072157825753</v>
       </c>
       <c r="U2">
-        <v>0.9258052650310274</v>
+        <v>0.8168072157825753</v>
       </c>
       <c r="V2">
-        <v>0.9548829197287232</v>
+        <v>0.862063971340187</v>
       </c>
       <c r="W2">
-        <v>0.9548829197287232</v>
+        <v>0.862063971340187</v>
       </c>
       <c r="X2">
-        <v>0.9548829197287232</v>
+        <v>0.8856587219701311</v>
       </c>
       <c r="Y2">
-        <v>0.9548829197287232</v>
+        <v>0.9092537253045664</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9653731977396699</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9653731977396699</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9814008195371611</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9835040608012887</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9835040608012887</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1430,100 +1430,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1544041058760192</v>
+        <v>0.1376808949027615</v>
       </c>
       <c r="E3">
-        <v>0.1544041058760192</v>
+        <v>0.1376808949027615</v>
       </c>
       <c r="F3">
-        <v>0.7005843074283453</v>
+        <v>0.5613810759934331</v>
       </c>
       <c r="G3">
-        <v>0.7005843074283453</v>
+        <v>0.5613810759934331</v>
       </c>
       <c r="H3">
-        <v>0.7051642007559987</v>
+        <v>0.5896816008336093</v>
       </c>
       <c r="I3">
-        <v>0.7051642007559987</v>
+        <v>0.5896816008336093</v>
       </c>
       <c r="J3">
-        <v>0.7051642007559987</v>
+        <v>0.5896816008336093</v>
       </c>
       <c r="K3">
-        <v>0.7051642007559987</v>
+        <v>0.5896816008336093</v>
       </c>
       <c r="L3">
-        <v>0.7051642007559987</v>
+        <v>0.5899352083690638</v>
       </c>
       <c r="M3">
-        <v>0.7051642007559987</v>
+        <v>0.5899352083690638</v>
       </c>
       <c r="N3">
-        <v>0.774000870955068</v>
+        <v>0.6651469094048468</v>
       </c>
       <c r="O3">
-        <v>0.776127112411274</v>
+        <v>0.6916561259835693</v>
       </c>
       <c r="P3">
-        <v>0.776127112411274</v>
+        <v>0.6916561259835693</v>
       </c>
       <c r="Q3">
-        <v>0.776127112411274</v>
+        <v>0.7017415120643259</v>
       </c>
       <c r="R3">
-        <v>0.776127112411274</v>
+        <v>0.7017415120643259</v>
       </c>
       <c r="S3">
-        <v>0.9131735933503891</v>
+        <v>0.8267503334302868</v>
       </c>
       <c r="T3">
-        <v>0.9131735933503891</v>
+        <v>0.8267503334302868</v>
       </c>
       <c r="U3">
-        <v>0.9251239669626005</v>
+        <v>0.8604317366168364</v>
       </c>
       <c r="V3">
-        <v>0.9251239669626005</v>
+        <v>0.8831137801525596</v>
       </c>
       <c r="W3">
-        <v>0.9251239669626005</v>
+        <v>0.8831137801525596</v>
       </c>
       <c r="X3">
-        <v>0.942953427931248</v>
+        <v>0.9210872582964172</v>
       </c>
       <c r="Y3">
-        <v>0.942953427931248</v>
+        <v>0.9210872582964172</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999998</v>
+        <v>0.9876915034702045</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999998</v>
+        <v>0.9876915034702045</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999998</v>
+        <v>0.9889987915499877</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999998</v>
+        <v>0.9889987915499877</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999998</v>
+        <v>0.9889987915499877</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999998</v>
+        <v>0.997665327930665</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999998</v>
+        <v>0.997665327930665</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999998</v>
+        <v>0.997665327930665</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>0.997665327930665</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1909974978852321</v>
+        <v>0.1641449435294445</v>
       </c>
       <c r="E4">
-        <v>0.1909974978852321</v>
+        <v>0.1641449435294445</v>
       </c>
       <c r="F4">
-        <v>0.6532037532122945</v>
+        <v>0.5267333589380712</v>
       </c>
       <c r="G4">
-        <v>0.6532037532122945</v>
+        <v>0.5267333589380712</v>
       </c>
       <c r="H4">
-        <v>0.6686002917350061</v>
+        <v>0.5623910649243554</v>
       </c>
       <c r="I4">
-        <v>0.6686002917350061</v>
+        <v>0.5623910649243554</v>
       </c>
       <c r="J4">
-        <v>0.6686002917350061</v>
+        <v>0.5623910649243554</v>
       </c>
       <c r="K4">
-        <v>0.6686002917350061</v>
+        <v>0.5623910649243554</v>
       </c>
       <c r="L4">
-        <v>0.6686002917350061</v>
+        <v>0.5684373404841728</v>
       </c>
       <c r="M4">
-        <v>0.6686002917350061</v>
+        <v>0.5684373404841728</v>
       </c>
       <c r="N4">
-        <v>0.742757565222216</v>
+        <v>0.6470902814566596</v>
       </c>
       <c r="O4">
-        <v>0.742757565222216</v>
+        <v>0.6488402000997675</v>
       </c>
       <c r="P4">
-        <v>0.742757565222216</v>
+        <v>0.6488402000997675</v>
       </c>
       <c r="Q4">
-        <v>0.742757565222216</v>
+        <v>0.671633506463292</v>
       </c>
       <c r="R4">
-        <v>0.742757565222216</v>
+        <v>0.671633506463292</v>
       </c>
       <c r="S4">
-        <v>0.9127646688592772</v>
+        <v>0.8204197766592868</v>
       </c>
       <c r="T4">
-        <v>0.9127646688592772</v>
+        <v>0.8204197766592868</v>
       </c>
       <c r="U4">
-        <v>0.9259160393157613</v>
+        <v>0.854434692972343</v>
       </c>
       <c r="V4">
-        <v>0.9424056551797065</v>
+        <v>0.8908922037461751</v>
       </c>
       <c r="W4">
-        <v>0.9424056551797065</v>
+        <v>0.8908922037461751</v>
       </c>
       <c r="X4">
-        <v>0.9660341853553712</v>
+        <v>0.9325732587551872</v>
       </c>
       <c r="Y4">
-        <v>0.9660341853553712</v>
+        <v>0.9389435301433288</v>
       </c>
       <c r="Z4">
-        <v>0.9999999999999999</v>
+        <v>0.9881883771153047</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999999</v>
+        <v>0.9881883771153047</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999999</v>
+        <v>0.9881883771153047</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999999</v>
+        <v>0.9881883771153047</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999999</v>
+        <v>0.9881883771153047</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>0.9997747984610585</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9997747984610585</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9997747984610585</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9997747984610585</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.001060747944511756</v>
       </c>
       <c r="E5">
-        <v>0.1800982339947837</v>
+        <v>0.1460055818363045</v>
       </c>
       <c r="F5">
-        <v>0.5441766183760528</v>
+        <v>0.4124631623409375</v>
       </c>
       <c r="G5">
-        <v>0.668022329387421</v>
+        <v>0.5202550829578054</v>
       </c>
       <c r="H5">
-        <v>0.668022329387421</v>
+        <v>0.5247923748640102</v>
       </c>
       <c r="I5">
-        <v>0.668022329387421</v>
+        <v>0.5247923748640102</v>
       </c>
       <c r="J5">
-        <v>0.668022329387421</v>
+        <v>0.5247923748640102</v>
       </c>
       <c r="K5">
-        <v>0.668022329387421</v>
+        <v>0.5247923748640102</v>
       </c>
       <c r="L5">
-        <v>0.668022329387421</v>
+        <v>0.5247923748640102</v>
       </c>
       <c r="M5">
-        <v>0.680137724379302</v>
+        <v>0.5587901521946151</v>
       </c>
       <c r="N5">
-        <v>0.680137724379302</v>
+        <v>0.5587901521946151</v>
       </c>
       <c r="O5">
-        <v>0.8111755945679842</v>
+        <v>0.6713322538167508</v>
       </c>
       <c r="P5">
-        <v>0.8111755945679842</v>
+        <v>0.6721106302708788</v>
       </c>
       <c r="Q5">
-        <v>0.8111755945679842</v>
+        <v>0.6721106302708788</v>
       </c>
       <c r="R5">
-        <v>0.8111755945679842</v>
+        <v>0.6783119922494373</v>
       </c>
       <c r="S5">
-        <v>0.8111755945679842</v>
+        <v>0.7022555932043868</v>
       </c>
       <c r="T5">
-        <v>0.8826289988509949</v>
+        <v>0.7754441444981435</v>
       </c>
       <c r="U5">
-        <v>0.8826289988509949</v>
+        <v>0.7882619010694991</v>
       </c>
       <c r="V5">
-        <v>0.8826289988509949</v>
+        <v>0.7882619010694991</v>
       </c>
       <c r="W5">
-        <v>0.9214549994352191</v>
+        <v>0.8399011415818645</v>
       </c>
       <c r="X5">
-        <v>0.9214549994352191</v>
+        <v>0.8399011415818645</v>
       </c>
       <c r="Y5">
-        <v>0.9214549994352191</v>
+        <v>0.8600268220180116</v>
       </c>
       <c r="Z5">
-        <v>0.9572536571583541</v>
+        <v>0.9096666036473563</v>
       </c>
       <c r="AA5">
-        <v>0.9999999999999998</v>
+        <v>0.9638950993286132</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999998</v>
+        <v>0.9638950993286132</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999998</v>
+        <v>0.9752464059199611</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999998</v>
+        <v>0.983483779429757</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999998</v>
+        <v>0.983483779429757</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3059806124356602</v>
+        <v>0.2364675958786759</v>
       </c>
       <c r="E6">
-        <v>0.3877861235991994</v>
+        <v>0.3184286307356462</v>
       </c>
       <c r="F6">
-        <v>0.691644503581796</v>
+        <v>0.5534335359044671</v>
       </c>
       <c r="G6">
-        <v>0.691644503581796</v>
+        <v>0.5563228774116183</v>
       </c>
       <c r="H6">
-        <v>0.691644503581796</v>
+        <v>0.5779195227232574</v>
       </c>
       <c r="I6">
-        <v>0.691644503581796</v>
+        <v>0.5779195227232574</v>
       </c>
       <c r="J6">
-        <v>0.691644503581796</v>
+        <v>0.5779195227232574</v>
       </c>
       <c r="K6">
-        <v>0.691644503581796</v>
+        <v>0.5779195227232574</v>
       </c>
       <c r="L6">
-        <v>0.691644503581796</v>
+        <v>0.5919038277820877</v>
       </c>
       <c r="M6">
-        <v>0.691644503581796</v>
+        <v>0.5919038277820877</v>
       </c>
       <c r="N6">
-        <v>0.781521569705252</v>
+        <v>0.6794279612698939</v>
       </c>
       <c r="O6">
-        <v>0.781521569705252</v>
+        <v>0.6808391013407368</v>
       </c>
       <c r="P6">
-        <v>0.781521569705252</v>
+        <v>0.6808391013407368</v>
       </c>
       <c r="Q6">
-        <v>0.781521569705252</v>
+        <v>0.6935611565992339</v>
       </c>
       <c r="R6">
-        <v>0.781521569705252</v>
+        <v>0.6935611565992339</v>
       </c>
       <c r="S6">
-        <v>0.903748593034175</v>
+        <v>0.8033816138475847</v>
       </c>
       <c r="T6">
-        <v>0.903748593034175</v>
+        <v>0.8033816138475847</v>
       </c>
       <c r="U6">
-        <v>0.903748593034175</v>
+        <v>0.8110628330250095</v>
       </c>
       <c r="V6">
-        <v>0.9466033515459743</v>
+        <v>0.8661781262841111</v>
       </c>
       <c r="W6">
-        <v>0.9466033515459743</v>
+        <v>0.8661781262841111</v>
       </c>
       <c r="X6">
-        <v>0.9594018713757685</v>
+        <v>0.9005779785792001</v>
       </c>
       <c r="Y6">
-        <v>0.9639061792079143</v>
+        <v>0.9292612719662325</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9797167737033183</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9797167737033183</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9865142325748454</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9865142325748454</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9865142325748454</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1912,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.5514669988747417</v>
+      </c>
+      <c r="G2">
         <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5231258575266511</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7005843074283453</v>
+        <v>0.5613810759934331</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6532037532122945</v>
+        <v>0.5267333589380712</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2035,16 +2035,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5441766183760528</v>
+        <v>0.5202550829578054</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.691644503581796</v>
+        <v>0.5534335359044671</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7010330725308697</v>
+        <v>0.7080627200701265</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -2212,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7005843074283453</v>
+        <v>0.7017415120643259</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.742757565222216</v>
+        <v>0.8204197766592868</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -2294,16 +2294,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8111755945679842</v>
+        <v>0.7022555932043868</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.781521569705252</v>
+        <v>0.8033816138475847</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8567625617812776</v>
+        <v>0.8131080832794686</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9131735933503891</v>
+        <v>0.8267503334302868</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9127646688592772</v>
+        <v>0.8204197766592868</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2553,16 +2553,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8111755945679842</v>
+        <v>0.8399011415818645</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.903748593034175</v>
+        <v>0.8033816138475847</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9258052650310274</v>
+        <v>0.9092537253045664</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9131735933503891</v>
+        <v>0.9210872582964172</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9127646688592772</v>
+        <v>0.9325732587551872</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -2812,16 +2812,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9214549994352191</v>
+        <v>0.9096666036473563</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.903748593034175</v>
+        <v>0.9005779785792001</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>61</v>
